--- a/data/HistFlowMassConcAnn.xlsx
+++ b/data/HistFlowMassConcAnn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfelletter\Documents\RW-RDF-Process-Plot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9F4C11-5388-4466-9AE6-57DACC3C9B95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C13C0-97F7-4F1A-AE4C-A18044AA57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59F0FA27-635D-4EC0-813F-B52CA9E5C405}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Year</t>
   </si>
@@ -227,6 +227,15 @@
   <si>
     <t>29_conc_imper</t>
   </si>
+  <si>
+    <t>20_flow_powellin</t>
+  </si>
+  <si>
+    <t>20_mass_powellin</t>
+  </si>
+  <si>
+    <t>20_conc_powellin</t>
+  </si>
 </sst>
 </file>
 
@@ -241,12 +250,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,10 +282,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,7 +1533,7 @@
             <v>2269679</v>
           </cell>
           <cell r="K98">
-            <v>1382086</v>
+            <v>1382092.74</v>
           </cell>
           <cell r="L98">
             <v>1585054</v>
@@ -1573,7 +1598,7 @@
             <v>6005759</v>
           </cell>
           <cell r="K99">
-            <v>1051910</v>
+            <v>1051946.6800000002</v>
           </cell>
           <cell r="L99">
             <v>1432500</v>
@@ -2753,7 +2778,7 @@
             <v>2118329.8070087912</v>
           </cell>
           <cell r="K98">
-            <v>599266.69358158368</v>
+            <v>442729.14372603362</v>
           </cell>
           <cell r="L98">
             <v>729408.63687505922</v>
@@ -2815,7 +2840,7 @@
             <v>3122692.1057380354</v>
           </cell>
           <cell r="K99">
-            <v>493866.51592172461</v>
+            <v>363891.08685548854</v>
           </cell>
           <cell r="L99">
             <v>643567.16406863462</v>
@@ -3995,7 +4020,7 @@
             <v>686.43049836562795</v>
           </cell>
           <cell r="L98">
-            <v>318.89852201671965</v>
+            <v>235.59624218271705</v>
           </cell>
           <cell r="M98">
             <v>338.44980820842693</v>
@@ -4057,7 +4082,7 @@
             <v>382.40952219361458</v>
           </cell>
           <cell r="L99">
-            <v>345.30147351009117</v>
+            <v>254.41641235606158</v>
           </cell>
           <cell r="M99">
             <v>330.42026883071554</v>
@@ -4104,6 +4129,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4406,203 +4432,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CB55C4-5E51-4C62-9A91-E4779496D8F0}">
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BN601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:BJ1"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1:BM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="6"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>[1]annualCYFlow!A80</f>
         <v>2000</v>
@@ -4610,248 +4646,258 @@
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <f>[1]annualCYFlow!$B80</f>
         <v>1318427</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <f>[1]annualCYFlow!$C80</f>
         <v>2257839</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <f>[1]annualCYFlow!$G80</f>
         <v>1337374</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <f>[1]annualCYFlow!$H80</f>
         <v>314498</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <f>[1]annualCYFlow!$I80</f>
         <v>3605230</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <f>[1]annualCYFlow!$K80</f>
         <v>783600</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <f>[1]annualCYFlow!$L80</f>
         <v>1200256</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <f>[1]annualCYFlow!$M80</f>
         <v>916701</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <f>[1]annualCYFlow!$O80</f>
         <v>124466</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <f>[1]annualCYFlow!$P80</f>
         <v>388994</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <f>[1]annualCYFlow!$Q80</f>
         <v>2929234</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <f>[1]annualCYFlow!$R80</f>
         <v>28588</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <f>[1]annualCYFlow!$S80</f>
         <v>478029</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <f>[1]annualCYFlow!$T80</f>
         <v>836591</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <f>[1]annualCYFlow!$U80</f>
         <v>8655796</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <f>[1]annualCYFlow!$V80</f>
         <v>9065665</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <f>[1]annualCYFlow!$W80</f>
         <v>110901</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="3">
         <f>[1]annualCYFlow!$X80</f>
         <v>10692374</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="3">
         <f>[1]annualCYFlow!$Y80</f>
         <v>7895680</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="3">
         <f>[1]annualCYFlow!$Z80</f>
         <v>6509232</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="3">
         <f>[1]annualCYSaltMass!$B80</f>
         <v>492244.46959392144</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="3">
         <f>[1]annualCYSaltMass!$C80</f>
         <v>1240986.0108748635</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="3">
         <f>[1]annualCYSaltMass!$G80</f>
         <v>928371.75128998316</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="3">
         <f>[1]annualCYSaltMass!$H80</f>
         <v>198282.74668671022</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="3">
         <f>[1]annualCYSaltMass!$I80</f>
         <v>2730994.3843081268</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="3">
         <f>[1]annualCYSaltMass!$K80</f>
         <v>348952.43537252297</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="3">
         <f>[1]annualCYSaltMass!$L80</f>
         <v>639278.52434897784</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="3">
         <f>[1]annualCYSaltMass!$M80</f>
         <v>191023.38651711348</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="3">
         <f>[1]annualCYSaltMass!$O80</f>
         <v>124227.08959463514</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="3">
         <f>[1]annualCYSaltMass!$P80</f>
         <v>206241.9961398716</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="3">
         <f>[1]annualCYSaltMass!$Q80</f>
         <v>1613722.8419080868</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="3">
         <f>[1]annualCYSaltMass!$R80</f>
         <v>86982.837952619229</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="3">
         <f>[1]annualCYSaltMass!$S80</f>
         <v>90931.568528892618</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="3">
         <f>[1]annualCYSaltMass!$T80</f>
         <v>441720.18051868415</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="3">
         <f>[1]annualCYSaltMass!$U80</f>
         <v>5127211.3995086402</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="3">
         <f>[1]annualCYSaltMass!$V80</f>
         <v>6123291.1997774262</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="3">
         <f>[1]annualCYSaltMass!$W80</f>
         <v>252221.20957424596</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="3">
         <f>[1]annualCYSaltMass!$X80</f>
         <v>7868226.0652301963</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="3">
         <f>[1]annualCYSaltMass!$Y80</f>
         <v>5848131.4128093822</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="3">
         <f>[1]annualCYSaltMass!$Z80</f>
         <v>5940319.7869741572</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="4">
         <f>[1]annualCYConc!$C80</f>
         <v>274.59472522938319</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2" s="4">
         <f>[1]annualCYConc!$D80</f>
         <v>404.24192079240362</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2" s="4">
         <f>[1]annualCYConc!$H80</f>
         <v>510.54787710842294</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2" s="4">
         <f>[1]annualCYConc!$I80</f>
         <v>463.69719807439157</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2" s="4">
         <f>[1]annualCYConc!$J80</f>
         <v>557.12835724766512</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AV2" s="4">
         <f>[1]annualCYConc!$L80</f>
         <v>327.52106661562027</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2" s="4">
         <f>[1]annualCYConc!$M80</f>
         <v>391.72714095992853</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2" s="4">
         <f>[1]annualCYConc!$N80</f>
         <v>153.25909909556117</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2" s="4">
         <f>[1]annualCYConc!$P80</f>
         <v>734.06245400350303</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2" s="4">
         <f>[1]annualCYConc!$Q80</f>
         <v>389.94345388360745</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2" s="4">
         <f>[1]annualCYConc!$R80</f>
         <v>405.17469447643998</v>
       </c>
-      <c r="BB2" s="2">
+      <c r="BB2" s="4">
         <f>[1]annualCYConc!$S80</f>
         <v>2237.779201063383</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2" s="4">
         <f>[1]annualCYConc!$T80</f>
         <v>139.90327197722317</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2" s="4">
         <f>[1]annualCYConc!$U80</f>
         <v>388.33048586465787</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2" s="4">
         <f>[1]annualCYConc!$V80</f>
         <v>435.65393896760042</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2" s="4">
         <f>[1]annualCYConc!$W80</f>
         <v>496.76693336892549</v>
       </c>
-      <c r="BG2" s="2">
+      <c r="BG2" s="4">
         <f>[1]annualCYConc!$X80</f>
         <v>1672.6827386588041</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BH2" s="4">
         <f>[1]annualCYConc!$Y80</f>
         <v>541.21536975792276</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BI2" s="4">
         <f>[1]annualCYConc!Z80</f>
         <v>544.7472138055241</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BJ2" s="4">
         <f>[1]annualCYConc!AA80</f>
         <v>671.19313774651141</v>
       </c>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK2" s="5">
+        <v>7536925.2637055302</v>
+      </c>
+      <c r="BL2" s="5">
+        <v>4723201.4840809396</v>
+      </c>
+      <c r="BM2" s="5">
+        <v>466.01983587186299</v>
+      </c>
+      <c r="BN2" s="6"/>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>[1]annualCYFlow!A81</f>
         <v>2001</v>
@@ -4859,248 +4905,258 @@
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>[1]annualCYFlow!$B81</f>
         <v>1017693</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f>[1]annualCYFlow!$C81</f>
         <v>1902955</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f>[1]annualCYFlow!$G81</f>
         <v>1153261</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <f>[1]annualCYFlow!$H81</f>
         <v>229042</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <f>[1]annualCYFlow!$I81</f>
         <v>2958414</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f>[1]annualCYFlow!$K81</f>
         <v>482704</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <f>[1]annualCYFlow!$L81</f>
         <v>759893</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <f>[1]annualCYFlow!$M81</f>
         <v>719834</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <f>[1]annualCYFlow!$O81</f>
         <v>140183</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <f>[1]annualCYFlow!$P81</f>
         <v>372434</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <f>[1]annualCYFlow!$Q81</f>
         <v>2365023</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <f>[1]annualCYFlow!$R81</f>
         <v>24707</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <f>[1]annualCYFlow!$S81</f>
         <v>688075</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <f>[1]annualCYFlow!$T81</f>
         <v>1123703</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <f>[1]annualCYFlow!$U81</f>
         <v>8090783</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <f>[1]annualCYFlow!$V81</f>
         <v>8504609</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <f>[1]annualCYFlow!$W81</f>
         <v>103534</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
         <f>[1]annualCYFlow!$X81</f>
         <v>10209550</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="3">
         <f>[1]annualCYFlow!$Y81</f>
         <v>7699451</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="3">
         <f>[1]annualCYFlow!$Z81</f>
         <v>6097241</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="3">
         <f>[1]annualCYSaltMass!$B81</f>
         <v>459415.98477130727</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="3">
         <f>[1]annualCYSaltMass!$C81</f>
         <v>1159450.8557709206</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="3">
         <f>[1]annualCYSaltMass!$G81</f>
         <v>864995.5999733659</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3" s="3">
         <f>[1]annualCYSaltMass!$H81</f>
         <v>149195.96598691982</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="3">
         <f>[1]annualCYSaltMass!$I81</f>
         <v>2501777.0090748542</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3" s="3">
         <f>[1]annualCYSaltMass!$K81</f>
         <v>226663.93305972847</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3" s="3">
         <f>[1]annualCYSaltMass!$L81</f>
         <v>449801.90429101349</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AD3" s="3">
         <f>[1]annualCYSaltMass!$M81</f>
         <v>195673.29833256346</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="3">
         <f>[1]annualCYSaltMass!$O81</f>
         <v>119935.74277792149</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="3">
         <f>[1]annualCYSaltMass!$P81</f>
         <v>193280.45526977707</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="3">
         <f>[1]annualCYSaltMass!$Q81</f>
         <v>1269922.4862147316</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AH3" s="3">
         <f>[1]annualCYSaltMass!$R81</f>
         <v>77722.24003570342</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="3">
         <f>[1]annualCYSaltMass!$S81</f>
         <v>126667.14872664129</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="3">
         <f>[1]annualCYSaltMass!$T81</f>
         <v>496019.8322903908</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="3">
         <f>[1]annualCYSaltMass!$U81</f>
         <v>4968702.7607654538</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="3">
         <f>[1]annualCYSaltMass!$V81</f>
         <v>5972867.2782495013</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="3">
         <f>[1]annualCYSaltMass!$W81</f>
         <v>251708.53039665165</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="3">
         <f>[1]annualCYSaltMass!$X81</f>
         <v>7633490.238926732</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="3">
         <f>[1]annualCYSaltMass!$Y81</f>
         <v>5748702.7495726738</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="3">
         <f>[1]annualCYSaltMass!$Z81</f>
         <v>5639433.4532403192</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3" s="4">
         <f>[1]annualCYConc!$C81</f>
         <v>332.01426825182057</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3" s="4">
         <f>[1]annualCYConc!$D81</f>
         <v>448.11683539547698</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3" s="4">
         <f>[1]annualCYConc!$H81</f>
         <v>551.6374293416668</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3" s="4">
         <f>[1]annualCYConc!$I81</f>
         <v>479.08148461854159</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3" s="4">
         <f>[1]annualCYConc!$J81</f>
         <v>621.95230461321501</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3" s="4">
         <f>[1]annualCYConc!$L81</f>
         <v>345.35755100434221</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3" s="4">
         <f>[1]annualCYConc!$M81</f>
         <v>435.34772487705504</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AX3" s="4">
         <f>[1]annualCYConc!$N81</f>
         <v>199.92478752045611</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3" s="4">
         <f>[1]annualCYConc!$P81</f>
         <v>629.24636082834581</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3" s="4">
         <f>[1]annualCYConc!$Q81</f>
         <v>381.68584286074844</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BA3" s="4">
         <f>[1]annualCYConc!$R81</f>
         <v>394.92013599867738</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BB3" s="4">
         <f>[1]annualCYConc!$S81</f>
         <v>2313.6237139272271</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BC3" s="4">
         <f>[1]annualCYConc!$T81</f>
         <v>135.39282476474222</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BD3" s="4">
         <f>[1]annualCYConc!$U81</f>
         <v>324.6496463923296</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BE3" s="4">
         <f>[1]annualCYConc!$V81</f>
         <v>451.66859752634576</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BF3" s="4">
         <f>[1]annualCYConc!$W81</f>
         <v>516.53047071299807</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BG3" s="4">
         <f>[1]annualCYConc!$X81</f>
         <v>1788.0611789363879</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BH3" s="4">
         <f>[1]annualCYConc!$Y81</f>
         <v>549.90033915304787</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BI3" s="4">
         <f>[1]annualCYConc!$Z81</f>
         <v>549.1329792344934</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BJ3" s="4">
         <f>[1]annualCYConc!AA81</f>
         <v>680.25156287901359</v>
       </c>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK3" s="5">
+        <v>6698653.9282135703</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>4260925.67439787</v>
+      </c>
+      <c r="BM3" s="5">
+        <v>472.193426092697</v>
+      </c>
+      <c r="BN3" s="6"/>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>[1]annualCYFlow!A82</f>
         <v>2002</v>
@@ -5108,248 +5164,258 @@
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f>[1]annualCYFlow!$B82</f>
         <v>682877</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f>[1]annualCYFlow!$C82</f>
         <v>1198079</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f>[1]annualCYFlow!$G82</f>
         <v>710924</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <f>[1]annualCYFlow!$H82</f>
         <v>76471</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <f>[1]annualCYFlow!$I82</f>
         <v>1739672</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <f>[1]annualCYFlow!$K82</f>
         <v>444212</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <f>[1]annualCYFlow!$L82</f>
         <v>686507.7605546501</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <f>[1]annualCYFlow!$M82</f>
         <v>363334</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <f>[1]annualCYFlow!$O82</f>
         <v>42923</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <f>[1]annualCYFlow!$P82</f>
         <v>209023</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <f>[1]annualCYFlow!$Q82</f>
         <v>1465348</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <f>[1]annualCYFlow!$R82</f>
         <v>13517</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <f>[1]annualCYFlow!$S82</f>
         <v>440572</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <f>[1]annualCYFlow!$T82</f>
         <v>524185</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <f>[1]annualCYFlow!$U82</f>
         <v>7912550</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <f>[1]annualCYFlow!$V82</f>
         <v>8215598</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <f>[1]annualCYFlow!$W82</f>
         <v>77081</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="3">
         <f>[1]annualCYFlow!$X82</f>
         <v>10447813</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="3">
         <f>[1]annualCYFlow!$Y82</f>
         <v>7565419</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="3">
         <f>[1]annualCYFlow!$Z82</f>
         <v>6140916</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="3">
         <f>[1]annualCYSaltMass!$B82</f>
         <v>393747.73478453042</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="3">
         <f>[1]annualCYSaltMass!$C82</f>
         <v>966772.20027792454</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="3">
         <f>[1]annualCYSaltMass!$G82</f>
         <v>694927.86618602625</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="3">
         <f>[1]annualCYSaltMass!$H82</f>
         <v>82332.746117254457</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="3">
         <f>[1]annualCYSaltMass!$I82</f>
         <v>2016414.499864259</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="3">
         <f>[1]annualCYSaltMass!$K82</f>
         <v>209459.45495785912</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="3">
         <f>[1]annualCYSaltMass!$L82</f>
         <v>415808.42878331721</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="3">
         <f>[1]annualCYSaltMass!$M82</f>
         <v>107842.1401897407</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="3">
         <f>[1]annualCYSaltMass!$O82</f>
         <v>63734.883418431513</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="3">
         <f>[1]annualCYSaltMass!$P82</f>
         <v>132372.55442136768</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AG4" s="3">
         <f>[1]annualCYSaltMass!$Q82</f>
         <v>952738.36058792868</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="3">
         <f>[1]annualCYSaltMass!$R82</f>
         <v>44331.593537302688</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="3">
         <f>[1]annualCYSaltMass!$S82</f>
         <v>92862.832236209215</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="3">
         <f>[1]annualCYSaltMass!$T82</f>
         <v>353420.06628288666</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="3">
         <f>[1]annualCYSaltMass!$U82</f>
         <v>5038227.3146989336</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="3">
         <f>[1]annualCYSaltMass!$V82</f>
         <v>5971964.690484927</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="3">
         <f>[1]annualCYSaltMass!$W82</f>
         <v>216279.62758443761</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="3">
         <f>[1]annualCYSaltMass!$X82</f>
         <v>8007066.0034168828</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="3">
         <f>[1]annualCYSaltMass!$Y82</f>
         <v>5850102.4220313886</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="3">
         <f>[1]annualCYSaltMass!$Z82</f>
         <v>5764784.4282377772</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="4">
         <f>[1]annualCYConc!$C82</f>
         <v>424.07533728621701</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4" s="4">
         <f>[1]annualCYConc!$D82</f>
         <v>593.4800589109733</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="4">
         <f>[1]annualCYConc!$H82</f>
         <v>718.92565956417286</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4" s="4">
         <f>[1]annualCYConc!$I82</f>
         <v>791.85062703508504</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4" s="4">
         <f>[1]annualCYConc!$J82</f>
         <v>852.47150595054688</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV4" s="4">
         <f>[1]annualCYConc!$L82</f>
         <v>346.7984246260794</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW4" s="4">
         <f>[1]annualCYConc!$M82</f>
         <v>445.46672681307712</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4" s="4">
         <f>[1]annualCYConc!$N82</f>
         <v>218.29806761822456</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4" s="4">
         <f>[1]annualCYConc!$P82</f>
         <v>1092.0802693194789</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ4" s="4">
         <f>[1]annualCYConc!$Q82</f>
         <v>465.76977892385054</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BA4" s="4">
         <f>[1]annualCYConc!$R82</f>
         <v>478.18980112573939</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BB4" s="4">
         <f>[1]annualCYConc!$S82</f>
         <v>2412.1286232152111</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BC4" s="4">
         <f>[1]annualCYConc!$T82</f>
         <v>155.02168953088258</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BD4" s="4">
         <f>[1]annualCYConc!$U82</f>
         <v>495.87709491877865</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BE4" s="4">
         <f>[1]annualCYConc!$V82</f>
         <v>468.30492383618434</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BF4" s="4">
         <f>[1]annualCYConc!$W82</f>
         <v>534.6203477823525</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BG4" s="4">
         <f>[1]annualCYConc!$X82</f>
         <v>2063.6484049246897</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BH4" s="4">
         <f>[1]annualCYConc!$Y82</f>
         <v>563.65770887170356</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BI4" s="4">
         <f>[1]annualCYConc!$Z82</f>
         <v>568.71923518049698</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BJ4" s="4">
         <f>[1]annualCYConc!AA82</f>
         <v>690.4263347031615</v>
       </c>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK4" s="5">
+        <v>3869272.88179935</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>2645512.0971315401</v>
+      </c>
+      <c r="BM4" s="5">
+        <v>500.171854298477</v>
+      </c>
+      <c r="BN4" s="6"/>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>[1]annualCYFlow!A83</f>
         <v>2003</v>
@@ -5357,248 +5423,258 @@
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f>[1]annualCYFlow!$B83</f>
         <v>1121773</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f>[1]annualCYFlow!$C83</f>
         <v>2009922</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f>[1]annualCYFlow!$G83</f>
         <v>862647</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <f>[1]annualCYFlow!$H83</f>
         <v>178397</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <f>[1]annualCYFlow!$I83</f>
         <v>2797204</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <f>[1]annualCYFlow!$K83</f>
         <v>628130</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <f>[1]annualCYFlow!$L83</f>
         <v>737309.61667180003</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <f>[1]annualCYFlow!$M83</f>
         <v>1009708</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <f>[1]annualCYFlow!$O83</f>
         <v>33427</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <f>[1]annualCYFlow!$P83</f>
         <v>398348</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <f>[1]annualCYFlow!$Q83</f>
         <v>2436193</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <f>[1]annualCYFlow!$R83</f>
         <v>6073</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <f>[1]annualCYFlow!$S83</f>
         <v>317855</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <f>[1]annualCYFlow!$T83</f>
         <v>646855</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <f>[1]annualCYFlow!$U83</f>
         <v>8365822</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <f>[1]annualCYFlow!$V83</f>
         <v>8688617</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <f>[1]annualCYFlow!$W83</f>
         <v>78503</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="3">
         <f>[1]annualCYFlow!$X83</f>
         <v>9381874</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="3">
         <f>[1]annualCYFlow!$Y83</f>
         <v>7303335</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="3">
         <f>[1]annualCYFlow!$Z83</f>
         <v>5775140</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="3">
         <f>[1]annualCYSaltMass!$B83</f>
         <v>460751.52138269931</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="3">
         <f>[1]annualCYSaltMass!$C83</f>
         <v>1093944.3485108409</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="3">
         <f>[1]annualCYSaltMass!$G83</f>
         <v>691333.27897130745</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5" s="3">
         <f>[1]annualCYSaltMass!$H83</f>
         <v>131250.42067757994</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="3">
         <f>[1]annualCYSaltMass!$I83</f>
         <v>2323739.7419927712</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5" s="3">
         <f>[1]annualCYSaltMass!$K83</f>
         <v>261272.98683741537</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5" s="3">
         <f>[1]annualCYSaltMass!$L83</f>
         <v>466964.85336503043</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5" s="3">
         <f>[1]annualCYSaltMass!$M83</f>
         <v>242374.334111298</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="3">
         <f>[1]annualCYSaltMass!$O83</f>
         <v>54061.076164674152</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="3">
         <f>[1]annualCYSaltMass!$P83</f>
         <v>196555.10059531603</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5" s="3">
         <f>[1]annualCYSaltMass!$Q83</f>
         <v>1221214.2396714147</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="3">
         <f>[1]annualCYSaltMass!$R83</f>
         <v>18172.184127582001</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="3">
         <f>[1]annualCYSaltMass!$S83</f>
         <v>74017.058048625084</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="3">
         <f>[1]annualCYSaltMass!$T83</f>
         <v>462124.0229897048</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="3">
         <f>[1]annualCYSaltMass!$U83</f>
         <v>5810740.0821776548</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="3">
         <f>[1]annualCYSaltMass!$V83</f>
         <v>6740209.4963321183</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="3">
         <f>[1]annualCYSaltMass!$W83</f>
         <v>224000.66446166343</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="3">
         <f>[1]annualCYSaltMass!$X83</f>
         <v>7454018.1182190785</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="3">
         <f>[1]annualCYSaltMass!$Y83</f>
         <v>5874374.1911548181</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="3">
         <f>[1]annualCYSaltMass!$Z83</f>
         <v>5457178.5066450797</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="4">
         <f>[1]annualCYConc!$C83</f>
         <v>302.08504697474439</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5" s="4">
         <f>[1]annualCYConc!$D83</f>
         <v>400.29803519738584</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5" s="4">
         <f>[1]annualCYConc!$H83</f>
         <v>589.41580913166104</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5" s="4">
         <f>[1]annualCYConc!$I83</f>
         <v>541.10380836000616</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AU5" s="4">
         <f>[1]annualCYConc!$J83</f>
         <v>610.98532373756075</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AV5" s="4">
         <f>[1]annualCYConc!$L83</f>
         <v>305.92319567605432</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AW5" s="4">
         <f>[1]annualCYConc!$M83</f>
         <v>465.80240770816863</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AX5" s="4">
         <f>[1]annualCYConc!$N83</f>
         <v>176.5461556212291</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AY5" s="4">
         <f>[1]annualCYConc!$P83</f>
         <v>1189.4733568672034</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="AZ5" s="4">
         <f>[1]annualCYConc!$Q83</f>
         <v>362.90179014329181</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BA5" s="4">
         <f>[1]annualCYConc!$R83</f>
         <v>368.6783218324656</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BB5" s="4">
         <f>[1]annualCYConc!$S83</f>
         <v>2200.7528898402761</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BC5" s="4">
         <f>[1]annualCYConc!$T83</f>
         <v>171.26562552107089</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BD5" s="4">
         <f>[1]annualCYConc!$U83</f>
         <v>525.43504943148002</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BE5" s="4">
         <f>[1]annualCYConc!$V83</f>
         <v>510.84631285485153</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BF5" s="4">
         <f>[1]annualCYConc!$W83</f>
         <v>570.54535629778593</v>
       </c>
-      <c r="BG5" s="2">
+      <c r="BG5" s="4">
         <f>[1]annualCYConc!$X83</f>
         <v>2098.603951441346</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BH5" s="4">
         <f>[1]annualCYConc!$Y83</f>
         <v>584.343585940293</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BI5" s="4">
         <f>[1]annualCYConc!$Z83</f>
         <v>591.57228404557634</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BJ5" s="4">
         <f>[1]annualCYConc!AA83</f>
         <v>694.98123184892495</v>
       </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK5" s="5">
+        <v>6380799.0863531297</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>5032466.9946505995</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>582.26869880426102</v>
+      </c>
+      <c r="BN5" s="6"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>[1]annualCYFlow!A84</f>
         <v>2004</v>
@@ -5606,248 +5682,258 @@
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f>[1]annualCYFlow!$B84</f>
         <v>901477</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f>[1]annualCYFlow!$C84</f>
         <v>1653137</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <f>[1]annualCYFlow!$G84</f>
         <v>943464</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <f>[1]annualCYFlow!$H84</f>
         <v>230091</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <f>[1]annualCYFlow!$I84</f>
         <v>2645255</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <f>[1]annualCYFlow!$K84</f>
         <v>760158</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <f>[1]annualCYFlow!$L84</f>
         <v>787944.81406620005</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <f>[1]annualCYFlow!$M84</f>
         <v>748896</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <f>[1]annualCYFlow!$O84</f>
         <v>57150</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <f>[1]annualCYFlow!$P84</f>
         <v>304892</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <f>[1]annualCYFlow!$Q84</f>
         <v>2051867</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <f>[1]annualCYFlow!$R84</f>
         <v>15664</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <f>[1]annualCYFlow!$S84</f>
         <v>275200</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <f>[1]annualCYFlow!$T84</f>
         <v>758490</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <f>[1]annualCYFlow!$U84</f>
         <v>8557930</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <f>[1]annualCYFlow!$V84</f>
         <v>8976822</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <f>[1]annualCYFlow!$W84</f>
         <v>131876</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="3">
         <f>[1]annualCYFlow!$X84</f>
         <v>9345461</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="3">
         <f>[1]annualCYFlow!$Y84</f>
         <v>6779789</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="3">
         <f>[1]annualCYFlow!$Z84</f>
         <v>5528967</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="3">
         <f>[1]annualCYSaltMass!$B84</f>
         <v>432643.19910777826</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="3">
         <f>[1]annualCYSaltMass!$C84</f>
         <v>1067478.9537861038</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="3">
         <f>[1]annualCYSaltMass!$G84</f>
         <v>820565.1654413119</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="3">
         <f>[1]annualCYSaltMass!$H84</f>
         <v>148053.78735194122</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="3">
         <f>[1]annualCYSaltMass!$I84</f>
         <v>2355457.3326231358</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="3">
         <f>[1]annualCYSaltMass!$K84</f>
         <v>296323.61913259287</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="3">
         <f>[1]annualCYSaltMass!$L84</f>
         <v>489247.10915944236</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="3">
         <f>[1]annualCYSaltMass!$M84</f>
         <v>170436.32021192124</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="3">
         <f>[1]annualCYSaltMass!$O84</f>
         <v>78126.156184361098</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="3">
         <f>[1]annualCYSaltMass!$P84</f>
         <v>168512.97357378734</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="3">
         <f>[1]annualCYSaltMass!$Q84</f>
         <v>1126299.9112277203</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="3">
         <f>[1]annualCYSaltMass!$R84</f>
         <v>39146.430439958756</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="3">
         <f>[1]annualCYSaltMass!$S84</f>
         <v>66513.496105792074</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="3">
         <f>[1]annualCYSaltMass!$T84</f>
         <v>422722.12579919887</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="3">
         <f>[1]annualCYSaltMass!$U84</f>
         <v>6115793.1665126709</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="3">
         <f>[1]annualCYSaltMass!$V84</f>
         <v>7102537.1057197908</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="3">
         <f>[1]annualCYSaltMass!$W84</f>
         <v>283605.46301181638</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="3">
         <f>[1]annualCYSaltMass!$X84</f>
         <v>7913580.7520533809</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="3">
         <f>[1]annualCYSaltMass!$Y84</f>
         <v>5723228.9896537112</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="3">
         <f>[1]annualCYSaltMass!$Z84</f>
         <v>5464104.3808743097</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ6" s="4">
         <f>[1]annualCYConc!$C84</f>
         <v>352.97395718359979</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6" s="4">
         <f>[1]annualCYConc!$D84</f>
         <v>474.91721067279963</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6" s="4">
         <f>[1]annualCYConc!$H84</f>
         <v>639.66881174056448</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6" s="4">
         <f>[1]annualCYConc!$I84</f>
         <v>473.24640468336446</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU6" s="4">
         <f>[1]annualCYConc!$J84</f>
         <v>654.90021211565625</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AV6" s="4">
         <f>[1]annualCYConc!$L84</f>
         <v>286.70141220640966</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AW6" s="4">
         <f>[1]annualCYConc!$M84</f>
         <v>456.66728450460647</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX6" s="4">
         <f>[1]annualCYConc!$N84</f>
         <v>167.38173738409606</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AY6" s="4">
         <f>[1]annualCYConc!$P84</f>
         <v>1005.4203149606298</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6" s="4">
         <f>[1]annualCYConc!$Q84</f>
         <v>406.49456791257234</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BA6" s="4">
         <f>[1]annualCYConc!$R84</f>
         <v>403.71257425554387</v>
       </c>
-      <c r="BB6" s="2">
+      <c r="BB6" s="4">
         <f>[1]annualCYConc!$S84</f>
         <v>1838.0483273748723</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BC6" s="4">
         <f>[1]annualCYConc!$T84</f>
         <v>177.75784629360467</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BD6" s="4">
         <f>[1]annualCYConc!$U84</f>
         <v>409.89493691413202</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BE6" s="4">
         <f>[1]annualCYConc!$V84</f>
         <v>525.59532399774253</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BF6" s="4">
         <f>[1]annualCYConc!$W84</f>
         <v>581.91336366032431</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BG6" s="4">
         <f>[1]annualCYConc!$X84</f>
         <v>1581.6713928235617</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BH6" s="4">
         <f>[1]annualCYConc!$Y84</f>
         <v>622.78729206616981</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BI6" s="4">
         <f>[1]annualCYConc!$Z84</f>
         <v>620.85813781225329</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BJ6" s="4">
         <f>[1]annualCYConc!AA84</f>
         <v>726.84602982799504</v>
       </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK6" s="5">
+        <v>5999913.8409349201</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>4130974.3512456198</v>
+      </c>
+      <c r="BM6" s="5">
+        <v>506.77055803793297</v>
+      </c>
+      <c r="BN6" s="6"/>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>[1]annualCYFlow!A85</f>
         <v>2005</v>
@@ -5855,248 +5941,258 @@
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f>[1]annualCYFlow!$B85</f>
         <v>1254380</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f>[1]annualCYFlow!$C85</f>
         <v>2647566</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <f>[1]annualCYFlow!$G85</f>
         <v>1876327</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <f>[1]annualCYFlow!$H85</f>
         <v>691379</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <f>[1]annualCYFlow!$I85</f>
         <v>5046150</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <f>[1]annualCYFlow!$K85</f>
         <v>1217479</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <f>[1]annualCYFlow!$L85</f>
         <v>1176787.8611401999</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <f>[1]annualCYFlow!$M85</f>
         <v>1198834</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <f>[1]annualCYFlow!$O85</f>
         <v>620942</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <f>[1]annualCYFlow!$P85</f>
         <v>509322</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <f>[1]annualCYFlow!$Q85</f>
         <v>4377578</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <f>[1]annualCYFlow!$R85</f>
         <v>110328</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
         <f>[1]annualCYFlow!$S85</f>
         <v>689862</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="3">
         <f>[1]annualCYFlow!$T85</f>
         <v>1696798</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="3">
         <f>[1]annualCYFlow!$U85</f>
         <v>8431731</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="3">
         <f>[1]annualCYFlow!$V85</f>
         <v>9040711</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <f>[1]annualCYFlow!$W85</f>
         <v>565810</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="3">
         <f>[1]annualCYFlow!$X85</f>
         <v>8274646</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="3">
         <f>[1]annualCYFlow!$Y85</f>
         <v>6370120</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="3">
         <f>[1]annualCYFlow!$Z85</f>
         <v>5270598</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="3">
         <f>[1]annualCYSaltMass!$B85</f>
         <v>484675.12097763841</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="3">
         <f>[1]annualCYSaltMass!$C85</f>
         <v>1299607.0723811525</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="3">
         <f>[1]annualCYSaltMass!$G85</f>
         <v>1084812.2434792018</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="3">
         <f>[1]annualCYSaltMass!$H85</f>
         <v>274230.27834014071</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="3">
         <f>[1]annualCYSaltMass!$I85</f>
         <v>2852089.6159139201</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="3">
         <f>[1]annualCYSaltMass!$K85</f>
         <v>408629.96971834986</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="3">
         <f>[1]annualCYSaltMass!$L85</f>
         <v>695692.72184790531</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="3">
         <f>[1]annualCYSaltMass!$M85</f>
         <v>235626.10078744727</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <f>[1]annualCYSaltMass!$O85</f>
         <v>362111.32905673201</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="3">
         <f>[1]annualCYSaltMass!$P85</f>
         <v>232388.45798433168</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="3">
         <f>[1]annualCYSaltMass!$Q85</f>
         <v>2147896.3485152614</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="3">
         <f>[1]annualCYSaltMass!$R85</f>
         <v>147706.8465545451</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="3">
         <f>[1]annualCYSaltMass!$S85</f>
         <v>134209.66757728663</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="3">
         <f>[1]annualCYSaltMass!$T85</f>
         <v>764836.68948747939</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="3">
         <f>[1]annualCYSaltMass!$U85</f>
         <v>5795080.7665357394</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="3">
         <f>[1]annualCYSaltMass!$V85</f>
         <v>6905496.6587893199</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="3">
         <f>[1]annualCYSaltMass!$W85</f>
         <v>800328.7292540354</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="3">
         <f>[1]annualCYSaltMass!$X85</f>
         <v>7237575.4055086859</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="3">
         <f>[1]annualCYSaltMass!$Y85</f>
         <v>5787871.3933008034</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP7" s="3">
         <f>[1]annualCYSaltMass!$Z85</f>
         <v>5087862.5712100528</v>
       </c>
-      <c r="AQ7" s="2">
+      <c r="AQ7" s="4">
         <f>[1]annualCYConc!$C85</f>
         <v>284.17707496930751</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AR7" s="4">
         <f>[1]annualCYConc!$D85</f>
         <v>361.02119894272698</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS7" s="4">
         <f>[1]annualCYConc!$H85</f>
         <v>425.21980443707315</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AT7" s="4">
         <f>[1]annualCYConc!$I85</f>
         <v>291.72030145549689</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AU7" s="4">
         <f>[1]annualCYConc!$J85</f>
         <v>415.69083045490117</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7" s="4">
         <f>[1]annualCYConc!$L85</f>
         <v>246.85172697023935</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AW7" s="4">
         <f>[1]annualCYConc!$M85</f>
         <v>434.79717465673764</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AX7" s="4">
         <f>[1]annualCYConc!$N85</f>
         <v>144.55455409172578</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AY7" s="4">
         <f>[1]annualCYConc!$P85</f>
         <v>428.90243275539422</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7" s="4">
         <f>[1]annualCYConc!$Q85</f>
         <v>335.57496357903256</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BA7" s="4">
         <f>[1]annualCYConc!$R85</f>
         <v>360.86674300263758</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BB7" s="4">
         <f>[1]annualCYConc!$S85</f>
         <v>984.65097255456476</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BC7" s="4">
         <f>[1]annualCYConc!$T85</f>
         <v>143.08332072211545</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BD7" s="4">
         <f>[1]annualCYConc!$U85</f>
         <v>331.51715195326727</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BE7" s="4">
         <f>[1]annualCYConc!$V85</f>
         <v>505.48722442639593</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BF7" s="4">
         <f>[1]annualCYConc!$W85</f>
         <v>561.77158223506979</v>
       </c>
-      <c r="BG7" s="2">
+      <c r="BG7" s="4">
         <f>[1]annualCYConc!$X85</f>
         <v>1040.3158646895602</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BH7" s="4">
         <f>[1]annualCYConc!$Y85</f>
         <v>643.29638614147359</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BI7" s="4">
         <f>[1]annualCYConc!$Z85</f>
         <v>668.24957652289129</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BJ7" s="4">
         <f>[1]annualCYConc!AA85</f>
         <v>709.97476470411902</v>
       </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK7" s="5">
+        <v>11728595.770677499</v>
+      </c>
+      <c r="BL7" s="5">
+        <v>6897134.3670091201</v>
+      </c>
+      <c r="BM7" s="5">
+        <v>434.01304389303402</v>
+      </c>
+      <c r="BN7" s="6"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>[1]annualCYFlow!A86</f>
         <v>2006</v>
@@ -6104,248 +6200,258 @@
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f>[1]annualCYFlow!$B86</f>
         <v>1413975</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <f>[1]annualCYFlow!$C86</f>
         <v>2611556</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <f>[1]annualCYFlow!$G86</f>
         <v>1599069</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <f>[1]annualCYFlow!$H86</f>
         <v>257906</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <f>[1]annualCYFlow!$I86</f>
         <v>4136423</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <f>[1]annualCYFlow!$K86</f>
         <v>864873</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <f>[1]annualCYFlow!$L86</f>
         <v>929919.82228999992</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <f>[1]annualCYFlow!$M86</f>
         <v>1155928</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f>[1]annualCYFlow!$O86</f>
         <v>250657</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <f>[1]annualCYFlow!$P86</f>
         <v>504889</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="3">
         <f>[1]annualCYFlow!$Q86</f>
         <v>3311385</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="3">
         <f>[1]annualCYFlow!$R86</f>
         <v>101434</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="3">
         <f>[1]annualCYFlow!$S86</f>
         <v>458705.52638000005</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="3">
         <f>[1]annualCYFlow!$T86</f>
         <v>1044331</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="3">
         <f>[1]annualCYFlow!$U86</f>
         <v>8676794</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="3">
         <f>[1]annualCYFlow!$V86</f>
         <v>9098803</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="3">
         <f>[1]annualCYFlow!$W86</f>
         <v>157055</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="3">
         <f>[1]annualCYFlow!$X86</f>
         <v>9259950</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="3">
         <f>[1]annualCYFlow!$Y86</f>
         <v>6592938</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="3">
         <f>[1]annualCYFlow!$Z86</f>
         <v>5672989</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="3">
         <f>[1]annualCYSaltMass!$B86</f>
         <v>516883.60157757293</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="3">
         <f>[1]annualCYSaltMass!$C86</f>
         <v>1329879.7033888116</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="3">
         <f>[1]annualCYSaltMass!$G86</f>
         <v>1045568.3288562207</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="3">
         <f>[1]annualCYSaltMass!$H86</f>
         <v>208404.94819684658</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="3">
         <f>[1]annualCYSaltMass!$I86</f>
         <v>2736391.7054979098</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8" s="3">
         <f>[1]annualCYSaltMass!$K86</f>
         <v>325504.901025592</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8" s="3">
         <f>[1]annualCYSaltMass!$L86</f>
         <v>563882.15786679927</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AD8" s="3">
         <f>[1]annualCYSaltMass!$M86</f>
         <v>241381.46663139356</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="3">
         <f>[1]annualCYSaltMass!$O86</f>
         <v>218944.41968940984</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" s="3">
         <f>[1]annualCYSaltMass!$P86</f>
         <v>236751.4833196367</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AG8" s="3">
         <f>[1]annualCYSaltMass!$Q86</f>
         <v>1659267.6547791555</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="3">
         <f>[1]annualCYSaltMass!$R86</f>
         <v>155896.57833270921</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="3">
         <f>[1]annualCYSaltMass!$S86</f>
         <v>90864.558973652995</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="3">
         <f>[1]annualCYSaltMass!$T86</f>
         <v>494687.1373830915</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="3">
         <f>[1]annualCYSaltMass!$U86</f>
         <v>5574265.1117585571</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="3">
         <f>[1]annualCYSaltMass!$V86</f>
         <v>6572112.33857687</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="3">
         <f>[1]annualCYSaltMass!$W86</f>
         <v>344250.00193113508</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="3">
         <f>[1]annualCYSaltMass!$X86</f>
         <v>8151710.2663379349</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AO8" s="3">
         <f>[1]annualCYSaltMass!$Y86</f>
         <v>6035859.4639477609</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AP8" s="3">
         <f>[1]annualCYSaltMass!$Z86</f>
         <v>5494268.8340537203</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AQ8" s="4">
         <f>[1]annualCYConc!$C86</f>
         <v>268.85520981629804</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AR8" s="4">
         <f>[1]annualCYConc!$D86</f>
         <v>374.52468574290583</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8" s="4">
         <f>[1]annualCYConc!$H86</f>
         <v>480.89764350381375</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AT8" s="4">
         <f>[1]annualCYConc!$I86</f>
         <v>594.31133552534641</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AU8" s="4">
         <f>[1]annualCYConc!$J86</f>
         <v>486.5424686498456</v>
       </c>
-      <c r="AV8" s="2">
+      <c r="AV8" s="4">
         <f>[1]annualCYConc!$L86</f>
         <v>276.8041684732903</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AW8" s="4">
         <f>[1]annualCYConc!$M86</f>
         <v>445.97476063421692</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="AX8" s="4">
         <f>[1]annualCYConc!$N86</f>
         <v>153.58208928237744</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AY8" s="4">
         <f>[1]annualCYConc!$P86</f>
         <v>642.42358481909537</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ8" s="4">
         <f>[1]annualCYConc!$Q86</f>
         <v>344.87700088534308</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BA8" s="4">
         <f>[1]annualCYConc!$R86</f>
         <v>368.53115089305538</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BB8" s="4">
         <f>[1]annualCYConc!$S86</f>
         <v>1130.3695881065521</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BC8" s="4">
         <f>[1]annualCYConc!$T86</f>
         <v>145.68940978193308</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BD8" s="4">
         <f>[1]annualCYConc!$U86</f>
         <v>348.38534803620689</v>
       </c>
-      <c r="BE8" s="2">
+      <c r="BE8" s="4">
         <f>[1]annualCYConc!$V86</f>
         <v>472.49342172927004</v>
       </c>
-      <c r="BF8" s="2">
+      <c r="BF8" s="4">
         <f>[1]annualCYConc!$W86</f>
         <v>531.23679697208524</v>
       </c>
-      <c r="BG8" s="2">
+      <c r="BG8" s="4">
         <f>[1]annualCYConc!$X86</f>
         <v>1612.0912381013022</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="BH8" s="4">
         <f>[1]annualCYConc!$Y86</f>
         <v>647.45192572314102</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BI8" s="4">
         <f>[1]annualCYConc!$Z86</f>
         <v>673.32937400594403</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BJ8" s="4">
         <f>[1]annualCYConc!AA86</f>
         <v>712.30402343455967</v>
       </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK8" s="5">
+        <v>9555075.1390048005</v>
+      </c>
+      <c r="BL8" s="5">
+        <v>5810167.5198015999</v>
+      </c>
+      <c r="BM8" s="5">
+        <v>448.78184692397502</v>
+      </c>
+      <c r="BN8" s="6"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>[1]annualCYFlow!A87</f>
         <v>2007</v>
@@ -6353,248 +6459,258 @@
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f>[1]annualCYFlow!$B87</f>
         <v>1310074</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <f>[1]annualCYFlow!$C87</f>
         <v>2299160</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <f>[1]annualCYFlow!$G87</f>
         <v>1535468</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="3">
         <f>[1]annualCYFlow!$H87</f>
         <v>342919</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3">
         <f>[1]annualCYFlow!$I87</f>
         <v>3764634</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <f>[1]annualCYFlow!$K87</f>
         <v>548524</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="3">
         <f>[1]annualCYFlow!$L87</f>
         <v>767924.10451500013</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <f>[1]annualCYFlow!$M87</f>
         <v>789572</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <f>[1]annualCYFlow!$O87</f>
         <v>71026</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="3">
         <f>[1]annualCYFlow!$P87</f>
         <v>368263</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="3">
         <f>[1]annualCYFlow!$Q87</f>
         <v>2446978</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="3">
         <f>[1]annualCYFlow!$R87</f>
         <v>14143</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="3">
         <f>[1]annualCYFlow!$S87</f>
         <v>702962.39684000006</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="3">
         <f>[1]annualCYFlow!$T87</f>
         <v>1265980</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="3">
         <f>[1]annualCYFlow!$U87</f>
         <v>8365968</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="3">
         <f>[1]annualCYFlow!$V87</f>
         <v>8840828</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="3">
         <f>[1]annualCYFlow!$W87</f>
         <v>105398</v>
       </c>
-      <c r="T9" s="1">
+      <c r="T9" s="3">
         <f>[1]annualCYFlow!$X87</f>
         <v>9362637</v>
       </c>
-      <c r="U9" s="1">
+      <c r="U9" s="3">
         <f>[1]annualCYFlow!$Y87</f>
         <v>6565027</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="3">
         <f>[1]annualCYFlow!$Z87</f>
         <v>5673094</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="3">
         <f>[1]annualCYSaltMass!$B87</f>
         <v>481632.337495271</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="3">
         <f>[1]annualCYSaltMass!$C87</f>
         <v>1320318.6817388993</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="3">
         <f>[1]annualCYSaltMass!$G87</f>
         <v>992740.23954442958</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="3">
         <f>[1]annualCYSaltMass!$H87</f>
         <v>189565.885733623</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="3">
         <f>[1]annualCYSaltMass!$I87</f>
         <v>2730133.1676761433</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9" s="3">
         <f>[1]annualCYSaltMass!$K87</f>
         <v>238215.163245912</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9" s="3">
         <f>[1]annualCYSaltMass!$L87</f>
         <v>480175.49240840931</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD9" s="3">
         <f>[1]annualCYSaltMass!$M87</f>
         <v>184951.16713167939</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="3">
         <f>[1]annualCYSaltMass!$O87</f>
         <v>85632.512786807754</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="3">
         <f>[1]annualCYSaltMass!$P87</f>
         <v>193574.40902721102</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AG9" s="3">
         <f>[1]annualCYSaltMass!$Q87</f>
         <v>1299927.9055320709</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="3">
         <f>[1]annualCYSaltMass!$R87</f>
         <v>45776.256344695168</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="3">
         <f>[1]annualCYSaltMass!$S87</f>
         <v>145592.38268643484</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="3">
         <f>[1]annualCYSaltMass!$T87</f>
         <v>522749.34260765335</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="3">
         <f>[1]annualCYSaltMass!$U87</f>
         <v>5401399.7760381475</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AL9" s="3">
         <f>[1]annualCYSaltMass!$V87</f>
         <v>6437256.9322230592</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="3">
         <f>[1]annualCYSaltMass!$W87</f>
         <v>278970.18243731029</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="3">
         <f>[1]annualCYSaltMass!$X87</f>
         <v>8042075.5298505072</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9" s="3">
         <f>[1]annualCYSaltMass!$Y87</f>
         <v>5866052.958228074</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AP9" s="3">
         <f>[1]annualCYSaltMass!$Z87</f>
         <v>5516565.3346622083</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9" s="4">
         <f>[1]annualCYConc!$C87</f>
         <v>270.38789457694753</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AR9" s="4">
         <f>[1]annualCYConc!$D87</f>
         <v>422.35438403590882</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AS9" s="4">
         <f>[1]annualCYConc!$H87</f>
         <v>475.51288467099283</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="AT9" s="4">
         <f>[1]annualCYConc!$I87</f>
         <v>406.57069220428144</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AU9" s="4">
         <f>[1]annualCYConc!$J87</f>
         <v>533.3699012440519</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AV9" s="4">
         <f>[1]annualCYConc!$L87</f>
         <v>319.40462568638742</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="AW9" s="4">
         <f>[1]annualCYConc!$M87</f>
         <v>459.88487217885597</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="AX9" s="4">
         <f>[1]annualCYConc!$N87</f>
         <v>172.27916998069838</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="AY9" s="4">
         <f>[1]annualCYConc!$P87</f>
         <v>886.72461492974412</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="AZ9" s="4">
         <f>[1]annualCYConc!$Q87</f>
         <v>386.59593985819924</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="BA9" s="4">
         <f>[1]annualCYConc!$R87</f>
         <v>390.71189691938389</v>
       </c>
-      <c r="BB9" s="2">
+      <c r="BB9" s="4">
         <f>[1]annualCYConc!$S87</f>
         <v>2380.4889203139364</v>
       </c>
-      <c r="BC9" s="2">
+      <c r="BC9" s="4">
         <f>[1]annualCYConc!$T87</f>
         <v>152.32598413870846</v>
       </c>
-      <c r="BD9" s="2">
+      <c r="BD9" s="4">
         <f>[1]annualCYConc!$U87</f>
         <v>303.69251204600391</v>
       </c>
-      <c r="BE9" s="2">
+      <c r="BE9" s="4">
         <f>[1]annualCYConc!$V87</f>
         <v>474.85121804195273</v>
       </c>
-      <c r="BF9" s="2">
+      <c r="BF9" s="4">
         <f>[1]annualCYConc!$W87</f>
         <v>535.51955676549767</v>
       </c>
-      <c r="BG9" s="2">
+      <c r="BG9" s="4">
         <f>[1]annualCYConc!$X87</f>
         <v>1946.6723030797546</v>
       </c>
-      <c r="BH9" s="2">
+      <c r="BH9" s="4">
         <f>[1]annualCYConc!$Y87</f>
         <v>631.73857335278512</v>
       </c>
-      <c r="BI9" s="2">
+      <c r="BI9" s="4">
         <f>[1]annualCYConc!$Z87</f>
         <v>657.16873900137807</v>
       </c>
-      <c r="BJ9" s="2">
+      <c r="BJ9" s="4">
         <f>[1]annualCYConc!AA87</f>
         <v>715.18141426882767</v>
       </c>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK9" s="5">
+        <v>7882428.5568207595</v>
+      </c>
+      <c r="BL9" s="5">
+        <v>5183386.5460972097</v>
+      </c>
+      <c r="BM9" s="5">
+        <v>487.29605359981298</v>
+      </c>
+      <c r="BN9" s="6"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>[1]annualCYFlow!A88</f>
         <v>2008</v>
@@ -6602,248 +6718,258 @@
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f>[1]annualCYFlow!$B88</f>
         <v>1874786</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <f>[1]annualCYFlow!$C88</f>
         <v>3502972</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <f>[1]annualCYFlow!$G88</f>
         <v>2460531</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <f>[1]annualCYFlow!$H88</f>
         <v>575499</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <f>[1]annualCYFlow!$I88</f>
         <v>6305275</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <f>[1]annualCYFlow!$K88</f>
         <v>784108</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <f>[1]annualCYFlow!$L88</f>
         <v>1014064.156815</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <f>[1]annualCYFlow!$M88</f>
         <v>1501571</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <f>[1]annualCYFlow!$O88</f>
         <v>110430</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="3">
         <f>[1]annualCYFlow!$P88</f>
         <v>527568</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="3">
         <f>[1]annualCYFlow!$Q88</f>
         <v>3651200</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <f>[1]annualCYFlow!$R88</f>
         <v>35118</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <f>[1]annualCYFlow!$S88</f>
         <v>1153080.7814550002</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="3">
         <f>[1]annualCYFlow!$T88</f>
         <v>1810555</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="3">
         <f>[1]annualCYFlow!$U88</f>
         <v>9313839</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="3">
         <f>[1]annualCYFlow!$V88</f>
         <v>9800340</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="3">
         <f>[1]annualCYFlow!$W88</f>
         <v>103354</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="3">
         <f>[1]annualCYFlow!$X88</f>
         <v>9540895</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="3">
         <f>[1]annualCYFlow!$Y88</f>
         <v>6848048</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="3">
         <f>[1]annualCYFlow!$Z88</f>
         <v>5672660</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="3">
         <f>[1]annualCYSaltMass!$B88</f>
         <v>578940.9654770745</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="3">
         <f>[1]annualCYSaltMass!$C88</f>
         <v>1516442.5508828235</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="3">
         <f>[1]annualCYSaltMass!$G88</f>
         <v>1091448.1899250739</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="3">
         <f>[1]annualCYSaltMass!$H88</f>
         <v>225294.14453231488</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="3">
         <f>[1]annualCYSaltMass!$I88</f>
         <v>3293792.090848539</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="3">
         <f>[1]annualCYSaltMass!$K88</f>
         <v>285790.8877814312</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="3">
         <f>[1]annualCYSaltMass!$L88</f>
         <v>610526.52429985697</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="3">
         <f>[1]annualCYSaltMass!$M88</f>
         <v>346758.03217764175</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="3">
         <f>[1]annualCYSaltMass!$O88</f>
         <v>113190.21532742734</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10" s="3">
         <f>[1]annualCYSaltMass!$P88</f>
         <v>247980.90628944177</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="3">
         <f>[1]annualCYSaltMass!$Q88</f>
         <v>1744751.1843625766</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="3">
         <f>[1]annualCYSaltMass!$R88</f>
         <v>71949.123330779403</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="3">
         <f>[1]annualCYSaltMass!$S88</f>
         <v>236734.67159258065</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="3">
         <f>[1]annualCYSaltMass!$T88</f>
         <v>613354.05656421836</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10" s="3">
         <f>[1]annualCYSaltMass!$U88</f>
         <v>5862971.4103667457</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AL10" s="3">
         <f>[1]annualCYSaltMass!$V88</f>
         <v>6895742.1926881699</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM10" s="3">
         <f>[1]annualCYSaltMass!$W88</f>
         <v>285965.97604792833</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10" s="3">
         <f>[1]annualCYSaltMass!$X88</f>
         <v>8069007.8538125781</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AO10" s="3">
         <f>[1]annualCYSaltMass!$Y88</f>
         <v>6015760.8576152222</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AP10" s="3">
         <f>[1]annualCYSaltMass!$Z88</f>
         <v>5532292.9342780067</v>
       </c>
-      <c r="AQ10" s="2">
+      <c r="AQ10" s="4">
         <f>[1]annualCYConc!$C88</f>
         <v>227.11719332233113</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AR10" s="4">
         <f>[1]annualCYConc!$D88</f>
         <v>318.38802830853348</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AS10" s="4">
         <f>[1]annualCYConc!$H88</f>
         <v>326.24338701686753</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="AT10" s="4">
         <f>[1]annualCYConc!$I88</f>
         <v>287.92061706449539</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AU10" s="4">
         <f>[1]annualCYConc!$J88</f>
         <v>384.20196606809378</v>
       </c>
-      <c r="AV10" s="2">
+      <c r="AV10" s="4">
         <f>[1]annualCYConc!$L88</f>
         <v>268.06488404658546</v>
       </c>
-      <c r="AW10" s="2">
+      <c r="AW10" s="4">
         <f>[1]annualCYConc!$M88</f>
         <v>442.79890428660707</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="AX10" s="4">
         <f>[1]annualCYConc!$N88</f>
         <v>169.84317151836314</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="AY10" s="4">
         <f>[1]annualCYConc!$P88</f>
         <v>753.85747804038772</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="AZ10" s="4">
         <f>[1]annualCYConc!$Q88</f>
         <v>345.70624981045097</v>
       </c>
-      <c r="BA10" s="2">
+      <c r="BA10" s="4">
         <f>[1]annualCYConc!$R88</f>
         <v>351.4514281058282</v>
       </c>
-      <c r="BB10" s="2">
+      <c r="BB10" s="4">
         <f>[1]annualCYConc!$S88</f>
         <v>1506.8262087818212</v>
       </c>
-      <c r="BC10" s="2">
+      <c r="BC10" s="4">
         <f>[1]annualCYConc!$T88</f>
         <v>150.99743427260475</v>
       </c>
-      <c r="BD10" s="2">
+      <c r="BD10" s="4">
         <f>[1]annualCYConc!$U88</f>
         <v>249.15347752484735</v>
       </c>
-      <c r="BE10" s="2">
+      <c r="BE10" s="4">
         <f>[1]annualCYConc!$V88</f>
         <v>462.97387320094322</v>
       </c>
-      <c r="BF10" s="2">
+      <c r="BF10" s="4">
         <f>[1]annualCYConc!$W88</f>
         <v>517.49636900352425</v>
       </c>
-      <c r="BG10" s="2">
+      <c r="BG10" s="4">
         <f>[1]annualCYConc!$X88</f>
         <v>2034.9535867020147</v>
       </c>
-      <c r="BH10" s="2">
+      <c r="BH10" s="4">
         <f>[1]annualCYConc!$Y88</f>
         <v>622.01155868500814</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BI10" s="4">
         <f>[1]annualCYConc!$Z88</f>
         <v>646.08729528472929</v>
       </c>
-      <c r="BJ10" s="2">
+      <c r="BJ10" s="4">
         <f>[1]annualCYConc!AA88</f>
         <v>717.27525247414792</v>
       </c>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK10" s="5">
+        <v>12087195.8395797</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>6504939.32243264</v>
+      </c>
+      <c r="BM10" s="5">
+        <v>396.75427655073997</v>
+      </c>
+      <c r="BN10" s="6"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>[1]annualCYFlow!A89</f>
         <v>2009</v>
@@ -6851,248 +6977,258 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f>[1]annualCYFlow!$B89</f>
         <v>1841987</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <f>[1]annualCYFlow!$C89</f>
         <v>3194021</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <f>[1]annualCYFlow!$G89</f>
         <v>1880056</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="3">
         <f>[1]annualCYFlow!$H89</f>
         <v>315162</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <f>[1]annualCYFlow!$I89</f>
         <v>5202581</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <f>[1]annualCYFlow!$K89</f>
         <v>1256252</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <f>[1]annualCYFlow!$L89</f>
         <v>1169272.317755</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <f>[1]annualCYFlow!$M89</f>
         <v>1296364</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <f>[1]annualCYFlow!$O89</f>
         <v>157367</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="3">
         <f>[1]annualCYFlow!$P89</f>
         <v>488134</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="3">
         <f>[1]annualCYFlow!$Q89</f>
         <v>3714299</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="3">
         <f>[1]annualCYFlow!$R89</f>
         <v>37634</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="3">
         <f>[1]annualCYFlow!$S89</f>
         <v>529701</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="3">
         <f>[1]annualCYFlow!$T89</f>
         <v>917824</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="3">
         <f>[1]annualCYFlow!$U89</f>
         <v>8466135</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="3">
         <f>[1]annualCYFlow!$V89</f>
         <v>8890543</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="3">
         <f>[1]annualCYFlow!$W89</f>
         <v>88693</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="3">
         <f>[1]annualCYFlow!$X89</f>
         <v>9481070</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="3">
         <f>[1]annualCYFlow!$Y89</f>
         <v>6535570</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="3">
         <f>[1]annualCYFlow!$Z89</f>
         <v>5407376</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="3">
         <f>[1]annualCYSaltMass!$B89</f>
         <v>569797.34664905805</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="3">
         <f>[1]annualCYSaltMass!$C89</f>
         <v>1465392.1648918721</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y11" s="3">
         <f>[1]annualCYSaltMass!$G89</f>
         <v>1002527.6348775133</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11" s="3">
         <f>[1]annualCYSaltMass!$H89</f>
         <v>176877.57947089136</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="3">
         <f>[1]annualCYSaltMass!$I89</f>
         <v>3012407.6174168433</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB11" s="3">
         <f>[1]annualCYSaltMass!$K89</f>
         <v>388306.66018955369</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11" s="3">
         <f>[1]annualCYSaltMass!$L89</f>
         <v>690210.32036825875</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AD11" s="3">
         <f>[1]annualCYSaltMass!$M89</f>
         <v>269075.75819462031</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="3">
         <f>[1]annualCYSaltMass!$O89</f>
         <v>127138.26750599404</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" s="3">
         <f>[1]annualCYSaltMass!$P89</f>
         <v>227283.39776653075</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AG11" s="3">
         <f>[1]annualCYSaltMass!$Q89</f>
         <v>1518153.7569682235</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="3">
         <f>[1]annualCYSaltMass!$R89</f>
         <v>69043.085368694286</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="3">
         <f>[1]annualCYSaltMass!$S89</f>
         <v>106810.41981655176</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="3">
         <f>[1]annualCYSaltMass!$T89</f>
         <v>408493.4630915646</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="3">
         <f>[1]annualCYSaltMass!$U89</f>
         <v>4863567.6885357173</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AL11" s="3">
         <f>[1]annualCYSaltMass!$V89</f>
         <v>5879142.3080709279</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AM11" s="3">
         <f>[1]annualCYSaltMass!$W89</f>
         <v>249345.89179307161</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AN11" s="3">
         <f>[1]annualCYSaltMass!$X89</f>
         <v>7781075.9305829955</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AO11" s="3">
         <f>[1]annualCYSaltMass!$Y89</f>
         <v>5542598.4441936035</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AP11" s="3">
         <f>[1]annualCYSaltMass!$Z89</f>
         <v>5273435.5995976413</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11" s="4">
         <f>[1]annualCYConc!$C89</f>
         <v>227.51042151763289</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AR11" s="4">
         <f>[1]annualCYConc!$D89</f>
         <v>337.42987516362604</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11" s="4">
         <f>[1]annualCYConc!$H89</f>
         <v>392.18682560519483</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AT11" s="4">
         <f>[1]annualCYConc!$I89</f>
         <v>412.76833342852251</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AU11" s="4">
         <f>[1]annualCYConc!$J89</f>
         <v>425.8555581354716</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AV11" s="4">
         <f>[1]annualCYConc!$L89</f>
         <v>227.33458271111203</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="AW11" s="4">
         <f>[1]annualCYConc!$M89</f>
         <v>434.14341101648569</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="AX11" s="4">
         <f>[1]annualCYConc!$N89</f>
         <v>152.65640961952042</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="AY11" s="4">
         <f>[1]annualCYConc!$P89</f>
         <v>594.19645541949706</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="AZ11" s="4">
         <f>[1]annualCYConc!$Q89</f>
         <v>342.44914634096375</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BA11" s="4">
         <f>[1]annualCYConc!$R89</f>
         <v>300.61201217241802</v>
       </c>
-      <c r="BB11" s="2">
+      <c r="BB11" s="4">
         <f>[1]annualCYConc!$S89</f>
         <v>1349.2960328426425</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BC11" s="4">
         <f>[1]annualCYConc!$T89</f>
         <v>148.3031113779283</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BD11" s="4">
         <f>[1]annualCYConc!$U89</f>
         <v>327.33552031762076</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BE11" s="4">
         <f>[1]annualCYConc!$V89</f>
         <v>422.51021026714079</v>
       </c>
-      <c r="BF11" s="2">
+      <c r="BF11" s="4">
         <f>[1]annualCYConc!$W89</f>
         <v>486.35470229433668</v>
       </c>
-      <c r="BG11" s="2">
+      <c r="BG11" s="4">
         <f>[1]annualCYConc!$X89</f>
         <v>2067.6656150992749</v>
       </c>
-      <c r="BH11" s="2">
+      <c r="BH11" s="4">
         <f>[1]annualCYConc!$Y89</f>
         <v>603.60069842327925</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="BI11" s="4">
         <f>[1]annualCYConc!$Z89</f>
         <v>623.73107015914445</v>
       </c>
-      <c r="BJ11" s="2">
+      <c r="BJ11" s="4">
         <f>[1]annualCYConc!AA89</f>
         <v>717.25653008039399</v>
       </c>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK11" s="5">
+        <v>9850943.4532645196</v>
+      </c>
+      <c r="BL11" s="5">
+        <v>4596812.5124014197</v>
+      </c>
+      <c r="BM11" s="5">
+        <v>347.55269093506899</v>
+      </c>
+      <c r="BN11" s="6"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f>[1]annualCYFlow!A90</f>
         <v>2010</v>
@@ -7100,248 +7236,258 @@
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f>[1]annualCYFlow!$B90</f>
         <v>1551173</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <f>[1]annualCYFlow!$C90</f>
         <v>2585360</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <f>[1]annualCYFlow!$G90</f>
         <v>1439996</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="3">
         <f>[1]annualCYFlow!$H90</f>
         <v>336701</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <f>[1]annualCYFlow!$I90</f>
         <v>4056417</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <f>[1]annualCYFlow!$K90</f>
         <v>718197</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <f>[1]annualCYFlow!$L90</f>
         <v>1054925.367575</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="3">
         <f>[1]annualCYFlow!$M90</f>
         <v>1031511</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
         <f>[1]annualCYFlow!$O90</f>
         <v>134467</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="3">
         <f>[1]annualCYFlow!$P90</f>
         <v>415363</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="3">
         <f>[1]annualCYFlow!$Q90</f>
         <v>3350516</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="3">
         <f>[1]annualCYFlow!$R90</f>
         <v>31086</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
         <f>[1]annualCYFlow!$S90</f>
         <v>417921</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="3">
         <f>[1]annualCYFlow!$T90</f>
         <v>880909</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="3">
         <f>[1]annualCYFlow!$U90</f>
         <v>8351825</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="3">
         <f>[1]annualCYFlow!$V90</f>
         <v>8889880</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="3">
         <f>[1]annualCYFlow!$W90</f>
         <v>284473</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="3">
         <f>[1]annualCYFlow!$X90</f>
         <v>9452548</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="3">
         <f>[1]annualCYFlow!$Y90</f>
         <v>6451901</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="3">
         <f>[1]annualCYFlow!$Z90</f>
         <v>5479000</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="3">
         <f>[1]annualCYSaltMass!$B90</f>
         <v>560228.67075359984</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="3">
         <f>[1]annualCYSaltMass!$C90</f>
         <v>1409729.9381702133</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y12" s="3">
         <f>[1]annualCYSaltMass!$G90</f>
         <v>989415.52053747396</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12" s="3">
         <f>[1]annualCYSaltMass!$H90</f>
         <v>193970.8271560646</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="3">
         <f>[1]annualCYSaltMass!$I90</f>
         <v>2826478.68761823</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12" s="3">
         <f>[1]annualCYSaltMass!$K90</f>
         <v>280998.14076900459</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12" s="3">
         <f>[1]annualCYSaltMass!$L90</f>
         <v>632036.76379043388</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AD12" s="3">
         <f>[1]annualCYSaltMass!$M90</f>
         <v>200538.13883395903</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AE12" s="3">
         <f>[1]annualCYSaltMass!$O90</f>
         <v>113719.5502901733</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" s="3">
         <f>[1]annualCYSaltMass!$P90</f>
         <v>204094.22476528733</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AG12" s="3">
         <f>[1]annualCYSaltMass!$Q90</f>
         <v>1654511.3692776405</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" s="3">
         <f>[1]annualCYSaltMass!$R90</f>
         <v>68621.934488663464</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="3">
         <f>[1]annualCYSaltMass!$S90</f>
         <v>84409.665106934786</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="3">
         <f>[1]annualCYSaltMass!$T90</f>
         <v>509288.4511039271</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK12" s="3">
         <f>[1]annualCYSaltMass!$U90</f>
         <v>4813786.367890358</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AL12" s="3">
         <f>[1]annualCYSaltMass!$V90</f>
         <v>5900983.7680986589</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AM12" s="3">
         <f>[1]annualCYSaltMass!$W90</f>
         <v>384948.05515297432</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AN12" s="3">
         <f>[1]annualCYSaltMass!$X90</f>
         <v>7401680.8378407042</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AO12" s="3">
         <f>[1]annualCYSaltMass!$Y90</f>
         <v>5227143.99844814</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AP12" s="3">
         <f>[1]annualCYSaltMass!$Z90</f>
         <v>5138821.9404101772</v>
       </c>
-      <c r="AQ12" s="2">
+      <c r="AQ12" s="4">
         <f>[1]annualCYConc!$C90</f>
         <v>265.62718968161511</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AR12" s="4">
         <f>[1]annualCYConc!$D90</f>
         <v>401.03504985766006</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12" s="4">
         <f>[1]annualCYConc!$H90</f>
         <v>505.34138497606943</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AT12" s="4">
         <f>[1]annualCYConc!$I90</f>
         <v>423.70095693211476</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AU12" s="4">
         <f>[1]annualCYConc!$J90</f>
         <v>512.47248680300868</v>
       </c>
-      <c r="AV12" s="2">
+      <c r="AV12" s="4">
         <f>[1]annualCYConc!$L90</f>
         <v>287.75792491475187</v>
       </c>
-      <c r="AW12" s="2">
+      <c r="AW12" s="4">
         <f>[1]annualCYConc!$M90</f>
         <v>440.6441798135416</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="AX12" s="4">
         <f>[1]annualCYConc!$N90</f>
         <v>142.98502303901751</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="AY12" s="4">
         <f>[1]annualCYConc!$P90</f>
         <v>621.994939278782</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="AZ12" s="4">
         <f>[1]annualCYConc!$Q90</f>
         <v>361.3851823585635</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BA12" s="4">
         <f>[1]annualCYConc!$R90</f>
         <v>363.18298432241477</v>
       </c>
-      <c r="BB12" s="2">
+      <c r="BB12" s="4">
         <f>[1]annualCYConc!$S90</f>
         <v>1623.5495496364922</v>
       </c>
-      <c r="BC12" s="2">
+      <c r="BC12" s="4">
         <f>[1]annualCYConc!$T90</f>
         <v>148.54752357502974</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BD12" s="4">
         <f>[1]annualCYConc!$U90</f>
         <v>425.20681273548126</v>
       </c>
-      <c r="BE12" s="2">
+      <c r="BE12" s="4">
         <f>[1]annualCYConc!$V90</f>
         <v>423.9092177817422</v>
       </c>
-      <c r="BF12" s="2">
+      <c r="BF12" s="4">
         <f>[1]annualCYConc!$W90</f>
         <v>488.19795362817047</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BG12" s="4">
         <f>[1]annualCYConc!$X90</f>
         <v>995.24157617770413</v>
       </c>
-      <c r="BH12" s="2">
+      <c r="BH12" s="4">
         <f>[1]annualCYConc!$Y90</f>
         <v>575.90241037654619</v>
       </c>
-      <c r="BI12" s="2">
+      <c r="BI12" s="4">
         <f>[1]annualCYConc!$Z90</f>
         <v>595.85995956850559</v>
       </c>
-      <c r="BJ12" s="2">
+      <c r="BJ12" s="4">
         <f>[1]annualCYConc!AA90</f>
         <v>689.81034411388953</v>
       </c>
-    </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK12" s="5">
+        <v>8832062.1971572097</v>
+      </c>
+      <c r="BL12" s="5">
+        <v>5794609.8015990797</v>
+      </c>
+      <c r="BM12" s="5">
+        <v>487.05521840338702</v>
+      </c>
+      <c r="BN12" s="6"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>[1]annualCYFlow!A91</f>
         <v>2011</v>
@@ -7349,248 +7495,258 @@
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f>[1]annualCYFlow!$B91</f>
         <v>2980377</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f>[1]annualCYFlow!$C91</f>
         <v>4737952</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <f>[1]annualCYFlow!$G91</f>
         <v>2276964</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <f>[1]annualCYFlow!$H91</f>
         <v>409120</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <f>[1]annualCYFlow!$I91</f>
         <v>7079019</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <f>[1]annualCYFlow!$K91</f>
         <v>1619583</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <f>[1]annualCYFlow!$L91</f>
         <v>2150033.9856099999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <f>[1]annualCYFlow!$M91</f>
         <v>2259349</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <f>[1]annualCYFlow!$O91</f>
         <v>1115030</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="3">
         <f>[1]annualCYFlow!$P91</f>
         <v>835144</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="3">
         <f>[1]annualCYFlow!$Q91</f>
         <v>7564704</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="3">
         <f>[1]annualCYFlow!$R91</f>
         <v>197832</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="3">
         <f>[1]annualCYFlow!$S91</f>
         <v>464137</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="3">
         <f>[1]annualCYFlow!$T91</f>
         <v>887561</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="3">
         <f>[1]annualCYFlow!$U91</f>
         <v>13844356</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="3">
         <f>[1]annualCYFlow!$V91</f>
         <v>14237446</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="3">
         <f>[1]annualCYFlow!$W91</f>
         <v>272921</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="3">
         <f>[1]annualCYFlow!$X91</f>
         <v>9207507</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="3">
         <f>[1]annualCYFlow!$Y91</f>
         <v>6686897</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="3">
         <f>[1]annualCYFlow!$Z91</f>
         <v>6686897</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="3">
         <f>[1]annualCYSaltMass!$B91</f>
         <v>763787.22749904869</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="3">
         <f>[1]annualCYSaltMass!$C91</f>
         <v>1762130.0559410907</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y13" s="3">
         <f>[1]annualCYSaltMass!$G91</f>
         <v>1167152.5908149877</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13" s="3">
         <f>[1]annualCYSaltMass!$H91</f>
         <v>204183.1703753272</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="3">
         <f>[1]annualCYSaltMass!$I91</f>
         <v>3328206.9435202871</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13" s="3">
         <f>[1]annualCYSaltMass!$K91</f>
         <v>511347.80985794723</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13" s="3">
         <f>[1]annualCYSaltMass!$L91</f>
         <v>1202757.5555332112</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13" s="3">
         <f>[1]annualCYSaltMass!$M91</f>
         <v>515745.11810968188</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13" s="3">
         <f>[1]annualCYSaltMass!$O91</f>
         <v>445485.26263677242</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" s="3">
         <f>[1]annualCYSaltMass!$P91</f>
         <v>340967.5552440777</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13" s="3">
         <f>[1]annualCYSaltMass!$Q91</f>
         <v>2855993.1561888815</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" s="3">
         <f>[1]annualCYSaltMass!$R91</f>
         <v>211473.76277643821</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="3">
         <f>[1]annualCYSaltMass!$S91</f>
         <v>94918.279908017386</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="3">
         <f>[1]annualCYSaltMass!$T91</f>
         <v>425789.72932336689</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="3">
         <f>[1]annualCYSaltMass!$U91</f>
         <v>8184689.4804483373</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AL13" s="3">
         <f>[1]annualCYSaltMass!$V91</f>
         <v>9110960.2146900315</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AM13" s="3">
         <f>[1]annualCYSaltMass!$W91</f>
         <v>430838.81055390585</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN13" s="3">
         <f>[1]annualCYSaltMass!$X91</f>
         <v>7108184.9614679683</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AO13" s="3">
         <f>[1]annualCYSaltMass!$Y91</f>
         <v>5371056.0934543665</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AP13" s="3">
         <f>[1]annualCYSaltMass!$Z91</f>
         <v>6181071.1652763756</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AQ13" s="4">
         <f>[1]annualCYConc!$C91</f>
         <v>188.48145325239057</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AR13" s="4">
         <f>[1]annualCYConc!$D91</f>
         <v>273.53615353215906</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AS13" s="4">
         <f>[1]annualCYConc!$H91</f>
         <v>376.9978795448676</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AT13" s="4">
         <f>[1]annualCYConc!$I91</f>
         <v>367.05966635705909</v>
       </c>
-      <c r="AU13" s="2">
+      <c r="AU13" s="4">
         <f>[1]annualCYConc!$J91</f>
         <v>345.78382785806906</v>
       </c>
-      <c r="AV13" s="2">
+      <c r="AV13" s="4">
         <f>[1]annualCYConc!$L91</f>
         <v>232.20984253354106</v>
       </c>
-      <c r="AW13" s="2">
+      <c r="AW13" s="4">
         <f>[1]annualCYConc!$M91</f>
         <v>411.43402295371232</v>
       </c>
-      <c r="AX13" s="2">
+      <c r="AX13" s="4">
         <f>[1]annualCYConc!$N91</f>
         <v>167.88783853224976</v>
       </c>
-      <c r="AY13" s="2">
+      <c r="AY13" s="4">
         <f>[1]annualCYConc!$P91</f>
         <v>293.84223760795675</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="AZ13" s="4">
         <f>[1]annualCYConc!$Q91</f>
         <v>300.2749640780512</v>
       </c>
-      <c r="BA13" s="2">
+      <c r="BA13" s="4">
         <f>[1]annualCYConc!$R91</f>
         <v>277.67236328083686</v>
       </c>
-      <c r="BB13" s="2">
+      <c r="BB13" s="4">
         <f>[1]annualCYConc!$S91</f>
         <v>786.18976303125862</v>
       </c>
-      <c r="BC13" s="2">
+      <c r="BC13" s="4">
         <f>[1]annualCYConc!$T91</f>
         <v>150.40805731928288</v>
       </c>
-      <c r="BD13" s="2">
+      <c r="BD13" s="4">
         <f>[1]annualCYConc!$U91</f>
         <v>352.82910571780423</v>
       </c>
-      <c r="BE13" s="2">
+      <c r="BE13" s="4">
         <f>[1]annualCYConc!$V91</f>
         <v>434.80735544506371</v>
       </c>
-      <c r="BF13" s="2">
+      <c r="BF13" s="4">
         <f>[1]annualCYConc!$W91</f>
         <v>470.6515503553095</v>
       </c>
-      <c r="BG13" s="2">
+      <c r="BG13" s="4">
         <f>[1]annualCYConc!$X91</f>
         <v>1161.0349617654927</v>
       </c>
-      <c r="BH13" s="2">
+      <c r="BH13" s="4">
         <f>[1]annualCYConc!$Y91</f>
         <v>567.78523623169656</v>
       </c>
-      <c r="BI13" s="2">
+      <c r="BI13" s="4">
         <f>[1]annualCYConc!$Z91</f>
         <v>590.74830967188518</v>
       </c>
-      <c r="BJ13" s="2">
+      <c r="BJ13" s="4">
         <f>[1]annualCYConc!AA91</f>
         <v>679.83973343689911</v>
       </c>
-    </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK13" s="5">
+        <v>15927145.5067317</v>
+      </c>
+      <c r="BL13" s="5">
+        <v>7368483.4230559897</v>
+      </c>
+      <c r="BM13" s="5">
+        <v>342.36870000401399</v>
+      </c>
+      <c r="BN13" s="6"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f>[1]annualCYFlow!A92</f>
         <v>2012</v>
@@ -7598,248 +7754,258 @@
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f>[1]annualCYFlow!$B92</f>
         <v>892117</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <f>[1]annualCYFlow!$C92</f>
         <v>1471298</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <f>[1]annualCYFlow!$G92</f>
         <v>806788</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <f>[1]annualCYFlow!$H92</f>
         <v>151586</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <f>[1]annualCYFlow!$I92</f>
         <v>2173377</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <f>[1]annualCYFlow!$K92</f>
         <v>733457</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <f>[1]annualCYFlow!$L92</f>
         <v>1280381.045505</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <f>[1]annualCYFlow!$M92</f>
         <v>497778</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <f>[1]annualCYFlow!$O92</f>
         <v>105583</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="3">
         <f>[1]annualCYFlow!$P92</f>
         <v>258313</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="3">
         <f>[1]annualCYFlow!$Q92</f>
         <v>2257036</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <f>[1]annualCYFlow!$R92</f>
         <v>18756</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="3">
         <f>[1]annualCYFlow!$S92</f>
         <v>517722</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="3">
         <f>[1]annualCYFlow!$T92</f>
         <v>672483</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="3">
         <f>[1]annualCYFlow!$U92</f>
         <v>8248261</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="3">
         <f>[1]annualCYFlow!$V92</f>
         <v>8611920</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="3">
         <f>[1]annualCYFlow!$W92</f>
         <v>122103</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="3">
         <f>[1]annualCYFlow!$X92</f>
         <v>9386795</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="3">
         <f>[1]annualCYFlow!$Y92</f>
         <v>6646432</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="3">
         <f>[1]annualCYFlow!$Z92</f>
         <v>6636677</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="3">
         <f>[1]annualCYSaltMass!$B92</f>
         <v>462422.99242284597</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="3">
         <f>[1]annualCYSaltMass!$C92</f>
         <v>1155395.1173598799</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="3">
         <f>[1]annualCYSaltMass!$G92</f>
         <v>669128.85827729932</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="3">
         <f>[1]annualCYSaltMass!$H92</f>
         <v>117137.49758638025</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="3">
         <f>[1]annualCYSaltMass!$I92</f>
         <v>2133009.9697242342</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="3">
         <f>[1]annualCYSaltMass!$K92</f>
         <v>282907.24163179751</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="3">
         <f>[1]annualCYSaltMass!$L92</f>
         <v>747500.56936601724</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="3">
         <f>[1]annualCYSaltMass!$M92</f>
         <v>142071.09660176947</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="3">
         <f>[1]annualCYSaltMass!$O92</f>
         <v>94308.781152645432</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" s="3">
         <f>[1]annualCYSaltMass!$P92</f>
         <v>146164.19689522957</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14" s="3">
         <f>[1]annualCYSaltMass!$Q92</f>
         <v>1221916.3516026735</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="3">
         <f>[1]annualCYSaltMass!$R92</f>
         <v>53096.428030112103</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="3">
         <f>[1]annualCYSaltMass!$S92</f>
         <v>108342.17867892305</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="3">
         <f>[1]annualCYSaltMass!$T92</f>
         <v>327524.4193601638</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" s="3">
         <f>[1]annualCYSaltMass!$U92</f>
         <v>4702331.5172121227</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AL14" s="3">
         <f>[1]annualCYSaltMass!$V92</f>
         <v>5680062.8459964748</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="3">
         <f>[1]annualCYSaltMass!$W92</f>
         <v>295305.96546659694</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AN14" s="3">
         <f>[1]annualCYSaltMass!$X92</f>
         <v>6991508.754307813</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AO14" s="3">
         <f>[1]annualCYSaltMass!$Y92</f>
         <v>5156062.8408645475</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AP14" s="3">
         <f>[1]annualCYSaltMass!$Z92</f>
         <v>6083167.78086494</v>
       </c>
-      <c r="AQ14" s="2">
+      <c r="AQ14" s="4">
         <f>[1]annualCYConc!$C92</f>
         <v>381.22821692670362</v>
       </c>
-      <c r="AR14" s="2">
+      <c r="AR14" s="4">
         <f>[1]annualCYConc!$D92</f>
         <v>577.56027779552471</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AS14" s="4">
         <f>[1]annualCYConc!$H92</f>
         <v>609.98304548406759</v>
       </c>
-      <c r="AT14" s="2">
+      <c r="AT14" s="4">
         <f>[1]annualCYConc!$I92</f>
         <v>568.33484292744697</v>
       </c>
-      <c r="AU14" s="2">
+      <c r="AU14" s="4">
         <f>[1]annualCYConc!$J92</f>
         <v>721.81391806391616</v>
       </c>
-      <c r="AV14" s="2">
+      <c r="AV14" s="4">
         <f>[1]annualCYConc!$L92</f>
         <v>283.68530506900885</v>
       </c>
-      <c r="AW14" s="2">
+      <c r="AW14" s="4">
         <f>[1]annualCYConc!$M92</f>
         <v>429.37793676582532</v>
       </c>
-      <c r="AX14" s="2">
+      <c r="AX14" s="4">
         <f>[1]annualCYConc!$N92</f>
         <v>209.91209715977809</v>
       </c>
-      <c r="AY14" s="2">
+      <c r="AY14" s="4">
         <f>[1]annualCYConc!$P92</f>
         <v>656.93979049657605</v>
       </c>
-      <c r="AZ14" s="2">
+      <c r="AZ14" s="4">
         <f>[1]annualCYConc!$Q92</f>
         <v>416.16176305489847</v>
       </c>
-      <c r="BA14" s="2">
+      <c r="BA14" s="4">
         <f>[1]annualCYConc!$R92</f>
         <v>398.17173146551488</v>
       </c>
-      <c r="BB14" s="2">
+      <c r="BB14" s="4">
         <f>[1]annualCYConc!$S92</f>
         <v>2082.0565205800813</v>
       </c>
-      <c r="BC14" s="2">
+      <c r="BC14" s="4">
         <f>[1]annualCYConc!$T92</f>
         <v>153.91054562100896</v>
       </c>
-      <c r="BD14" s="2">
+      <c r="BD14" s="4">
         <f>[1]annualCYConc!$U92</f>
         <v>358.20348648218624</v>
       </c>
-      <c r="BE14" s="2">
+      <c r="BE14" s="4">
         <f>[1]annualCYConc!$V92</f>
         <v>419.29364715786767</v>
       </c>
-      <c r="BF14" s="2">
+      <c r="BF14" s="4">
         <f>[1]annualCYConc!$W92</f>
         <v>485.08806270843201</v>
       </c>
-      <c r="BG14" s="2">
+      <c r="BG14" s="4">
         <f>[1]annualCYConc!$X92</f>
         <v>1778.7434714953765</v>
       </c>
-      <c r="BH14" s="2">
+      <c r="BH14" s="4">
         <f>[1]annualCYConc!$Y92</f>
         <v>547.79871072075173</v>
       </c>
-      <c r="BI14" s="2">
+      <c r="BI14" s="4">
         <f>[1]annualCYConc!$Z92</f>
         <v>570.55441364629928</v>
       </c>
-      <c r="BJ14" s="2">
+      <c r="BJ14" s="4">
         <f>[1]annualCYConc!AA92</f>
         <v>674.1344896248529</v>
       </c>
-    </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK14" s="5">
+        <v>5241733.3455990301</v>
+      </c>
+      <c r="BL14" s="5">
+        <v>4151787.8972028801</v>
+      </c>
+      <c r="BM14" s="5">
+        <v>590.33581179565897</v>
+      </c>
+      <c r="BN14" s="6"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f>[1]annualCYFlow!A93</f>
         <v>2013</v>
@@ -7847,248 +8013,258 @@
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f>[1]annualCYFlow!$B93</f>
         <v>1108944</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <f>[1]annualCYFlow!$C93</f>
         <v>1785849</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <f>[1]annualCYFlow!$G93</f>
         <v>857771</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <f>[1]annualCYFlow!$H93</f>
         <v>164146</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <f>[1]annualCYFlow!$I93</f>
         <v>2652907</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <f>[1]annualCYFlow!$K93</f>
         <v>571109</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="3">
         <f>[1]annualCYFlow!$L93</f>
         <v>815140</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <f>[1]annualCYFlow!$M93</f>
         <v>709832</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <f>[1]annualCYFlow!$O93</f>
         <v>53701</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="3">
         <f>[1]annualCYFlow!$P93</f>
         <v>306722</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="3">
         <f>[1]annualCYFlow!$Q93</f>
         <v>1979984</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="3">
         <f>[1]annualCYFlow!$R93</f>
         <v>29332</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="3">
         <f>[1]annualCYFlow!$S93</f>
         <v>317485</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="3">
         <f>[1]annualCYFlow!$T93</f>
         <v>689168</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="3">
         <f>[1]annualCYFlow!$U93</f>
         <v>8008293</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="3">
         <f>[1]annualCYFlow!$V93</f>
         <v>8501941</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="3">
         <f>[1]annualCYFlow!$W93</f>
         <v>111572</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="3">
         <f>[1]annualCYFlow!$X93</f>
         <v>9375806</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="3">
         <f>[1]annualCYFlow!$Y93</f>
         <v>6335191</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="3">
         <f>[1]annualCYFlow!$Z93</f>
         <v>5311384</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="3">
         <f>[1]annualCYSaltMass!$B93</f>
         <v>449353.89114930294</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="3">
         <f>[1]annualCYSaltMass!$C93</f>
         <v>1072002.5143278162</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15" s="3">
         <f>[1]annualCYSaltMass!$G93</f>
         <v>742761.01960758353</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15" s="3">
         <f>[1]annualCYSaltMass!$H93</f>
         <v>127781.67921239683</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="3">
         <f>[1]annualCYSaltMass!$I93</f>
         <v>2323569.5834710253</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="3">
         <f>[1]annualCYSaltMass!$K93</f>
         <v>230941.02431149856</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="3">
         <f>[1]annualCYSaltMass!$L93</f>
         <v>424896.29728463921</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="3">
         <f>[1]annualCYSaltMass!$M93</f>
         <v>184259.64496708443</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="3">
         <f>[1]annualCYSaltMass!$O93</f>
         <v>73813.497946618081</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="3">
         <f>[1]annualCYSaltMass!$P93</f>
         <v>160245.90502268617</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15" s="3">
         <f>[1]annualCYSaltMass!$Q93</f>
         <v>1060635.0594567517</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="3">
         <f>[1]annualCYSaltMass!$R93</f>
         <v>62782.245766612934</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="3">
         <f>[1]annualCYSaltMass!$S93</f>
         <v>69471.823054786204</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="3">
         <f>[1]annualCYSaltMass!$T93</f>
         <v>461235.40825126477</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="3">
         <f>[1]annualCYSaltMass!$U93</f>
         <v>5149603.960864733</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AL15" s="3">
         <f>[1]annualCYSaltMass!$V93</f>
         <v>6201603.8410932971</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AM15" s="3">
         <f>[1]annualCYSaltMass!$W93</f>
         <v>279888.26306382584</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AN15" s="3">
         <f>[1]annualCYSaltMass!$X93</f>
         <v>7025222.3264846941</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AO15" s="3">
         <f>[1]annualCYSaltMass!$Y93</f>
         <v>4888219.0878432151</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AP15" s="3">
         <f>[1]annualCYSaltMass!$Z93</f>
         <v>4890953.0387318386</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="AQ15" s="4">
         <f>[1]annualCYConc!$C93</f>
         <v>298.02062737162561</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AR15" s="4">
         <f>[1]annualCYConc!$D93</f>
         <v>441.48759212005046</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AS15" s="4">
         <f>[1]annualCYConc!$H93</f>
         <v>636.86176741811028</v>
       </c>
-      <c r="AT15" s="2">
+      <c r="AT15" s="4">
         <f>[1]annualCYConc!$I93</f>
         <v>572.53985049894607</v>
       </c>
-      <c r="AU15" s="2">
+      <c r="AU15" s="4">
         <f>[1]annualCYConc!$J93</f>
         <v>644.17088284662827</v>
       </c>
-      <c r="AV15" s="2">
+      <c r="AV15" s="4">
         <f>[1]annualCYConc!$L93</f>
         <v>297.40585685044357</v>
       </c>
-      <c r="AW15" s="2">
+      <c r="AW15" s="4">
         <f>[1]annualCYConc!$M93</f>
         <v>383.37004404151435</v>
       </c>
-      <c r="AX15" s="2">
+      <c r="AX15" s="4">
         <f>[1]annualCYConc!$N93</f>
         <v>190.91589573307485</v>
       </c>
-      <c r="AY15" s="2">
+      <c r="AY15" s="4">
         <f>[1]annualCYConc!$P93</f>
         <v>1010.9294463790247</v>
       </c>
-      <c r="AZ15" s="2">
+      <c r="AZ15" s="4">
         <f>[1]annualCYConc!$Q93</f>
         <v>384.24608048982458</v>
       </c>
-      <c r="BA15" s="2">
+      <c r="BA15" s="4">
         <f>[1]annualCYConc!$R93</f>
         <v>393.97778229521043</v>
       </c>
-      <c r="BB15" s="2">
+      <c r="BB15" s="4">
         <f>[1]annualCYConc!$S93</f>
         <v>1574.2097708986771</v>
       </c>
-      <c r="BC15" s="2">
+      <c r="BC15" s="4">
         <f>[1]annualCYConc!$T93</f>
         <v>160.93589429421863</v>
       </c>
-      <c r="BD15" s="2">
+      <c r="BD15" s="4">
         <f>[1]annualCYConc!$U93</f>
         <v>492.22647554732663</v>
       </c>
-      <c r="BE15" s="2">
+      <c r="BE15" s="4">
         <f>[1]annualCYConc!$V93</f>
         <v>472.93484055840599</v>
       </c>
-      <c r="BF15" s="2">
+      <c r="BF15" s="4">
         <f>[1]annualCYConc!$W93</f>
         <v>536.47979055606243</v>
       </c>
-      <c r="BG15" s="2">
+      <c r="BG15" s="4">
         <f>[1]annualCYConc!$X93</f>
         <v>1845.0022586311975</v>
       </c>
-      <c r="BH15" s="2">
+      <c r="BH15" s="4">
         <f>[1]annualCYConc!$Y93</f>
         <v>551.08538517115232</v>
       </c>
-      <c r="BI15" s="2">
+      <c r="BI15" s="4">
         <f>[1]annualCYConc!$Z93</f>
         <v>567.49022196805129</v>
       </c>
-      <c r="BJ15" s="2">
+      <c r="BJ15" s="4">
         <f>[1]annualCYConc!AA93</f>
         <v>677.25656761025016</v>
       </c>
-    </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK15" s="5">
+        <v>5909707.9407357601</v>
+      </c>
+      <c r="BL15" s="5">
+        <v>4818296.3359426502</v>
+      </c>
+      <c r="BM15" s="5">
+        <v>607.60059635008997</v>
+      </c>
+      <c r="BN15" s="6"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f>[1]annualCYFlow!A94</f>
         <v>2014</v>
@@ -8096,248 +8272,258 @@
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <f>[1]annualCYFlow!$B94</f>
         <v>2288921</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <f>[1]annualCYFlow!$C94</f>
         <v>3496220</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <f>[1]annualCYFlow!$G94</f>
         <v>1685366</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <f>[1]annualCYFlow!$H94</f>
         <v>257650</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <f>[1]annualCYFlow!$I94</f>
         <v>5132754</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <f>[1]annualCYFlow!$K94</f>
         <v>1413520</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <f>[1]annualCYFlow!$L94</f>
         <v>1198089</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <f>[1]annualCYFlow!$M94</f>
         <v>1313989</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <f>[1]annualCYFlow!$O94</f>
         <v>86490</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="3">
         <f>[1]annualCYFlow!$P94</f>
         <v>511666</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="3">
         <f>[1]annualCYFlow!$Q94</f>
         <v>3354933</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="3">
         <f>[1]annualCYFlow!$R94</f>
         <v>37747</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="3">
         <f>[1]annualCYFlow!$S94</f>
         <v>270220</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="3">
         <f>[1]annualCYFlow!$T94</f>
         <v>696839</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="3">
         <f>[1]annualCYFlow!$U94</f>
         <v>8066266</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="3">
         <f>[1]annualCYFlow!$V94</f>
         <v>8438780</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="3">
         <f>[1]annualCYFlow!$W94</f>
         <v>104903</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="3">
         <f>[1]annualCYFlow!$X94</f>
         <v>9615156</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="3">
         <f>[1]annualCYFlow!$Y94</f>
         <v>6302810</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="3">
         <f>[1]annualCYFlow!$Z94</f>
         <v>5472565</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="3">
         <f>[1]annualCYSaltMass!$B94</f>
         <v>659473.92809672083</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="3">
         <f>[1]annualCYSaltMass!$C94</f>
         <v>1489141.1001644938</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y16" s="3">
         <f>[1]annualCYSaltMass!$G94</f>
         <v>958825.39205002168</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16" s="3">
         <f>[1]annualCYSaltMass!$H94</f>
         <v>152988.87600221252</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16" s="3">
         <f>[1]annualCYSaltMass!$I94</f>
         <v>2982074.6379959551</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="3">
         <f>[1]annualCYSaltMass!$K94</f>
         <v>457150.5933607858</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="3">
         <f>[1]annualCYSaltMass!$L94</f>
         <v>645026.81394183275</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AD16" s="3">
         <f>[1]annualCYSaltMass!$M94</f>
         <v>262265.19365510985</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AE16" s="3">
         <f>[1]annualCYSaltMass!$O94</f>
         <v>90689.966439017808</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AF16" s="3">
         <f>[1]annualCYSaltMass!$P94</f>
         <v>231831.26344413948</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AG16" s="3">
         <f>[1]annualCYSaltMass!$Q94</f>
         <v>1551610.1239242901</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="3">
         <f>[1]annualCYSaltMass!$R94</f>
         <v>78130.39317876022</v>
       </c>
-      <c r="AI16" s="1">
+      <c r="AI16" s="3">
         <f>[1]annualCYSaltMass!$S94</f>
         <v>60677.989991459443</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="3">
         <f>[1]annualCYSaltMass!$T94</f>
         <v>367304.36884114787</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AK16" s="3">
         <f>[1]annualCYSaltMass!$U94</f>
         <v>5748811.7256614342</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AL16" s="3">
         <f>[1]annualCYSaltMass!$V94</f>
         <v>6711173.9605472423</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AM16" s="3">
         <f>[1]annualCYSaltMass!$W94</f>
         <v>271648.54299133434</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AN16" s="3">
         <f>[1]annualCYSaltMass!$X94</f>
         <v>7589950.3574744361</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AO16" s="3">
         <f>[1]annualCYSaltMass!$Y94</f>
         <v>5127397.0484449277</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AP16" s="3">
         <f>[1]annualCYSaltMass!$Z94</f>
         <v>5171207.9243171867</v>
       </c>
-      <c r="AQ16" s="2">
+      <c r="AQ16" s="4">
         <f>[1]annualCYConc!$C94</f>
         <v>211.90161189486227</v>
       </c>
-      <c r="AR16" s="2">
+      <c r="AR16" s="4">
         <f>[1]annualCYConc!$D94</f>
         <v>313.25970222125608</v>
       </c>
-      <c r="AS16" s="2">
+      <c r="AS16" s="4">
         <f>[1]annualCYConc!$H94</f>
         <v>418.42028568275373</v>
       </c>
-      <c r="AT16" s="2">
+      <c r="AT16" s="4">
         <f>[1]annualCYConc!$I94</f>
         <v>436.71402600426927</v>
       </c>
-      <c r="AU16" s="2">
+      <c r="AU16" s="4">
         <f>[1]annualCYConc!$J94</f>
         <v>427.3025576912512</v>
       </c>
-      <c r="AV16" s="2">
+      <c r="AV16" s="4">
         <f>[1]annualCYConc!$L94</f>
         <v>237.86183414454695</v>
       </c>
-      <c r="AW16" s="2">
+      <c r="AW16" s="4">
         <f>[1]annualCYConc!$M94</f>
         <v>395.96438152758265</v>
       </c>
-      <c r="AX16" s="2">
+      <c r="AX16" s="4">
         <f>[1]annualCYConc!$N94</f>
         <v>146.7967231080321</v>
       </c>
-      <c r="AY16" s="2">
+      <c r="AY16" s="4">
         <f>[1]annualCYConc!$P94</f>
         <v>771.18891316915244</v>
       </c>
-      <c r="AZ16" s="2">
+      <c r="AZ16" s="4">
         <f>[1]annualCYConc!$Q94</f>
         <v>333.23673920096314</v>
       </c>
-      <c r="BA16" s="2">
+      <c r="BA16" s="4">
         <f>[1]annualCYConc!$R94</f>
         <v>340.14664090162159</v>
       </c>
-      <c r="BB16" s="2">
+      <c r="BB16" s="4">
         <f>[1]annualCYConc!$S94</f>
         <v>1522.3166662251303</v>
       </c>
-      <c r="BC16" s="2">
+      <c r="BC16" s="4">
         <f>[1]annualCYConc!$T94</f>
         <v>165.15097032047959</v>
       </c>
-      <c r="BD16" s="2">
+      <c r="BD16" s="4">
         <f>[1]annualCYConc!$U94</f>
         <v>387.6690040310603</v>
       </c>
-      <c r="BE16" s="2">
+      <c r="BE16" s="4">
         <f>[1]annualCYConc!$V94</f>
         <v>524.17098756723374</v>
       </c>
-      <c r="BF16" s="2">
+      <c r="BF16" s="4">
         <f>[1]annualCYConc!$W94</f>
         <v>584.90625362907917</v>
       </c>
-      <c r="BG16" s="2">
+      <c r="BG16" s="4">
         <f>[1]annualCYConc!$X94</f>
         <v>1904.525996396671</v>
       </c>
-      <c r="BH16" s="2">
+      <c r="BH16" s="4">
         <f>[1]annualCYConc!$Y94</f>
         <v>580.5639085626899</v>
       </c>
-      <c r="BI16" s="2">
+      <c r="BI16" s="4">
         <f>[1]annualCYConc!$Z94</f>
         <v>598.31538033036065</v>
       </c>
-      <c r="BJ16" s="2">
+      <c r="BJ16" s="4">
         <f>[1]annualCYConc!AA94</f>
         <v>694.97391634452947</v>
       </c>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK16" s="5">
+        <v>9656554.4399942197</v>
+      </c>
+      <c r="BL16" s="5">
+        <v>6508061.4816709301</v>
+      </c>
+      <c r="BM16" s="5">
+        <v>499.92480678335801</v>
+      </c>
+      <c r="BN16" s="6"/>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>[1]annualCYFlow!A95</f>
         <v>2015</v>
@@ -8345,248 +8531,258 @@
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <f>[1]annualCYFlow!$B95</f>
         <v>1892737</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <f>[1]annualCYFlow!$C95</f>
         <v>2957081</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <f>[1]annualCYFlow!$G95</f>
         <v>1612131</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <f>[1]annualCYFlow!$H95</f>
         <v>272877</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <f>[1]annualCYFlow!$I95</f>
         <v>4761293</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <f>[1]annualCYFlow!$K95</f>
         <v>1200007</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <f>[1]annualCYFlow!$L95</f>
         <v>1544928</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <f>[1]annualCYFlow!$M95</f>
         <v>965907</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="3">
         <f>[1]annualCYFlow!$O95</f>
         <v>119166</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="3">
         <f>[1]annualCYFlow!$P95</f>
         <v>471146</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="3">
         <f>[1]annualCYFlow!$Q95</f>
         <v>3393630</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="3">
         <f>[1]annualCYFlow!$R95</f>
         <v>38594</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="3">
         <f>[1]annualCYFlow!$S95</f>
         <v>296432</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="3">
         <f>[1]annualCYFlow!$T95</f>
         <v>1021710</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="3">
         <f>[1]annualCYFlow!$U95</f>
         <v>8918927</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="3">
         <f>[1]annualCYFlow!$V95</f>
         <v>9321596</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="3">
         <f>[1]annualCYFlow!$W95</f>
         <v>93311</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="3">
         <f>[1]annualCYFlow!$X95</f>
         <v>9413492</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="3">
         <f>[1]annualCYFlow!$Y95</f>
         <v>6370329</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="3">
         <f>[1]annualCYFlow!$Z95</f>
         <v>5360230</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="3">
         <f>[1]annualCYSaltMass!$B95</f>
         <v>569861.60396903253</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="3">
         <f>[1]annualCYSaltMass!$C95</f>
         <v>1331810.4880854331</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y17" s="3">
         <f>[1]annualCYSaltMass!$G95</f>
         <v>970632.48655339214</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17" s="3">
         <f>[1]annualCYSaltMass!$H95</f>
         <v>176564.65006441902</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA17" s="3">
         <f>[1]annualCYSaltMass!$I95</f>
         <v>2963500.7001341595</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="3">
         <f>[1]annualCYSaltMass!$K95</f>
         <v>434139.73729136912</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17" s="3">
         <f>[1]annualCYSaltMass!$L95</f>
         <v>780439.2107498151</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AD17" s="3">
         <f>[1]annualCYSaltMass!$M95</f>
         <v>214218.32613816488</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AE17" s="3">
         <f>[1]annualCYSaltMass!$O95</f>
         <v>107016.81754365056</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="3">
         <f>[1]annualCYSaltMass!$P95</f>
         <v>223153.72895636331</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AG17" s="3">
         <f>[1]annualCYSaltMass!$Q95</f>
         <v>1735196.2129590146</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="3">
         <f>[1]annualCYSaltMass!$R95</f>
         <v>72547.852027639427</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="3">
         <f>[1]annualCYSaltMass!$S95</f>
         <v>64330.811473142974</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="3">
         <f>[1]annualCYSaltMass!$T95</f>
         <v>496020.35100336274</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="3">
         <f>[1]annualCYSaltMass!$U95</f>
         <v>5669651.8147700727</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AL17" s="3">
         <f>[1]annualCYSaltMass!$V95</f>
         <v>6652187.4727544831</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AM17" s="3">
         <f>[1]annualCYSaltMass!$W95</f>
         <v>261308.22192866626</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AN17" s="3">
         <f>[1]annualCYSaltMass!$X95</f>
         <v>7864639.088887644</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AO17" s="3">
         <f>[1]annualCYSaltMass!$Y95</f>
         <v>5495199.6928309845</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AP17" s="3">
         <f>[1]annualCYSaltMass!$Z95</f>
         <v>5294084.3098068088</v>
       </c>
-      <c r="AQ17" s="2">
+      <c r="AQ17" s="4">
         <f>[1]annualCYConc!$C95</f>
         <v>221.43514835922795</v>
       </c>
-      <c r="AR17" s="2">
+      <c r="AR17" s="4">
         <f>[1]annualCYConc!$D95</f>
         <v>331.24294955058718</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AS17" s="4">
         <f>[1]annualCYConc!$H95</f>
         <v>442.81459533995695</v>
       </c>
-      <c r="AT17" s="2">
+      <c r="AT17" s="4">
         <f>[1]annualCYConc!$I95</f>
         <v>475.8874584519765</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="AU17" s="4">
         <f>[1]annualCYConc!$J95</f>
         <v>457.77024442730158</v>
       </c>
-      <c r="AV17" s="2">
+      <c r="AV17" s="4">
         <f>[1]annualCYConc!$L95</f>
         <v>266.08058886323164</v>
       </c>
-      <c r="AW17" s="2">
+      <c r="AW17" s="4">
         <f>[1]annualCYConc!$M95</f>
         <v>371.53374914559123</v>
       </c>
-      <c r="AX17" s="2">
+      <c r="AX17" s="4">
         <f>[1]annualCYConc!$N95</f>
         <v>163.11306233415849</v>
       </c>
-      <c r="AY17" s="2">
+      <c r="AY17" s="4">
         <f>[1]annualCYConc!$P95</f>
         <v>660.49130288840786</v>
       </c>
-      <c r="AZ17" s="2">
+      <c r="AZ17" s="4">
         <f>[1]annualCYConc!$Q95</f>
         <v>348.35020736671856</v>
       </c>
-      <c r="BA17" s="2">
+      <c r="BA17" s="4">
         <f>[1]annualCYConc!$R95</f>
         <v>376.05514434396207</v>
       </c>
-      <c r="BB17" s="2">
+      <c r="BB17" s="4">
         <f>[1]annualCYConc!$S95</f>
         <v>1382.522472405037</v>
       </c>
-      <c r="BC17" s="2">
+      <c r="BC17" s="4">
         <f>[1]annualCYConc!$T95</f>
         <v>159.61047086684297</v>
       </c>
-      <c r="BD17" s="2">
+      <c r="BD17" s="4">
         <f>[1]annualCYConc!$U95</f>
         <v>357.05842469976801</v>
       </c>
-      <c r="BE17" s="2">
+      <c r="BE17" s="4">
         <f>[1]annualCYConc!$V95</f>
         <v>467.531861657798</v>
       </c>
-      <c r="BF17" s="2">
+      <c r="BF17" s="4">
         <f>[1]annualCYConc!$W95</f>
         <v>524.85777714460062</v>
       </c>
-      <c r="BG17" s="2">
+      <c r="BG17" s="4">
         <f>[1]annualCYConc!$X95</f>
         <v>2059.6226747114488</v>
       </c>
-      <c r="BH17" s="2">
+      <c r="BH17" s="4">
         <f>[1]annualCYConc!$Y95</f>
         <v>614.46262656833392</v>
       </c>
-      <c r="BI17" s="2">
+      <c r="BI17" s="4">
         <f>[1]annualCYConc!$Z95</f>
         <v>634.43779939780177</v>
       </c>
-      <c r="BJ17" s="2">
+      <c r="BJ17" s="4">
         <f>[1]annualCYConc!AA95</f>
         <v>726.39837094676898</v>
       </c>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK17" s="5">
+        <v>9584865.1838716101</v>
+      </c>
+      <c r="BL17" s="5">
+        <v>5192667.7173354998</v>
+      </c>
+      <c r="BM17" s="5">
+        <v>404.56691747923998</v>
+      </c>
+      <c r="BN17" s="6"/>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>[1]annualCYFlow!A96</f>
         <v>2016</v>
@@ -8594,248 +8790,258 @@
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <f>[1]annualCYFlow!$B96</f>
         <v>1623803</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <f>[1]annualCYFlow!$C96</f>
         <v>2640394</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
         <f>[1]annualCYFlow!$G96</f>
         <v>1623475</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <f>[1]annualCYFlow!$H96</f>
         <v>354443</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <f>[1]annualCYFlow!$I96</f>
         <v>4482570</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="3">
         <f>[1]annualCYFlow!$K96</f>
         <v>968314</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="3">
         <f>[1]annualCYFlow!$L96</f>
         <v>1551699</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <f>[1]annualCYFlow!$M96</f>
         <v>1193421</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <f>[1]annualCYFlow!$O96</f>
         <v>186204</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="3">
         <f>[1]annualCYFlow!$P96</f>
         <v>458469</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="3">
         <f>[1]annualCYFlow!$Q96</f>
         <v>3887065</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="3">
         <f>[1]annualCYFlow!$R96</f>
         <v>25590</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="3">
         <f>[1]annualCYFlow!$S96</f>
         <v>651186</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="3">
         <f>[1]annualCYFlow!$T96</f>
         <v>1214506</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="3">
         <f>[1]annualCYFlow!$U96</f>
         <v>9339231</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="3">
         <f>[1]annualCYFlow!$V96</f>
         <v>9738628</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="3">
         <f>[1]annualCYFlow!$W96</f>
         <v>117856</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="3">
         <f>[1]annualCYFlow!$X96</f>
         <v>9276628</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="3">
         <f>[1]annualCYFlow!$Y96</f>
         <v>6394845</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="3">
         <f>[1]annualCYFlow!$Z96</f>
         <v>5408231</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="3">
         <f>[1]annualCYSaltMass!$B96</f>
         <v>546483.20393174631</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="3">
         <f>[1]annualCYSaltMass!$C96</f>
         <v>1293190.225263874</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y18" s="3">
         <f>[1]annualCYSaltMass!$G96</f>
         <v>922244.94358472549</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18" s="3">
         <f>[1]annualCYSaltMass!$H96</f>
         <v>201474.13946403092</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="3">
         <f>[1]annualCYSaltMass!$I96</f>
         <v>2831575.886649163</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="3">
         <f>[1]annualCYSaltMass!$K96</f>
         <v>369427.78300458862</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="3">
         <f>[1]annualCYSaltMass!$L96</f>
         <v>749842.92473828397</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AD18" s="3">
         <f>[1]annualCYSaltMass!$M96</f>
         <v>289967.55864922784</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AE18" s="3">
         <f>[1]annualCYSaltMass!$O96</f>
         <v>129371.33582414289</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AF18" s="3">
         <f>[1]annualCYSaltMass!$P96</f>
         <v>218108.24594865282</v>
       </c>
-      <c r="AG18" s="1">
+      <c r="AG18" s="3">
         <f>[1]annualCYSaltMass!$Q96</f>
         <v>1877671.510831618</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" s="3">
         <f>[1]annualCYSaltMass!$R96</f>
         <v>55513.767397979114</v>
       </c>
-      <c r="AI18" s="1">
+      <c r="AI18" s="3">
         <f>[1]annualCYSaltMass!$S96</f>
         <v>130471.06157544146</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="3">
         <f>[1]annualCYSaltMass!$T96</f>
         <v>541854.29421307635</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" s="3">
         <f>[1]annualCYSaltMass!$U96</f>
         <v>5936280.7777702883</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AL18" s="3">
         <f>[1]annualCYSaltMass!$V96</f>
         <v>6911986.8974696798</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AM18" s="3">
         <f>[1]annualCYSaltMass!$W96</f>
         <v>308745.98091467697</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AN18" s="3">
         <f>[1]annualCYSaltMass!$X96</f>
         <v>7542794.2850579806</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AO18" s="3">
         <f>[1]annualCYSaltMass!$Y96</f>
         <v>5429845.0818609037</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AP18" s="3">
         <f>[1]annualCYSaltMass!$Z96</f>
         <v>5254607.9436530657</v>
       </c>
-      <c r="AQ18" s="2">
+      <c r="AQ18" s="4">
         <f>[1]annualCYConc!$C96</f>
         <v>247.5203511140206</v>
       </c>
-      <c r="AR18" s="2">
+      <c r="AR18" s="4">
         <f>[1]annualCYConc!$D96</f>
         <v>360.21443246727574</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AS18" s="4">
         <f>[1]annualCYConc!$H96</f>
         <v>417.7996875221362</v>
       </c>
-      <c r="AT18" s="2">
+      <c r="AT18" s="4">
         <f>[1]annualCYConc!$I96</f>
         <v>418.06165843309083</v>
       </c>
-      <c r="AU18" s="2">
+      <c r="AU18" s="4">
         <f>[1]annualCYConc!$J96</f>
         <v>464.58861006074642</v>
       </c>
-      <c r="AV18" s="2">
+      <c r="AV18" s="4">
         <f>[1]annualCYConc!$L96</f>
         <v>280.59554793176591</v>
       </c>
-      <c r="AW18" s="2">
+      <c r="AW18" s="4">
         <f>[1]annualCYConc!$M96</f>
         <v>355.41049746117</v>
       </c>
-      <c r="AX18" s="2">
+      <c r="AX18" s="4">
         <f>[1]annualCYConc!$N96</f>
         <v>178.69943104738397</v>
       </c>
-      <c r="AY18" s="2">
+      <c r="AY18" s="4">
         <f>[1]annualCYConc!$P96</f>
         <v>510.99481053038602</v>
       </c>
-      <c r="AZ18" s="2">
+      <c r="AZ18" s="4">
         <f>[1]annualCYConc!$Q96</f>
         <v>349.88839877941592</v>
       </c>
-      <c r="BA18" s="2">
+      <c r="BA18" s="4">
         <f>[1]annualCYConc!$R96</f>
         <v>355.27549011915158</v>
       </c>
-      <c r="BB18" s="2">
+      <c r="BB18" s="4">
         <f>[1]annualCYConc!$S96</f>
         <v>1595.5038218053926</v>
       </c>
-      <c r="BC18" s="2">
+      <c r="BC18" s="4">
         <f>[1]annualCYConc!$T96</f>
         <v>147.35896901960422</v>
       </c>
-      <c r="BD18" s="2">
+      <c r="BD18" s="4">
         <f>[1]annualCYConc!$U96</f>
         <v>328.13328637322496</v>
       </c>
-      <c r="BE18" s="2">
+      <c r="BE18" s="4">
         <f>[1]annualCYConc!$V96</f>
         <v>467.48830427258952</v>
       </c>
-      <c r="BF18" s="2">
+      <c r="BF18" s="4">
         <f>[1]annualCYConc!$W96</f>
         <v>522.0024757080771</v>
       </c>
-      <c r="BG18" s="2">
+      <c r="BG18" s="4">
         <f>[1]annualCYConc!$X96</f>
         <v>1926.7130947936464</v>
       </c>
-      <c r="BH18" s="2">
+      <c r="BH18" s="4">
         <f>[1]annualCYConc!$Y96</f>
         <v>598.01152691473669</v>
       </c>
-      <c r="BI18" s="2">
+      <c r="BI18" s="4">
         <f>[1]annualCYConc!$Z96</f>
         <v>624.48908190894372</v>
       </c>
-      <c r="BJ18" s="2">
+      <c r="BJ18" s="4">
         <f>[1]annualCYConc!AA96</f>
         <v>714.58273355927281</v>
       </c>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK18" s="5">
+        <v>9688203.7267677803</v>
+      </c>
+      <c r="BL18" s="5">
+        <v>5750209.9734969996</v>
+      </c>
+      <c r="BM18" s="5">
+        <v>439.85408470259102</v>
+      </c>
+      <c r="BN18" s="6"/>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f>[1]annualCYFlow!A97</f>
         <v>2017</v>
@@ -8843,248 +9049,258 @@
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <f>[1]annualCYFlow!$B97</f>
         <v>1591488</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <f>[1]annualCYFlow!$C97</f>
         <v>2535528</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
         <f>[1]annualCYFlow!$G97</f>
         <v>2074920</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <f>[1]annualCYFlow!$H97</f>
         <v>505419</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <f>[1]annualCYFlow!$I97</f>
         <v>4747687</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="3">
         <f>[1]annualCYFlow!$K97</f>
         <v>2375536</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="3">
         <f>[1]annualCYFlow!$L97</f>
         <v>2986137</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <f>[1]annualCYFlow!$M97</f>
         <v>1002618</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <f>[1]annualCYFlow!$O97</f>
         <v>447039</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="3">
         <f>[1]annualCYFlow!$P97</f>
         <v>381667</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="3">
         <f>[1]annualCYFlow!$Q97</f>
         <v>5230787</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="3">
         <f>[1]annualCYFlow!$R97</f>
         <v>94758</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="3">
         <f>[1]annualCYFlow!$S97</f>
         <v>798350</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="3">
         <f>[1]annualCYFlow!$T97</f>
         <v>1429032</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="3">
         <f>[1]annualCYFlow!$U97</f>
         <v>8861425</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="3">
         <f>[1]annualCYFlow!$V97</f>
         <v>9300493</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="3">
         <f>[1]annualCYFlow!$W97</f>
         <v>157535</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="3">
         <f>[1]annualCYFlow!$X97</f>
         <v>8731564</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="3">
         <f>[1]annualCYFlow!$Y97</f>
         <v>6421363</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="3">
         <f>[1]annualCYFlow!$Z97</f>
         <v>5350274</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="3">
         <f>[1]annualCYSaltMass!$B97</f>
         <v>537995.38827157766</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="3">
         <f>[1]annualCYSaltMass!$C97</f>
         <v>1221579.7702443465</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19" s="3">
         <f>[1]annualCYSaltMass!$G97</f>
         <v>871964.25966083154</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19" s="3">
         <f>[1]annualCYSaltMass!$H97</f>
         <v>234247.20602606641</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19" s="3">
         <f>[1]annualCYSaltMass!$I97</f>
         <v>2790793.2581950184</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="3">
         <f>[1]annualCYSaltMass!$K97</f>
         <v>694841.61897117423</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19" s="3">
         <f>[1]annualCYSaltMass!$L97</f>
         <v>1521821.8695372608</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19" s="3">
         <f>[1]annualCYSaltMass!$M97</f>
         <v>207441.01211990818</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19" s="3">
         <f>[1]annualCYSaltMass!$O97</f>
         <v>237836.85860123308</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="3">
         <f>[1]annualCYSaltMass!$P97</f>
         <v>187308.57781552881</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19" s="3">
         <f>[1]annualCYSaltMass!$Q97</f>
         <v>2198358.2677602954</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19" s="3">
         <f>[1]annualCYSaltMass!$R97</f>
         <v>119702.66063359054</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19" s="3">
         <f>[1]annualCYSaltMass!$S97</f>
         <v>156381.82160510379</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="3">
         <f>[1]annualCYSaltMass!$T97</f>
         <v>584209.67141154746</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19" s="3">
         <f>[1]annualCYSaltMass!$U97</f>
         <v>5536408.118147403</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AL19" s="3">
         <f>[1]annualCYSaltMass!$V97</f>
         <v>6543433.2993292753</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AM19" s="3">
         <f>[1]annualCYSaltMass!$W97</f>
         <v>362896.37387849012</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AN19" s="3">
         <f>[1]annualCYSaltMass!$X97</f>
         <v>7062809.1621430404</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AO19" s="3">
         <f>[1]annualCYSaltMass!$Y97</f>
         <v>5368895.775208395</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AP19" s="3">
         <f>[1]annualCYSaltMass!$Z97</f>
         <v>5106608.3046326963</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AQ19" s="4">
         <f>[1]annualCYConc!$C97</f>
         <v>248.62375299091158</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AR19" s="4">
         <f>[1]annualCYConc!$D97</f>
         <v>354.34054966066248</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AS19" s="4">
         <f>[1]annualCYConc!$H97</f>
         <v>309.07562831338072</v>
       </c>
-      <c r="AT19" s="2">
+      <c r="AT19" s="4">
         <f>[1]annualCYConc!$I97</f>
         <v>340.87118371094073</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AU19" s="4">
         <f>[1]annualCYConc!$J97</f>
         <v>432.32765668840426</v>
       </c>
-      <c r="AV19" s="2">
+      <c r="AV19" s="4">
         <f>[1]annualCYConc!$L97</f>
         <v>215.1253750732466</v>
       </c>
-      <c r="AW19" s="2">
+      <c r="AW19" s="4">
         <f>[1]annualCYConc!$M97</f>
         <v>374.81893774465141</v>
       </c>
-      <c r="AX19" s="2">
+      <c r="AX19" s="4">
         <f>[1]annualCYConc!$N97</f>
         <v>152.1691304165694</v>
       </c>
-      <c r="AY19" s="2">
+      <c r="AY19" s="4">
         <f>[1]annualCYConc!$P97</f>
         <v>391.29219061424175</v>
       </c>
-      <c r="AZ19" s="2">
+      <c r="AZ19" s="4">
         <f>[1]annualCYConc!$Q97</f>
         <v>360.94454983008751</v>
       </c>
-      <c r="BA19" s="2">
+      <c r="BA19" s="4">
         <f>[1]annualCYConc!$R97</f>
         <v>309.09990294003558</v>
       </c>
-      <c r="BB19" s="2">
+      <c r="BB19" s="4">
         <f>[1]annualCYConc!$S97</f>
         <v>929.08479178539005</v>
       </c>
-      <c r="BC19" s="2">
+      <c r="BC19" s="4">
         <f>[1]annualCYConc!$T97</f>
         <v>144.06562622909752</v>
       </c>
-      <c r="BD19" s="2">
+      <c r="BD19" s="4">
         <f>[1]annualCYConc!$U97</f>
         <v>300.67285519148618</v>
       </c>
-      <c r="BE19" s="2">
+      <c r="BE19" s="4">
         <f>[1]annualCYConc!$V97</f>
         <v>459.50682257086191</v>
       </c>
-      <c r="BF19" s="2">
+      <c r="BF19" s="4">
         <f>[1]annualCYConc!$W97</f>
         <v>517.44851256809716</v>
       </c>
-      <c r="BG19" s="2">
+      <c r="BG19" s="4">
         <f>[1]annualCYConc!$X97</f>
         <v>1694.2324854794172</v>
       </c>
-      <c r="BH19" s="2">
+      <c r="BH19" s="4">
         <f>[1]annualCYConc!$Y97</f>
         <v>594.91218389970004</v>
       </c>
-      <c r="BI19" s="2">
+      <c r="BI19" s="4">
         <f>[1]annualCYConc!$Z97</f>
         <v>614.92929793877101</v>
       </c>
-      <c r="BJ19" s="2">
+      <c r="BJ19" s="4">
         <f>[1]annualCYConc!AA97</f>
         <v>701.97873564980023</v>
       </c>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK19" s="5">
+        <v>11636110.7285838</v>
+      </c>
+      <c r="BL19" s="5">
+        <v>6879144.4111325499</v>
+      </c>
+      <c r="BM19" s="5">
+        <v>437.95178723048099</v>
+      </c>
+      <c r="BN19" s="6"/>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f>[1]annualCYFlow!A98</f>
         <v>2018</v>
@@ -9092,248 +9308,258 @@
       <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <f>[1]annualCYFlow!$B98</f>
         <v>1034601</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <f>[1]annualCYFlow!$C98</f>
         <v>1560798</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <f>[1]annualCYFlow!$G98</f>
         <v>833129</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="3">
         <f>[1]annualCYFlow!$H98</f>
         <v>73727</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3">
         <f>[1]annualCYFlow!$I98</f>
         <v>2269679</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <f>[1]annualCYFlow!$K98</f>
-        <v>1382086</v>
-      </c>
-      <c r="I20" s="1">
+        <v>1382092.74</v>
+      </c>
+      <c r="I20" s="3">
         <f>[1]annualCYFlow!$L98</f>
         <v>1585054</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <f>[1]annualCYFlow!$M98</f>
         <v>700507</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <f>[1]annualCYFlow!$O98</f>
         <v>76613</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="3">
         <f>[1]annualCYFlow!$P98</f>
         <v>259526</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="3">
         <f>[1]annualCYFlow!$Q98</f>
         <v>2756351</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="3">
         <f>[1]annualCYFlow!$R98</f>
         <v>21505</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="3">
         <f>[1]annualCYFlow!$S98</f>
         <v>395480</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="3">
         <f>[1]annualCYFlow!$T98</f>
         <v>438354</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="3">
         <f>[1]annualCYFlow!$U98</f>
         <v>9234721</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="3">
         <f>[1]annualCYFlow!$V98</f>
         <v>9627472</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="3">
         <f>[1]annualCYFlow!$W98</f>
         <v>91523</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="3">
         <f>[1]annualCYFlow!$X98</f>
         <v>9116167</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="3">
         <f>[1]annualCYFlow!$Y98</f>
         <v>6514052</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="3">
         <f>[1]annualCYFlow!$Z98</f>
         <v>5317008</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="3">
         <f>[1]annualCYSaltMass!$B98</f>
         <v>452793.42343154573</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="3">
         <f>[1]annualCYSaltMass!$C98</f>
         <v>1052032.6078218769</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y20" s="3">
         <f>[1]annualCYSaltMass!$G98</f>
         <v>520128.76497096522</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20" s="3">
         <f>[1]annualCYSaltMass!$H98</f>
         <v>104482.61493051531</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20" s="3">
         <f>[1]annualCYSaltMass!$I98</f>
         <v>2118329.8070087912</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20" s="3">
         <f>[1]annualCYSaltMass!$K98</f>
-        <v>599266.69358158368</v>
-      </c>
-      <c r="AC20" s="1">
+        <v>442729.14372603362</v>
+      </c>
+      <c r="AC20" s="3">
         <f>[1]annualCYSaltMass!$L98</f>
         <v>729408.63687505922</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AD20" s="3">
         <f>[1]annualCYSaltMass!$M98</f>
         <v>157561.15531714642</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AE20" s="3">
         <f>[1]annualCYSaltMass!$O98</f>
         <v>74848.61218468078</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AF20" s="3">
         <f>[1]annualCYSaltMass!$P98</f>
         <v>133945.08140400203</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AG20" s="3">
         <f>[1]annualCYSaltMass!$Q98</f>
         <v>1387396.9556558104</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AH20" s="3">
         <f>[1]annualCYSaltMass!$R98</f>
         <v>40941.688829724197</v>
       </c>
-      <c r="AI20" s="1">
+      <c r="AI20" s="3">
         <f>[1]annualCYSaltMass!$S98</f>
         <v>80457.555894058372</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="3">
         <f>[1]annualCYSaltMass!$T98</f>
         <v>246998.22217172576</v>
       </c>
-      <c r="AK20" s="1">
+      <c r="AK20" s="3">
         <f>[1]annualCYSaltMass!$U98</f>
         <v>5431981.0079522878</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AL20" s="3">
         <f>[1]annualCYSaltMass!$V98</f>
         <v>6415387.9063059613</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AM20" s="3">
         <f>[1]annualCYSaltMass!$W98</f>
         <v>252509.76096666919</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AN20" s="3">
         <f>[1]annualCYSaltMass!$X98</f>
         <v>7077863.12003149</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AO20" s="3">
         <f>[1]annualCYSaltMass!$Y98</f>
         <v>5235569.6272892859</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AP20" s="3">
         <f>[1]annualCYSaltMass!$Z98</f>
         <v>4896711.2797276853</v>
       </c>
-      <c r="AQ20" s="2">
+      <c r="AQ20" s="4">
         <f>[1]annualCYConc!$C98</f>
         <v>321.88048706699487</v>
       </c>
-      <c r="AR20" s="2">
+      <c r="AR20" s="4">
         <f>[1]annualCYConc!$D98</f>
         <v>495.7354021468505</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AS20" s="4">
         <f>[1]annualCYConc!$H98</f>
         <v>459.16212159221431</v>
       </c>
-      <c r="AT20" s="2">
+      <c r="AT20" s="4">
         <f>[1]annualCYConc!$I98</f>
         <v>1042.2811995605412</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AU20" s="4">
         <f>[1]annualCYConc!$J98</f>
         <v>686.43049836562795</v>
       </c>
-      <c r="AV20" s="2">
+      <c r="AV20" s="4">
         <f>[1]annualCYConc!$L98</f>
-        <v>318.89852201671965</v>
-      </c>
-      <c r="AW20" s="2">
+        <v>235.59624218271705</v>
+      </c>
+      <c r="AW20" s="4">
         <f>[1]annualCYConc!$M98</f>
         <v>338.44980820842693</v>
       </c>
-      <c r="AX20" s="2">
+      <c r="AX20" s="4">
         <f>[1]annualCYConc!$N98</f>
         <v>165.42613021711415</v>
       </c>
-      <c r="AY20" s="2">
+      <c r="AY20" s="4">
         <f>[1]annualCYConc!$P98</f>
         <v>718.53630584887685</v>
       </c>
-      <c r="AZ20" s="2">
+      <c r="AZ20" s="4">
         <f>[1]annualCYConc!$Q98</f>
         <v>379.58874833350029</v>
       </c>
-      <c r="BA20" s="2">
+      <c r="BA20" s="4">
         <f>[1]annualCYConc!$R98</f>
         <v>370.19764333352327</v>
       </c>
-      <c r="BB20" s="2">
+      <c r="BB20" s="4">
         <f>[1]annualCYConc!$S98</f>
         <v>1400.2118205068587</v>
       </c>
-      <c r="BC20" s="2">
+      <c r="BC20" s="4">
         <f>[1]annualCYConc!$T98</f>
         <v>149.62692247395569</v>
       </c>
-      <c r="BD20" s="2">
+      <c r="BD20" s="4">
         <f>[1]annualCYConc!$U98</f>
         <v>414.41578267792698</v>
       </c>
-      <c r="BE20" s="2">
+      <c r="BE20" s="4">
         <f>[1]annualCYConc!$V98</f>
         <v>432.61532227124121</v>
       </c>
-      <c r="BF20" s="2">
+      <c r="BF20" s="4">
         <f>[1]annualCYConc!$W98</f>
         <v>490.0925381034607</v>
       </c>
-      <c r="BG20" s="2">
+      <c r="BG20" s="4">
         <f>[1]annualCYConc!$X98</f>
         <v>2029.1556275471737</v>
       </c>
-      <c r="BH20" s="2">
+      <c r="BH20" s="4">
         <f>[1]annualCYConc!$Y98</f>
         <v>571.02788984668655</v>
       </c>
-      <c r="BI20" s="2">
+      <c r="BI20" s="4">
         <f>[1]annualCYConc!$Z98</f>
         <v>591.12612264992663</v>
       </c>
-      <c r="BJ20" s="2">
+      <c r="BJ20" s="4">
         <f>[1]annualCYConc!AA98</f>
         <v>677.33671544221863</v>
       </c>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK20" s="5">
+        <v>5515347.0756084695</v>
+      </c>
+      <c r="BL20" s="5">
+        <v>3167619.1347992099</v>
+      </c>
+      <c r="BM20" s="5">
+        <v>428.78751528198097</v>
+      </c>
+      <c r="BN20" s="6"/>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f>[1]annualCYFlow!A99</f>
         <v>2019</v>
@@ -9341,246 +9567,1996 @@
       <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <f>[1]annualCYFlow!$B99</f>
         <v>1862187</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <f>[1]annualCYFlow!$C99</f>
         <v>3334653</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <f>[1]annualCYFlow!$G99</f>
         <v>2156261</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="3">
         <f>[1]annualCYFlow!$H99</f>
         <v>649943</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3">
         <f>[1]annualCYFlow!$I99</f>
         <v>6005759</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <f>[1]annualCYFlow!$K99</f>
-        <v>1051910</v>
-      </c>
-      <c r="I21" s="1">
+        <v>1051946.6800000002</v>
+      </c>
+      <c r="I21" s="3">
         <f>[1]annualCYFlow!$L99</f>
         <v>1432500</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="3">
         <f>[1]annualCYFlow!$M99</f>
         <v>1392421.5519999999</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <f>[1]annualCYFlow!$O99</f>
         <v>456104</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="3">
         <f>[1]annualCYFlow!$P99</f>
         <v>553633</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="3">
         <f>[1]annualCYFlow!$Q99</f>
         <v>4354814</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <f>[1]annualCYFlow!$R99</f>
         <v>120617</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="3">
         <f>[1]annualCYFlow!$S99</f>
         <v>508728</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="3">
         <f>[1]annualCYFlow!$T99</f>
         <v>1364129</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="3">
         <f>[1]annualCYFlow!$U99</f>
         <v>9197627</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="3">
         <f>[1]annualCYFlow!$V99</f>
         <v>9693783</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="3">
         <f>[1]annualCYFlow!$W99</f>
         <v>231863</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T21" s="3">
         <f>[1]annualCYFlow!$X99</f>
         <v>8515562</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="3">
         <f>[1]annualCYFlow!$Y99</f>
         <v>6258339</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="3">
         <f>[1]annualCYFlow!$Z99</f>
         <v>5290491</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="3">
         <f>[1]annualCYSaltMass!$B99</f>
         <v>582892.58697738731</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="3">
         <f>[1]annualCYSaltMass!$C99</f>
         <v>1389795.2165838114</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y21" s="3">
         <f>[1]annualCYSaltMass!$G99</f>
         <v>844645.23538210534</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21" s="3">
         <f>[1]annualCYSaltMass!$H99</f>
         <v>290982.16176627507</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21" s="3">
         <f>[1]annualCYSaltMass!$I99</f>
         <v>3122692.1057380354</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="3">
         <f>[1]annualCYSaltMass!$K99</f>
-        <v>493866.51592172461</v>
-      </c>
-      <c r="AC21" s="1">
+        <v>363891.08685548854</v>
+      </c>
+      <c r="AC21" s="3">
         <f>[1]annualCYSaltMass!$L99</f>
         <v>643567.16406863462</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AD21" s="3">
         <f>[1]annualCYSaltMass!$M99</f>
         <v>277886.15726461547</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AE21" s="3">
         <f>[1]annualCYSaltMass!$O99</f>
         <v>231455.21707043075</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="3">
         <f>[1]annualCYSaltMass!$P99</f>
         <v>225560.1662420498</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AG21" s="3">
         <f>[1]annualCYSaltMass!$Q99</f>
         <v>1752785.1514620751</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="3">
         <f>[1]annualCYSaltMass!$R99</f>
         <v>102696.66441333762</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AI21" s="3">
         <f>[1]annualCYSaltMass!$S99</f>
         <v>106228.4397701016</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="3">
         <f>[1]annualCYSaltMass!$T99</f>
         <v>561223.17160150758</v>
       </c>
-      <c r="AK21" s="1">
+      <c r="AK21" s="3">
         <f>[1]annualCYSaltMass!$U99</f>
         <v>5681594.2023974052</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AL21" s="3">
         <f>[1]annualCYSaltMass!$V99</f>
         <v>6725266.8753222935</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AM21" s="3">
         <f>[1]annualCYSaltMass!$W99</f>
         <v>540039.77681966336</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AN21" s="3">
         <f>[1]annualCYSaltMass!$X99</f>
         <v>6490008.479351324</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AO21" s="3">
         <f>[1]annualCYSaltMass!$Y99</f>
         <v>4898584.424195868</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AP21" s="3">
         <f>[1]annualCYSaltMass!$Z99</f>
         <v>4704414.8133121077</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AQ21" s="4">
         <f>[1]annualCYConc!$C99</f>
         <v>230.21450047712716</v>
       </c>
-      <c r="AR21" s="2">
+      <c r="AR21" s="4">
         <f>[1]annualCYConc!$D99</f>
         <v>306.52619729848954</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AS21" s="4">
         <f>[1]annualCYConc!$H99</f>
         <v>288.09813171967585</v>
       </c>
-      <c r="AT21" s="2">
+      <c r="AT21" s="4">
         <f>[1]annualCYConc!$I99</f>
         <v>329.2748257924157</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AU21" s="4">
         <f>[1]annualCYConc!$J99</f>
         <v>382.40952219361458</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AV21" s="4">
         <f>[1]annualCYConc!$L99</f>
-        <v>345.30147351009117</v>
-      </c>
-      <c r="AW21" s="2">
+        <v>254.41641235606158</v>
+      </c>
+      <c r="AW21" s="4">
         <f>[1]annualCYConc!$M99</f>
         <v>330.42026883071554</v>
       </c>
-      <c r="AX21" s="2">
+      <c r="AX21" s="4">
         <f>[1]annualCYConc!$N99</f>
         <v>146.77889363080126</v>
       </c>
-      <c r="AY21" s="2">
+      <c r="AY21" s="4">
         <f>[1]annualCYConc!$P99</f>
         <v>373.22482810937862</v>
       </c>
-      <c r="AZ21" s="2">
+      <c r="AZ21" s="4">
         <f>[1]annualCYConc!$Q99</f>
         <v>299.6455762210706</v>
       </c>
-      <c r="BA21" s="2">
+      <c r="BA21" s="4">
         <f>[1]annualCYConc!$R99</f>
         <v>296.02371759161241</v>
       </c>
-      <c r="BB21" s="2">
+      <c r="BB21" s="4">
         <f>[1]annualCYConc!$S99</f>
         <v>626.20315129708081</v>
       </c>
-      <c r="BC21" s="2">
+      <c r="BC21" s="4">
         <f>[1]annualCYConc!$T99</f>
         <v>153.57573221839567</v>
       </c>
-      <c r="BD21" s="2">
+      <c r="BD21" s="4">
         <f>[1]annualCYConc!$U99</f>
         <v>302.5851326377491</v>
       </c>
-      <c r="BE21" s="2">
+      <c r="BE21" s="4">
         <f>[1]annualCYConc!$V99</f>
         <v>454.31999602723619</v>
       </c>
-      <c r="BF21" s="2">
+      <c r="BF21" s="4">
         <f>[1]annualCYConc!$W99</f>
         <v>510.25076278270308</v>
       </c>
-      <c r="BG21" s="2">
+      <c r="BG21" s="4">
         <f>[1]annualCYConc!$X99</f>
         <v>1713.0172317273559</v>
       </c>
-      <c r="BH21" s="2">
+      <c r="BH21" s="4">
         <f>[1]annualCYConc!$Y99</f>
         <v>560.53067232673538</v>
       </c>
-      <c r="BI21" s="2">
+      <c r="BI21" s="4">
         <f>[1]annualCYConc!$Z99</f>
         <v>575.67709005536449</v>
       </c>
-      <c r="BJ21" s="2">
+      <c r="BJ21" s="4">
         <f>[1]annualCYConc!AA99</f>
         <v>653.99896680667268</v>
       </c>
+      <c r="BK21" s="5">
+        <v>12123840.123800199</v>
+      </c>
+      <c r="BL21" s="5">
+        <v>6576203.8838002998</v>
+      </c>
+      <c r="BM21" s="5">
+        <v>401.48787908494199</v>
+      </c>
+      <c r="BN21" s="6"/>
+    </row>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN22" s="6"/>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN23" s="6"/>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN24" s="6"/>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN25" s="6"/>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN26" s="6"/>
+    </row>
+    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN27" s="6"/>
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN28" s="6"/>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN29" s="6"/>
+    </row>
+    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN30" s="6"/>
+    </row>
+    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN31" s="6"/>
+    </row>
+    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="BN32" s="6"/>
+    </row>
+    <row r="33" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN33" s="6"/>
+    </row>
+    <row r="34" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN34" s="6"/>
+    </row>
+    <row r="35" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN35" s="6"/>
+    </row>
+    <row r="36" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN36" s="6"/>
+    </row>
+    <row r="37" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN37" s="6"/>
+    </row>
+    <row r="38" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN38" s="6"/>
+    </row>
+    <row r="39" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN39" s="6"/>
+    </row>
+    <row r="40" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN40" s="6"/>
+    </row>
+    <row r="41" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN41" s="6"/>
+    </row>
+    <row r="42" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN42" s="6"/>
+    </row>
+    <row r="43" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN43" s="6"/>
+    </row>
+    <row r="44" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN44" s="6"/>
+    </row>
+    <row r="45" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN45" s="6"/>
+    </row>
+    <row r="46" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN46" s="6"/>
+    </row>
+    <row r="47" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN47" s="6"/>
+    </row>
+    <row r="48" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN48" s="6"/>
+    </row>
+    <row r="49" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN49" s="6"/>
+    </row>
+    <row r="50" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN50" s="6"/>
+    </row>
+    <row r="51" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN51" s="6"/>
+    </row>
+    <row r="52" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN52" s="6"/>
+    </row>
+    <row r="53" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN53" s="6"/>
+    </row>
+    <row r="54" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN54" s="6"/>
+    </row>
+    <row r="55" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN55" s="6"/>
+    </row>
+    <row r="56" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN56" s="6"/>
+    </row>
+    <row r="57" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN57" s="6"/>
+    </row>
+    <row r="58" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN58" s="6"/>
+    </row>
+    <row r="59" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN59" s="6"/>
+    </row>
+    <row r="60" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN60" s="6"/>
+    </row>
+    <row r="61" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN61" s="6"/>
+    </row>
+    <row r="62" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN62" s="6"/>
+    </row>
+    <row r="63" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN63" s="6"/>
+    </row>
+    <row r="64" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN64" s="6"/>
+    </row>
+    <row r="65" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN65" s="6"/>
+    </row>
+    <row r="66" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN66" s="6"/>
+    </row>
+    <row r="67" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN67" s="6"/>
+    </row>
+    <row r="68" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN68" s="6"/>
+    </row>
+    <row r="69" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN69" s="6"/>
+    </row>
+    <row r="70" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN70" s="6"/>
+    </row>
+    <row r="71" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN71" s="6"/>
+    </row>
+    <row r="72" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN72" s="6"/>
+    </row>
+    <row r="73" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN73" s="6"/>
+    </row>
+    <row r="74" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN74" s="6"/>
+    </row>
+    <row r="75" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN75" s="6"/>
+    </row>
+    <row r="76" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN76" s="6"/>
+    </row>
+    <row r="77" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN77" s="6"/>
+    </row>
+    <row r="78" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN78" s="6"/>
+    </row>
+    <row r="79" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN79" s="6"/>
+    </row>
+    <row r="80" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN80" s="6"/>
+    </row>
+    <row r="81" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN81" s="6"/>
+    </row>
+    <row r="82" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN82" s="6"/>
+    </row>
+    <row r="83" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN83" s="6"/>
+    </row>
+    <row r="84" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN84" s="6"/>
+    </row>
+    <row r="85" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN85" s="6"/>
+    </row>
+    <row r="86" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN86" s="6"/>
+    </row>
+    <row r="87" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN87" s="6"/>
+    </row>
+    <row r="88" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN88" s="6"/>
+    </row>
+    <row r="89" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN89" s="6"/>
+    </row>
+    <row r="90" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN90" s="6"/>
+    </row>
+    <row r="91" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN91" s="6"/>
+    </row>
+    <row r="92" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN92" s="6"/>
+    </row>
+    <row r="93" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN93" s="6"/>
+    </row>
+    <row r="94" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN94" s="6"/>
+    </row>
+    <row r="95" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN95" s="6"/>
+    </row>
+    <row r="96" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN96" s="6"/>
+    </row>
+    <row r="97" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN97" s="6"/>
+    </row>
+    <row r="98" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN98" s="6"/>
+    </row>
+    <row r="99" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN99" s="6"/>
+    </row>
+    <row r="100" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN100" s="6"/>
+    </row>
+    <row r="101" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN101" s="6"/>
+    </row>
+    <row r="102" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN102" s="6"/>
+    </row>
+    <row r="103" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN103" s="6"/>
+    </row>
+    <row r="104" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN104" s="6"/>
+    </row>
+    <row r="105" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN105" s="6"/>
+    </row>
+    <row r="106" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN106" s="6"/>
+    </row>
+    <row r="107" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN107" s="6"/>
+    </row>
+    <row r="108" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN108" s="6"/>
+    </row>
+    <row r="109" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN109" s="6"/>
+    </row>
+    <row r="110" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN110" s="6"/>
+    </row>
+    <row r="111" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN111" s="6"/>
+    </row>
+    <row r="112" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN112" s="6"/>
+    </row>
+    <row r="113" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN113" s="6"/>
+    </row>
+    <row r="114" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN114" s="6"/>
+    </row>
+    <row r="115" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN115" s="6"/>
+    </row>
+    <row r="116" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN116" s="6"/>
+    </row>
+    <row r="117" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN117" s="6"/>
+    </row>
+    <row r="118" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN118" s="6"/>
+    </row>
+    <row r="119" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN119" s="6"/>
+    </row>
+    <row r="120" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN120" s="6"/>
+    </row>
+    <row r="121" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN121" s="6"/>
+    </row>
+    <row r="122" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN122" s="6"/>
+    </row>
+    <row r="123" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN123" s="6"/>
+    </row>
+    <row r="124" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN124" s="6"/>
+    </row>
+    <row r="125" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN125" s="6"/>
+    </row>
+    <row r="126" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN126" s="6"/>
+    </row>
+    <row r="127" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN127" s="6"/>
+    </row>
+    <row r="128" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN128" s="6"/>
+    </row>
+    <row r="129" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN129" s="6"/>
+    </row>
+    <row r="130" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN130" s="6"/>
+    </row>
+    <row r="131" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN131" s="6"/>
+    </row>
+    <row r="132" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN132" s="6"/>
+    </row>
+    <row r="133" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN133" s="6"/>
+    </row>
+    <row r="134" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN134" s="6"/>
+    </row>
+    <row r="135" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN135" s="6"/>
+    </row>
+    <row r="136" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN136" s="6"/>
+    </row>
+    <row r="137" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN137" s="6"/>
+    </row>
+    <row r="138" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN138" s="6"/>
+    </row>
+    <row r="139" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN139" s="6"/>
+    </row>
+    <row r="140" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN140" s="6"/>
+    </row>
+    <row r="141" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN141" s="6"/>
+    </row>
+    <row r="142" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN142" s="6"/>
+    </row>
+    <row r="143" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN143" s="6"/>
+    </row>
+    <row r="144" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN144" s="6"/>
+    </row>
+    <row r="145" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN145" s="6"/>
+    </row>
+    <row r="146" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN146" s="6"/>
+    </row>
+    <row r="147" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN147" s="6"/>
+    </row>
+    <row r="148" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN148" s="6"/>
+    </row>
+    <row r="149" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN149" s="6"/>
+    </row>
+    <row r="150" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN150" s="6"/>
+    </row>
+    <row r="151" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN151" s="6"/>
+    </row>
+    <row r="152" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN152" s="6"/>
+    </row>
+    <row r="153" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN153" s="6"/>
+    </row>
+    <row r="154" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN154" s="6"/>
+    </row>
+    <row r="155" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN155" s="6"/>
+    </row>
+    <row r="156" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN156" s="6"/>
+    </row>
+    <row r="157" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN157" s="6"/>
+    </row>
+    <row r="158" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN158" s="6"/>
+    </row>
+    <row r="159" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN159" s="6"/>
+    </row>
+    <row r="160" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN160" s="6"/>
+    </row>
+    <row r="161" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN161" s="6"/>
+    </row>
+    <row r="162" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN162" s="6"/>
+    </row>
+    <row r="163" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN163" s="6"/>
+    </row>
+    <row r="164" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN164" s="6"/>
+    </row>
+    <row r="165" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN165" s="6"/>
+    </row>
+    <row r="166" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN166" s="6"/>
+    </row>
+    <row r="167" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN167" s="6"/>
+    </row>
+    <row r="168" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN168" s="6"/>
+    </row>
+    <row r="169" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN169" s="6"/>
+    </row>
+    <row r="170" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN170" s="6"/>
+    </row>
+    <row r="171" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN171" s="6"/>
+    </row>
+    <row r="172" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN172" s="6"/>
+    </row>
+    <row r="173" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN173" s="6"/>
+    </row>
+    <row r="174" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN174" s="6"/>
+    </row>
+    <row r="175" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN175" s="6"/>
+    </row>
+    <row r="176" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN176" s="6"/>
+    </row>
+    <row r="177" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN177" s="6"/>
+    </row>
+    <row r="178" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN178" s="6"/>
+    </row>
+    <row r="179" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN179" s="6"/>
+    </row>
+    <row r="180" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN180" s="6"/>
+    </row>
+    <row r="181" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN181" s="6"/>
+    </row>
+    <row r="182" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN182" s="6"/>
+    </row>
+    <row r="183" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN183" s="6"/>
+    </row>
+    <row r="184" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN184" s="6"/>
+    </row>
+    <row r="185" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN185" s="6"/>
+    </row>
+    <row r="186" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN186" s="6"/>
+    </row>
+    <row r="187" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN187" s="6"/>
+    </row>
+    <row r="188" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN188" s="6"/>
+    </row>
+    <row r="189" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN189" s="6"/>
+    </row>
+    <row r="190" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN190" s="6"/>
+    </row>
+    <row r="191" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN191" s="6"/>
+    </row>
+    <row r="192" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN192" s="6"/>
+    </row>
+    <row r="193" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN193" s="6"/>
+    </row>
+    <row r="194" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN194" s="6"/>
+    </row>
+    <row r="195" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN195" s="6"/>
+    </row>
+    <row r="196" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN196" s="6"/>
+    </row>
+    <row r="197" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN197" s="6"/>
+    </row>
+    <row r="198" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN198" s="6"/>
+    </row>
+    <row r="199" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN199" s="6"/>
+    </row>
+    <row r="200" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN200" s="6"/>
+    </row>
+    <row r="201" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN201" s="6"/>
+    </row>
+    <row r="202" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN202" s="6"/>
+    </row>
+    <row r="203" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN203" s="6"/>
+    </row>
+    <row r="204" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN204" s="6"/>
+    </row>
+    <row r="205" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN205" s="6"/>
+    </row>
+    <row r="206" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN206" s="6"/>
+    </row>
+    <row r="207" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN207" s="6"/>
+    </row>
+    <row r="208" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN208" s="6"/>
+    </row>
+    <row r="209" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN209" s="6"/>
+    </row>
+    <row r="210" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN210" s="6"/>
+    </row>
+    <row r="211" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN211" s="6"/>
+    </row>
+    <row r="212" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN212" s="6"/>
+    </row>
+    <row r="213" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN213" s="6"/>
+    </row>
+    <row r="214" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN214" s="6"/>
+    </row>
+    <row r="215" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN215" s="6"/>
+    </row>
+    <row r="216" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN216" s="6"/>
+    </row>
+    <row r="217" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN217" s="6"/>
+    </row>
+    <row r="218" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN218" s="6"/>
+    </row>
+    <row r="219" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN219" s="6"/>
+    </row>
+    <row r="220" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN220" s="6"/>
+    </row>
+    <row r="221" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN221" s="6"/>
+    </row>
+    <row r="222" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN222" s="6"/>
+    </row>
+    <row r="223" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN223" s="6"/>
+    </row>
+    <row r="224" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN224" s="6"/>
+    </row>
+    <row r="225" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN225" s="6"/>
+    </row>
+    <row r="226" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN226" s="6"/>
+    </row>
+    <row r="227" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN227" s="6"/>
+    </row>
+    <row r="228" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN228" s="6"/>
+    </row>
+    <row r="229" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN229" s="6"/>
+    </row>
+    <row r="230" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN230" s="6"/>
+    </row>
+    <row r="231" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN231" s="6"/>
+    </row>
+    <row r="232" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN232" s="6"/>
+    </row>
+    <row r="233" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN233" s="6"/>
+    </row>
+    <row r="234" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN234" s="6"/>
+    </row>
+    <row r="235" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN235" s="6"/>
+    </row>
+    <row r="236" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN236" s="6"/>
+    </row>
+    <row r="237" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN237" s="6"/>
+    </row>
+    <row r="238" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN238" s="6"/>
+    </row>
+    <row r="239" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN239" s="6"/>
+    </row>
+    <row r="240" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN240" s="6"/>
+    </row>
+    <row r="241" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN241" s="6"/>
+    </row>
+    <row r="242" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN242" s="6"/>
+    </row>
+    <row r="243" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN243" s="6"/>
+    </row>
+    <row r="244" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN244" s="6"/>
+    </row>
+    <row r="245" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN245" s="6"/>
+    </row>
+    <row r="246" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN246" s="6"/>
+    </row>
+    <row r="247" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN247" s="6"/>
+    </row>
+    <row r="248" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN248" s="6"/>
+    </row>
+    <row r="249" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN249" s="6"/>
+    </row>
+    <row r="250" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN250" s="6"/>
+    </row>
+    <row r="251" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN251" s="6"/>
+    </row>
+    <row r="252" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN252" s="6"/>
+    </row>
+    <row r="253" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN253" s="6"/>
+    </row>
+    <row r="254" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN254" s="6"/>
+    </row>
+    <row r="255" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN255" s="6"/>
+    </row>
+    <row r="256" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN256" s="6"/>
+    </row>
+    <row r="257" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN257" s="6"/>
+    </row>
+    <row r="258" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN258" s="6"/>
+    </row>
+    <row r="259" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN259" s="6"/>
+    </row>
+    <row r="260" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN260" s="6"/>
+    </row>
+    <row r="261" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN261" s="6"/>
+    </row>
+    <row r="262" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN262" s="6"/>
+    </row>
+    <row r="263" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN263" s="6"/>
+    </row>
+    <row r="264" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN264" s="6"/>
+    </row>
+    <row r="265" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN265" s="6"/>
+    </row>
+    <row r="266" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN266" s="6"/>
+    </row>
+    <row r="267" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN267" s="6"/>
+    </row>
+    <row r="268" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN268" s="6"/>
+    </row>
+    <row r="269" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN269" s="6"/>
+    </row>
+    <row r="270" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN270" s="6"/>
+    </row>
+    <row r="271" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN271" s="6"/>
+    </row>
+    <row r="272" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN272" s="6"/>
+    </row>
+    <row r="273" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN273" s="6"/>
+    </row>
+    <row r="274" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN274" s="6"/>
+    </row>
+    <row r="275" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN275" s="6"/>
+    </row>
+    <row r="276" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN276" s="6"/>
+    </row>
+    <row r="277" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN277" s="6"/>
+    </row>
+    <row r="278" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN278" s="6"/>
+    </row>
+    <row r="279" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN279" s="6"/>
+    </row>
+    <row r="280" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN280" s="6"/>
+    </row>
+    <row r="281" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN281" s="6"/>
+    </row>
+    <row r="282" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN282" s="6"/>
+    </row>
+    <row r="283" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN283" s="6"/>
+    </row>
+    <row r="284" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN284" s="6"/>
+    </row>
+    <row r="285" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN285" s="6"/>
+    </row>
+    <row r="286" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN286" s="6"/>
+    </row>
+    <row r="287" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN287" s="6"/>
+    </row>
+    <row r="288" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN288" s="6"/>
+    </row>
+    <row r="289" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN289" s="6"/>
+    </row>
+    <row r="290" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN290" s="6"/>
+    </row>
+    <row r="291" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN291" s="6"/>
+    </row>
+    <row r="292" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN292" s="6"/>
+    </row>
+    <row r="293" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN293" s="6"/>
+    </row>
+    <row r="294" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN294" s="6"/>
+    </row>
+    <row r="295" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN295" s="6"/>
+    </row>
+    <row r="296" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN296" s="6"/>
+    </row>
+    <row r="297" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN297" s="6"/>
+    </row>
+    <row r="298" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN298" s="6"/>
+    </row>
+    <row r="299" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN299" s="6"/>
+    </row>
+    <row r="300" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN300" s="6"/>
+    </row>
+    <row r="301" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN301" s="6"/>
+    </row>
+    <row r="302" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN302" s="6"/>
+    </row>
+    <row r="303" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN303" s="6"/>
+    </row>
+    <row r="304" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN304" s="6"/>
+    </row>
+    <row r="305" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN305" s="6"/>
+    </row>
+    <row r="306" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN306" s="6"/>
+    </row>
+    <row r="307" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN307" s="6"/>
+    </row>
+    <row r="308" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN308" s="6"/>
+    </row>
+    <row r="309" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN309" s="6"/>
+    </row>
+    <row r="310" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN310" s="6"/>
+    </row>
+    <row r="311" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN311" s="6"/>
+    </row>
+    <row r="312" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN312" s="6"/>
+    </row>
+    <row r="313" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN313" s="6"/>
+    </row>
+    <row r="314" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN314" s="6"/>
+    </row>
+    <row r="315" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN315" s="6"/>
+    </row>
+    <row r="316" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN316" s="6"/>
+    </row>
+    <row r="317" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN317" s="6"/>
+    </row>
+    <row r="318" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN318" s="6"/>
+    </row>
+    <row r="319" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN319" s="6"/>
+    </row>
+    <row r="320" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN320" s="6"/>
+    </row>
+    <row r="321" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN321" s="6"/>
+    </row>
+    <row r="322" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN322" s="6"/>
+    </row>
+    <row r="323" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN323" s="6"/>
+    </row>
+    <row r="324" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN324" s="6"/>
+    </row>
+    <row r="325" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN325" s="6"/>
+    </row>
+    <row r="326" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN326" s="6"/>
+    </row>
+    <row r="327" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN327" s="6"/>
+    </row>
+    <row r="328" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN328" s="6"/>
+    </row>
+    <row r="329" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN329" s="6"/>
+    </row>
+    <row r="330" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN330" s="6"/>
+    </row>
+    <row r="331" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN331" s="6"/>
+    </row>
+    <row r="332" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN332" s="6"/>
+    </row>
+    <row r="333" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN333" s="6"/>
+    </row>
+    <row r="334" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN334" s="6"/>
+    </row>
+    <row r="335" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN335" s="6"/>
+    </row>
+    <row r="336" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN336" s="6"/>
+    </row>
+    <row r="337" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN337" s="6"/>
+    </row>
+    <row r="338" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN338" s="6"/>
+    </row>
+    <row r="339" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN339" s="6"/>
+    </row>
+    <row r="340" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN340" s="6"/>
+    </row>
+    <row r="341" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN341" s="6"/>
+    </row>
+    <row r="342" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN342" s="6"/>
+    </row>
+    <row r="343" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN343" s="6"/>
+    </row>
+    <row r="344" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN344" s="6"/>
+    </row>
+    <row r="345" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN345" s="6"/>
+    </row>
+    <row r="346" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN346" s="6"/>
+    </row>
+    <row r="347" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN347" s="6"/>
+    </row>
+    <row r="348" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN348" s="6"/>
+    </row>
+    <row r="349" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN349" s="6"/>
+    </row>
+    <row r="350" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN350" s="6"/>
+    </row>
+    <row r="351" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN351" s="6"/>
+    </row>
+    <row r="352" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN352" s="6"/>
+    </row>
+    <row r="353" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN353" s="6"/>
+    </row>
+    <row r="354" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN354" s="6"/>
+    </row>
+    <row r="355" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN355" s="6"/>
+    </row>
+    <row r="356" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN356" s="6"/>
+    </row>
+    <row r="357" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN357" s="6"/>
+    </row>
+    <row r="358" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN358" s="6"/>
+    </row>
+    <row r="359" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN359" s="6"/>
+    </row>
+    <row r="360" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN360" s="6"/>
+    </row>
+    <row r="361" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN361" s="6"/>
+    </row>
+    <row r="362" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN362" s="6"/>
+    </row>
+    <row r="363" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN363" s="6"/>
+    </row>
+    <row r="364" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN364" s="6"/>
+    </row>
+    <row r="365" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN365" s="6"/>
+    </row>
+    <row r="366" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN366" s="6"/>
+    </row>
+    <row r="367" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN367" s="6"/>
+    </row>
+    <row r="368" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN368" s="6"/>
+    </row>
+    <row r="369" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN369" s="6"/>
+    </row>
+    <row r="370" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN370" s="6"/>
+    </row>
+    <row r="371" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN371" s="6"/>
+    </row>
+    <row r="372" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN372" s="6"/>
+    </row>
+    <row r="373" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN373" s="6"/>
+    </row>
+    <row r="374" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN374" s="6"/>
+    </row>
+    <row r="375" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN375" s="6"/>
+    </row>
+    <row r="376" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN376" s="6"/>
+    </row>
+    <row r="377" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN377" s="6"/>
+    </row>
+    <row r="378" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN378" s="6"/>
+    </row>
+    <row r="379" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN379" s="6"/>
+    </row>
+    <row r="380" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN380" s="6"/>
+    </row>
+    <row r="381" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN381" s="6"/>
+    </row>
+    <row r="382" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN382" s="6"/>
+    </row>
+    <row r="383" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN383" s="6"/>
+    </row>
+    <row r="384" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN384" s="6"/>
+    </row>
+    <row r="385" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN385" s="6"/>
+    </row>
+    <row r="386" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN386" s="6"/>
+    </row>
+    <row r="387" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN387" s="6"/>
+    </row>
+    <row r="388" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN388" s="6"/>
+    </row>
+    <row r="389" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN389" s="6"/>
+    </row>
+    <row r="390" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN390" s="6"/>
+    </row>
+    <row r="391" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN391" s="6"/>
+    </row>
+    <row r="392" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN392" s="6"/>
+    </row>
+    <row r="393" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN393" s="6"/>
+    </row>
+    <row r="394" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN394" s="6"/>
+    </row>
+    <row r="395" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN395" s="6"/>
+    </row>
+    <row r="396" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN396" s="6"/>
+    </row>
+    <row r="397" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN397" s="6"/>
+    </row>
+    <row r="398" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN398" s="6"/>
+    </row>
+    <row r="399" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN399" s="6"/>
+    </row>
+    <row r="400" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN400" s="6"/>
+    </row>
+    <row r="401" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN401" s="6"/>
+    </row>
+    <row r="402" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN402" s="6"/>
+    </row>
+    <row r="403" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN403" s="6"/>
+    </row>
+    <row r="404" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN404" s="6"/>
+    </row>
+    <row r="405" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN405" s="6"/>
+    </row>
+    <row r="406" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN406" s="6"/>
+    </row>
+    <row r="407" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN407" s="6"/>
+    </row>
+    <row r="408" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN408" s="6"/>
+    </row>
+    <row r="409" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN409" s="6"/>
+    </row>
+    <row r="410" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN410" s="6"/>
+    </row>
+    <row r="411" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN411" s="6"/>
+    </row>
+    <row r="412" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN412" s="6"/>
+    </row>
+    <row r="413" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN413" s="6"/>
+    </row>
+    <row r="414" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN414" s="6"/>
+    </row>
+    <row r="415" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN415" s="6"/>
+    </row>
+    <row r="416" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN416" s="6"/>
+    </row>
+    <row r="417" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN417" s="6"/>
+    </row>
+    <row r="418" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN418" s="6"/>
+    </row>
+    <row r="419" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN419" s="6"/>
+    </row>
+    <row r="420" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN420" s="6"/>
+    </row>
+    <row r="421" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN421" s="6"/>
+    </row>
+    <row r="422" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN422" s="6"/>
+    </row>
+    <row r="423" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN423" s="6"/>
+    </row>
+    <row r="424" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN424" s="6"/>
+    </row>
+    <row r="425" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN425" s="6"/>
+    </row>
+    <row r="426" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN426" s="6"/>
+    </row>
+    <row r="427" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN427" s="6"/>
+    </row>
+    <row r="428" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN428" s="6"/>
+    </row>
+    <row r="429" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN429" s="6"/>
+    </row>
+    <row r="430" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN430" s="6"/>
+    </row>
+    <row r="431" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN431" s="6"/>
+    </row>
+    <row r="432" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN432" s="6"/>
+    </row>
+    <row r="433" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN433" s="6"/>
+    </row>
+    <row r="434" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN434" s="6"/>
+    </row>
+    <row r="435" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN435" s="6"/>
+    </row>
+    <row r="436" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN436" s="6"/>
+    </row>
+    <row r="437" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN437" s="6"/>
+    </row>
+    <row r="438" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN438" s="6"/>
+    </row>
+    <row r="439" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN439" s="6"/>
+    </row>
+    <row r="440" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN440" s="6"/>
+    </row>
+    <row r="441" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN441" s="6"/>
+    </row>
+    <row r="442" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN442" s="6"/>
+    </row>
+    <row r="443" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN443" s="6"/>
+    </row>
+    <row r="444" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN444" s="6"/>
+    </row>
+    <row r="445" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN445" s="6"/>
+    </row>
+    <row r="446" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN446" s="6"/>
+    </row>
+    <row r="447" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN447" s="6"/>
+    </row>
+    <row r="448" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN448" s="6"/>
+    </row>
+    <row r="449" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN449" s="6"/>
+    </row>
+    <row r="450" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN450" s="6"/>
+    </row>
+    <row r="451" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN451" s="6"/>
+    </row>
+    <row r="452" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN452" s="6"/>
+    </row>
+    <row r="453" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN453" s="6"/>
+    </row>
+    <row r="454" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN454" s="6"/>
+    </row>
+    <row r="455" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN455" s="6"/>
+    </row>
+    <row r="456" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN456" s="6"/>
+    </row>
+    <row r="457" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN457" s="6"/>
+    </row>
+    <row r="458" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN458" s="6"/>
+    </row>
+    <row r="459" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN459" s="6"/>
+    </row>
+    <row r="460" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN460" s="6"/>
+    </row>
+    <row r="461" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN461" s="6"/>
+    </row>
+    <row r="462" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN462" s="6"/>
+    </row>
+    <row r="463" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN463" s="6"/>
+    </row>
+    <row r="464" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN464" s="6"/>
+    </row>
+    <row r="465" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN465" s="6"/>
+    </row>
+    <row r="466" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN466" s="6"/>
+    </row>
+    <row r="467" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN467" s="6"/>
+    </row>
+    <row r="468" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN468" s="6"/>
+    </row>
+    <row r="469" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN469" s="6"/>
+    </row>
+    <row r="470" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN470" s="6"/>
+    </row>
+    <row r="471" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN471" s="6"/>
+    </row>
+    <row r="472" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN472" s="6"/>
+    </row>
+    <row r="473" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN473" s="6"/>
+    </row>
+    <row r="474" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN474" s="6"/>
+    </row>
+    <row r="475" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN475" s="6"/>
+    </row>
+    <row r="476" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN476" s="6"/>
+    </row>
+    <row r="477" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN477" s="6"/>
+    </row>
+    <row r="478" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN478" s="6"/>
+    </row>
+    <row r="479" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN479" s="6"/>
+    </row>
+    <row r="480" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN480" s="6"/>
+    </row>
+    <row r="481" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN481" s="6"/>
+    </row>
+    <row r="482" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN482" s="6"/>
+    </row>
+    <row r="483" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN483" s="6"/>
+    </row>
+    <row r="484" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN484" s="6"/>
+    </row>
+    <row r="485" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN485" s="6"/>
+    </row>
+    <row r="486" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN486" s="6"/>
+    </row>
+    <row r="487" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN487" s="6"/>
+    </row>
+    <row r="488" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN488" s="6"/>
+    </row>
+    <row r="489" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN489" s="6"/>
+    </row>
+    <row r="490" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN490" s="6"/>
+    </row>
+    <row r="491" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN491" s="6"/>
+    </row>
+    <row r="492" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN492" s="6"/>
+    </row>
+    <row r="493" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN493" s="6"/>
+    </row>
+    <row r="494" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN494" s="6"/>
+    </row>
+    <row r="495" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN495" s="6"/>
+    </row>
+    <row r="496" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN496" s="6"/>
+    </row>
+    <row r="497" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN497" s="6"/>
+    </row>
+    <row r="498" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN498" s="6"/>
+    </row>
+    <row r="499" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN499" s="6"/>
+    </row>
+    <row r="500" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN500" s="6"/>
+    </row>
+    <row r="501" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN501" s="6"/>
+    </row>
+    <row r="502" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN502" s="6"/>
+    </row>
+    <row r="503" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN503" s="6"/>
+    </row>
+    <row r="504" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN504" s="6"/>
+    </row>
+    <row r="505" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN505" s="6"/>
+    </row>
+    <row r="506" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN506" s="6"/>
+    </row>
+    <row r="507" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN507" s="6"/>
+    </row>
+    <row r="508" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN508" s="6"/>
+    </row>
+    <row r="509" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN509" s="6"/>
+    </row>
+    <row r="510" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN510" s="6"/>
+    </row>
+    <row r="511" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN511" s="6"/>
+    </row>
+    <row r="512" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN512" s="6"/>
+    </row>
+    <row r="513" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN513" s="6"/>
+    </row>
+    <row r="514" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN514" s="6"/>
+    </row>
+    <row r="515" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN515" s="6"/>
+    </row>
+    <row r="516" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN516" s="6"/>
+    </row>
+    <row r="517" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN517" s="6"/>
+    </row>
+    <row r="518" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN518" s="6"/>
+    </row>
+    <row r="519" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN519" s="6"/>
+    </row>
+    <row r="520" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN520" s="6"/>
+    </row>
+    <row r="521" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN521" s="6"/>
+    </row>
+    <row r="522" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN522" s="6"/>
+    </row>
+    <row r="523" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN523" s="6"/>
+    </row>
+    <row r="524" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN524" s="6"/>
+    </row>
+    <row r="525" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN525" s="6"/>
+    </row>
+    <row r="526" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN526" s="6"/>
+    </row>
+    <row r="527" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN527" s="6"/>
+    </row>
+    <row r="528" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN528" s="6"/>
+    </row>
+    <row r="529" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN529" s="6"/>
+    </row>
+    <row r="530" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN530" s="6"/>
+    </row>
+    <row r="531" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN531" s="6"/>
+    </row>
+    <row r="532" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN532" s="6"/>
+    </row>
+    <row r="533" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN533" s="6"/>
+    </row>
+    <row r="534" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN534" s="6"/>
+    </row>
+    <row r="535" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN535" s="6"/>
+    </row>
+    <row r="536" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN536" s="6"/>
+    </row>
+    <row r="537" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN537" s="6"/>
+    </row>
+    <row r="538" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN538" s="6"/>
+    </row>
+    <row r="539" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN539" s="6"/>
+    </row>
+    <row r="540" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN540" s="6"/>
+    </row>
+    <row r="541" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN541" s="6"/>
+    </row>
+    <row r="542" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN542" s="6"/>
+    </row>
+    <row r="543" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN543" s="6"/>
+    </row>
+    <row r="544" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN544" s="6"/>
+    </row>
+    <row r="545" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN545" s="6"/>
+    </row>
+    <row r="546" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN546" s="6"/>
+    </row>
+    <row r="547" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN547" s="6"/>
+    </row>
+    <row r="548" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN548" s="6"/>
+    </row>
+    <row r="549" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN549" s="6"/>
+    </row>
+    <row r="550" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN550" s="6"/>
+    </row>
+    <row r="551" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN551" s="6"/>
+    </row>
+    <row r="552" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN552" s="6"/>
+    </row>
+    <row r="553" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN553" s="6"/>
+    </row>
+    <row r="554" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN554" s="6"/>
+    </row>
+    <row r="555" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN555" s="6"/>
+    </row>
+    <row r="556" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN556" s="6"/>
+    </row>
+    <row r="557" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN557" s="6"/>
+    </row>
+    <row r="558" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN558" s="6"/>
+    </row>
+    <row r="559" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN559" s="6"/>
+    </row>
+    <row r="560" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN560" s="6"/>
+    </row>
+    <row r="561" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN561" s="6"/>
+    </row>
+    <row r="562" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN562" s="6"/>
+    </row>
+    <row r="563" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN563" s="6"/>
+    </row>
+    <row r="564" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN564" s="6"/>
+    </row>
+    <row r="565" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN565" s="6"/>
+    </row>
+    <row r="566" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN566" s="6"/>
+    </row>
+    <row r="567" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN567" s="6"/>
+    </row>
+    <row r="568" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN568" s="6"/>
+    </row>
+    <row r="569" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN569" s="6"/>
+    </row>
+    <row r="570" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN570" s="6"/>
+    </row>
+    <row r="571" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN571" s="6"/>
+    </row>
+    <row r="572" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN572" s="6"/>
+    </row>
+    <row r="573" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN573" s="6"/>
+    </row>
+    <row r="574" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN574" s="6"/>
+    </row>
+    <row r="575" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN575" s="6"/>
+    </row>
+    <row r="576" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN576" s="6"/>
+    </row>
+    <row r="577" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN577" s="6"/>
+    </row>
+    <row r="578" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN578" s="6"/>
+    </row>
+    <row r="579" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN579" s="6"/>
+    </row>
+    <row r="580" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN580" s="6"/>
+    </row>
+    <row r="581" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN581" s="6"/>
+    </row>
+    <row r="582" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN582" s="6"/>
+    </row>
+    <row r="583" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN583" s="6"/>
+    </row>
+    <row r="584" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN584" s="6"/>
+    </row>
+    <row r="585" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN585" s="6"/>
+    </row>
+    <row r="586" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN586" s="6"/>
+    </row>
+    <row r="587" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN587" s="6"/>
+    </row>
+    <row r="588" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN588" s="6"/>
+    </row>
+    <row r="589" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN589" s="6"/>
+    </row>
+    <row r="590" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN590" s="6"/>
+    </row>
+    <row r="591" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN591" s="6"/>
+    </row>
+    <row r="592" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN592" s="6"/>
+    </row>
+    <row r="593" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN593" s="6"/>
+    </row>
+    <row r="594" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN594" s="6"/>
+    </row>
+    <row r="595" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN595" s="6"/>
+    </row>
+    <row r="596" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN596" s="6"/>
+    </row>
+    <row r="597" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN597" s="6"/>
+    </row>
+    <row r="598" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN598" s="6"/>
+    </row>
+    <row r="599" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN599" s="6"/>
+    </row>
+    <row r="600" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN600" s="6"/>
+    </row>
+    <row r="601" spans="66:66" x14ac:dyDescent="0.3">
+      <c r="BN601" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/HistFlowMassConcAnn.xlsx
+++ b/data/HistFlowMassConcAnn.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfelletter\Documents\RW-RDF-Process-Plot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C13C0-97F7-4F1A-AE4C-A18044AA57FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B13609C-2809-4688-9DA0-26F9638E7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59F0FA27-635D-4EC0-813F-B52CA9E5C405}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59F0FA27-635D-4EC0-813F-B52CA9E5C405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,6 +35,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FC76F462-2E90-4330-A0E9-0F650F6597C0}</author>
+  </authors>
+  <commentList>
+    <comment ref="V13" authorId="0" shapeId="0" xr:uid="{FC76F462-2E90-4330-A0E9-0F650F6597C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    There is an issue with the data from SLOAD, the 2011-2012 is messed up. Mark is looking into it. This is the sum of the LC gage.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -250,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +288,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -290,6 +315,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,21 +418,6 @@
           <cell r="U80">
             <v>8655796</v>
           </cell>
-          <cell r="V80">
-            <v>9065665</v>
-          </cell>
-          <cell r="W80">
-            <v>110901</v>
-          </cell>
-          <cell r="X80">
-            <v>10692374</v>
-          </cell>
-          <cell r="Y80">
-            <v>7895680</v>
-          </cell>
-          <cell r="Z80">
-            <v>6509232</v>
-          </cell>
         </row>
         <row r="81">
           <cell r="A81">
@@ -457,21 +468,6 @@
           <cell r="U81">
             <v>8090783</v>
           </cell>
-          <cell r="V81">
-            <v>8504609</v>
-          </cell>
-          <cell r="W81">
-            <v>103534</v>
-          </cell>
-          <cell r="X81">
-            <v>10209550</v>
-          </cell>
-          <cell r="Y81">
-            <v>7699451</v>
-          </cell>
-          <cell r="Z81">
-            <v>6097241</v>
-          </cell>
         </row>
         <row r="82">
           <cell r="A82">
@@ -522,21 +518,6 @@
           <cell r="U82">
             <v>7912550</v>
           </cell>
-          <cell r="V82">
-            <v>8215598</v>
-          </cell>
-          <cell r="W82">
-            <v>77081</v>
-          </cell>
-          <cell r="X82">
-            <v>10447813</v>
-          </cell>
-          <cell r="Y82">
-            <v>7565419</v>
-          </cell>
-          <cell r="Z82">
-            <v>6140916</v>
-          </cell>
         </row>
         <row r="83">
           <cell r="A83">
@@ -587,21 +568,6 @@
           <cell r="U83">
             <v>8365822</v>
           </cell>
-          <cell r="V83">
-            <v>8688617</v>
-          </cell>
-          <cell r="W83">
-            <v>78503</v>
-          </cell>
-          <cell r="X83">
-            <v>9381874</v>
-          </cell>
-          <cell r="Y83">
-            <v>7303335</v>
-          </cell>
-          <cell r="Z83">
-            <v>5775140</v>
-          </cell>
         </row>
         <row r="84">
           <cell r="A84">
@@ -652,21 +618,6 @@
           <cell r="U84">
             <v>8557930</v>
           </cell>
-          <cell r="V84">
-            <v>8976822</v>
-          </cell>
-          <cell r="W84">
-            <v>131876</v>
-          </cell>
-          <cell r="X84">
-            <v>9345461</v>
-          </cell>
-          <cell r="Y84">
-            <v>6779789</v>
-          </cell>
-          <cell r="Z84">
-            <v>5528967</v>
-          </cell>
         </row>
         <row r="85">
           <cell r="A85">
@@ -717,21 +668,6 @@
           <cell r="U85">
             <v>8431731</v>
           </cell>
-          <cell r="V85">
-            <v>9040711</v>
-          </cell>
-          <cell r="W85">
-            <v>565810</v>
-          </cell>
-          <cell r="X85">
-            <v>8274646</v>
-          </cell>
-          <cell r="Y85">
-            <v>6370120</v>
-          </cell>
-          <cell r="Z85">
-            <v>5270598</v>
-          </cell>
         </row>
         <row r="86">
           <cell r="A86">
@@ -782,21 +718,6 @@
           <cell r="U86">
             <v>8676794</v>
           </cell>
-          <cell r="V86">
-            <v>9098803</v>
-          </cell>
-          <cell r="W86">
-            <v>157055</v>
-          </cell>
-          <cell r="X86">
-            <v>9259950</v>
-          </cell>
-          <cell r="Y86">
-            <v>6592938</v>
-          </cell>
-          <cell r="Z86">
-            <v>5672989</v>
-          </cell>
         </row>
         <row r="87">
           <cell r="A87">
@@ -847,21 +768,6 @@
           <cell r="U87">
             <v>8365968</v>
           </cell>
-          <cell r="V87">
-            <v>8840828</v>
-          </cell>
-          <cell r="W87">
-            <v>105398</v>
-          </cell>
-          <cell r="X87">
-            <v>9362637</v>
-          </cell>
-          <cell r="Y87">
-            <v>6565027</v>
-          </cell>
-          <cell r="Z87">
-            <v>5673094</v>
-          </cell>
         </row>
         <row r="88">
           <cell r="A88">
@@ -912,21 +818,6 @@
           <cell r="U88">
             <v>9313839</v>
           </cell>
-          <cell r="V88">
-            <v>9800340</v>
-          </cell>
-          <cell r="W88">
-            <v>103354</v>
-          </cell>
-          <cell r="X88">
-            <v>9540895</v>
-          </cell>
-          <cell r="Y88">
-            <v>6848048</v>
-          </cell>
-          <cell r="Z88">
-            <v>5672660</v>
-          </cell>
         </row>
         <row r="89">
           <cell r="A89">
@@ -977,21 +868,6 @@
           <cell r="U89">
             <v>8466135</v>
           </cell>
-          <cell r="V89">
-            <v>8890543</v>
-          </cell>
-          <cell r="W89">
-            <v>88693</v>
-          </cell>
-          <cell r="X89">
-            <v>9481070</v>
-          </cell>
-          <cell r="Y89">
-            <v>6535570</v>
-          </cell>
-          <cell r="Z89">
-            <v>5407376</v>
-          </cell>
         </row>
         <row r="90">
           <cell r="A90">
@@ -1042,21 +918,6 @@
           <cell r="U90">
             <v>8351825</v>
           </cell>
-          <cell r="V90">
-            <v>8889880</v>
-          </cell>
-          <cell r="W90">
-            <v>284473</v>
-          </cell>
-          <cell r="X90">
-            <v>9452548</v>
-          </cell>
-          <cell r="Y90">
-            <v>6451901</v>
-          </cell>
-          <cell r="Z90">
-            <v>5479000</v>
-          </cell>
         </row>
         <row r="91">
           <cell r="A91">
@@ -1107,21 +968,6 @@
           <cell r="U91">
             <v>13844356</v>
           </cell>
-          <cell r="V91">
-            <v>14237446</v>
-          </cell>
-          <cell r="W91">
-            <v>272921</v>
-          </cell>
-          <cell r="X91">
-            <v>9207507</v>
-          </cell>
-          <cell r="Y91">
-            <v>6686897</v>
-          </cell>
-          <cell r="Z91">
-            <v>6686897</v>
-          </cell>
         </row>
         <row r="92">
           <cell r="A92">
@@ -1172,21 +1018,6 @@
           <cell r="U92">
             <v>8248261</v>
           </cell>
-          <cell r="V92">
-            <v>8611920</v>
-          </cell>
-          <cell r="W92">
-            <v>122103</v>
-          </cell>
-          <cell r="X92">
-            <v>9386795</v>
-          </cell>
-          <cell r="Y92">
-            <v>6646432</v>
-          </cell>
-          <cell r="Z92">
-            <v>6636677</v>
-          </cell>
         </row>
         <row r="93">
           <cell r="A93">
@@ -1237,21 +1068,6 @@
           <cell r="U93">
             <v>8008293</v>
           </cell>
-          <cell r="V93">
-            <v>8501941</v>
-          </cell>
-          <cell r="W93">
-            <v>111572</v>
-          </cell>
-          <cell r="X93">
-            <v>9375806</v>
-          </cell>
-          <cell r="Y93">
-            <v>6335191</v>
-          </cell>
-          <cell r="Z93">
-            <v>5311384</v>
-          </cell>
         </row>
         <row r="94">
           <cell r="A94">
@@ -1302,21 +1118,6 @@
           <cell r="U94">
             <v>8066266</v>
           </cell>
-          <cell r="V94">
-            <v>8438780</v>
-          </cell>
-          <cell r="W94">
-            <v>104903</v>
-          </cell>
-          <cell r="X94">
-            <v>9615156</v>
-          </cell>
-          <cell r="Y94">
-            <v>6302810</v>
-          </cell>
-          <cell r="Z94">
-            <v>5472565</v>
-          </cell>
         </row>
         <row r="95">
           <cell r="A95">
@@ -1367,21 +1168,6 @@
           <cell r="U95">
             <v>8918927</v>
           </cell>
-          <cell r="V95">
-            <v>9321596</v>
-          </cell>
-          <cell r="W95">
-            <v>93311</v>
-          </cell>
-          <cell r="X95">
-            <v>9413492</v>
-          </cell>
-          <cell r="Y95">
-            <v>6370329</v>
-          </cell>
-          <cell r="Z95">
-            <v>5360230</v>
-          </cell>
         </row>
         <row r="96">
           <cell r="A96">
@@ -1432,21 +1218,6 @@
           <cell r="U96">
             <v>9339231</v>
           </cell>
-          <cell r="V96">
-            <v>9738628</v>
-          </cell>
-          <cell r="W96">
-            <v>117856</v>
-          </cell>
-          <cell r="X96">
-            <v>9276628</v>
-          </cell>
-          <cell r="Y96">
-            <v>6394845</v>
-          </cell>
-          <cell r="Z96">
-            <v>5408231</v>
-          </cell>
         </row>
         <row r="97">
           <cell r="A97">
@@ -1497,21 +1268,6 @@
           <cell r="U97">
             <v>8861425</v>
           </cell>
-          <cell r="V97">
-            <v>9300493</v>
-          </cell>
-          <cell r="W97">
-            <v>157535</v>
-          </cell>
-          <cell r="X97">
-            <v>8731564</v>
-          </cell>
-          <cell r="Y97">
-            <v>6421363</v>
-          </cell>
-          <cell r="Z97">
-            <v>5350274</v>
-          </cell>
         </row>
         <row r="98">
           <cell r="A98">
@@ -1562,21 +1318,6 @@
           <cell r="U98">
             <v>9234721</v>
           </cell>
-          <cell r="V98">
-            <v>9627472</v>
-          </cell>
-          <cell r="W98">
-            <v>91523</v>
-          </cell>
-          <cell r="X98">
-            <v>9116167</v>
-          </cell>
-          <cell r="Y98">
-            <v>6514052</v>
-          </cell>
-          <cell r="Z98">
-            <v>5317008</v>
-          </cell>
         </row>
         <row r="99">
           <cell r="A99">
@@ -1626,21 +1367,6 @@
           </cell>
           <cell r="U99">
             <v>9197627</v>
-          </cell>
-          <cell r="V99">
-            <v>9693783</v>
-          </cell>
-          <cell r="W99">
-            <v>231863</v>
-          </cell>
-          <cell r="X99">
-            <v>8515562</v>
-          </cell>
-          <cell r="Y99">
-            <v>6258339</v>
-          </cell>
-          <cell r="Z99">
-            <v>5290491</v>
           </cell>
         </row>
       </sheetData>
@@ -4129,10 +3855,389 @@
         </row>
       </sheetData>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="CompareUSGS,LCHDB,GL"/>
+      <sheetName val="NFvsGLdatasources"/>
+      <sheetName val="lchdb2Data"/>
+      <sheetName val="ExcelToRW"/>
+      <sheetName val="OldData"/>
+      <sheetName val="%Diff"/>
+      <sheetName val="Compare"/>
+      <sheetName val="CompareAnn"/>
+      <sheetName val="SLOADflow"/>
+      <sheetName val="CompareSLOAD"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="32">
+          <cell r="E32">
+            <v>9099265.1691899989</v>
+          </cell>
+          <cell r="F32">
+            <v>111272.86347</v>
+          </cell>
+          <cell r="G32">
+            <v>10675984.840129999</v>
+          </cell>
+          <cell r="J32">
+            <v>7616896.2292449996</v>
+          </cell>
+          <cell r="K32">
+            <v>6525416.1468600007</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>8526233.8423900008</v>
+          </cell>
+          <cell r="F33">
+            <v>103699.27877000002</v>
+          </cell>
+          <cell r="G33">
+            <v>10205835.72631</v>
+          </cell>
+          <cell r="J33">
+            <v>7087490.3194419993</v>
+          </cell>
+          <cell r="K33">
+            <v>6115743.2897799993</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>8238587.5492199995</v>
+          </cell>
+          <cell r="F34">
+            <v>77310.595820000002</v>
+          </cell>
+          <cell r="G34">
+            <v>10442237.66148</v>
+          </cell>
+          <cell r="J34">
+            <v>7247326.1708239997</v>
+          </cell>
+          <cell r="K34">
+            <v>6152645.7797899991</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>8705518.4126199987</v>
+          </cell>
+          <cell r="F35">
+            <v>78757.190260000003</v>
+          </cell>
+          <cell r="G35">
+            <v>9365253.7418300007</v>
+          </cell>
+          <cell r="J35">
+            <v>6819441.9758599978</v>
+          </cell>
+          <cell r="K35">
+            <v>5778762.0748699997</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>9007615.7405500002</v>
+          </cell>
+          <cell r="F36">
+            <v>132408.23578999998</v>
+          </cell>
+          <cell r="G36">
+            <v>9345125.5607100017</v>
+          </cell>
+          <cell r="J36">
+            <v>6552708.2606699998</v>
+          </cell>
+          <cell r="K36">
+            <v>5538394.0686800005</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>9058094.2209699992</v>
+          </cell>
+          <cell r="F37">
+            <v>569639.71924000001</v>
+          </cell>
+          <cell r="G37">
+            <v>8275510.1789799994</v>
+          </cell>
+          <cell r="J37">
+            <v>6185430.7238099994</v>
+          </cell>
+          <cell r="K37">
+            <v>5283846.8035200005</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>9141791.1414199993</v>
+          </cell>
+          <cell r="F38">
+            <v>157231.50154000003</v>
+          </cell>
+          <cell r="G38">
+            <v>9260297.2726699989</v>
+          </cell>
+          <cell r="J38">
+            <v>6721389.7854499994</v>
+          </cell>
+          <cell r="K38">
+            <v>5684221.2210200001</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>8818509.7916700002</v>
+          </cell>
+          <cell r="F39">
+            <v>104941.36967000001</v>
+          </cell>
+          <cell r="G39">
+            <v>9362972.6949199997</v>
+          </cell>
+          <cell r="J39">
+            <v>6711345.4026200008</v>
+          </cell>
+          <cell r="K39">
+            <v>5647591.9411899997</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>9761814.9459099993</v>
+          </cell>
+          <cell r="F40">
+            <v>103210.45990000002</v>
+          </cell>
+          <cell r="G40">
+            <v>9545338.8429499995</v>
+          </cell>
+          <cell r="J40">
+            <v>6698509.2752799997</v>
+          </cell>
+          <cell r="K40">
+            <v>5655507.1254700003</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>8859876.7719000001</v>
+          </cell>
+          <cell r="F41">
+            <v>88476.758189999993</v>
+          </cell>
+          <cell r="G41">
+            <v>9480056.28101</v>
+          </cell>
+          <cell r="J41">
+            <v>6389984.0838800007</v>
+          </cell>
+          <cell r="K41">
+            <v>5376293.6359999999</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>8868191.2632999998</v>
+          </cell>
+          <cell r="F42">
+            <v>279804.10966000002</v>
+          </cell>
+          <cell r="G42">
+            <v>9450794.0288699996</v>
+          </cell>
+          <cell r="J42">
+            <v>6371203.6910100002</v>
+          </cell>
+          <cell r="K42">
+            <v>5388080.2757400004</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>14197605.51471</v>
+          </cell>
+          <cell r="F43">
+            <v>271506.04135999997</v>
+          </cell>
+          <cell r="G43">
+            <v>9206305.1891099978</v>
+          </cell>
+          <cell r="J43">
+            <v>6714205.950389999</v>
+          </cell>
+          <cell r="K43">
+            <v>5694961.7777900007</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>8591033.8576400001</v>
+          </cell>
+          <cell r="F44">
+            <v>121515.10162999999</v>
+          </cell>
+          <cell r="G44">
+            <v>9388443.7823100016</v>
+          </cell>
+          <cell r="J44">
+            <v>6711596.9608499995</v>
+          </cell>
+          <cell r="K44">
+            <v>5697381.3327899985</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>8485015.4549299981</v>
+          </cell>
+          <cell r="F45">
+            <v>111391.07192999999</v>
+          </cell>
+          <cell r="G45">
+            <v>9375282.3967000004</v>
+          </cell>
+          <cell r="J45">
+            <v>6335016.2650700007</v>
+          </cell>
+          <cell r="K45">
+            <v>5288892.6686399998</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>8424521.0953299999</v>
+          </cell>
+          <cell r="F46">
+            <v>104726.67175000001</v>
+          </cell>
+          <cell r="G46">
+            <v>9614840.053270001</v>
+          </cell>
+          <cell r="J46">
+            <v>6455041.1866299994</v>
+          </cell>
+          <cell r="K46">
+            <v>5442456.5639599999</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>9293467.7076600008</v>
+          </cell>
+          <cell r="F47">
+            <v>92729.762810000015</v>
+          </cell>
+          <cell r="G47">
+            <v>9414000.1577400006</v>
+          </cell>
+          <cell r="J47">
+            <v>6276298.9256199989</v>
+          </cell>
+          <cell r="K47">
+            <v>5337246.3571800003</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>9711319.3245100006</v>
+          </cell>
+          <cell r="F48">
+            <v>117433.74210999999</v>
+          </cell>
+          <cell r="G48">
+            <v>9275997.1192100011</v>
+          </cell>
+          <cell r="J48">
+            <v>6306620.2038499992</v>
+          </cell>
+          <cell r="K48">
+            <v>5390831.20089</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>9282917.5610100012</v>
+          </cell>
+          <cell r="F49">
+            <v>157595.64811000001</v>
+          </cell>
+          <cell r="G49">
+            <v>8730094.1071700007</v>
+          </cell>
+          <cell r="J49">
+            <v>6255600.3214400001</v>
+          </cell>
+          <cell r="K49">
+            <v>5322419.2024899991</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>9601879.6816199999</v>
+          </cell>
+          <cell r="F50">
+            <v>90888.288840000008</v>
+          </cell>
+          <cell r="G50">
+            <v>9116380.8263399992</v>
+          </cell>
+          <cell r="J50">
+            <v>6285863.0131900003</v>
+          </cell>
+          <cell r="K50">
+            <v>5299418.11326</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>9665853.0220599994</v>
+          </cell>
+          <cell r="F51">
+            <v>228779.38485</v>
+          </cell>
+          <cell r="G51">
+            <v>8514583.2208200004</v>
+          </cell>
+          <cell r="J51">
+            <v>6151099.7816900006</v>
+          </cell>
+          <cell r="K51">
+            <v>5267245.3898</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Felletter, Conor K" id="{2792CE45-4317-4272-AD2D-215EEF504979}" userId="S::cfelletter@usbr.gov::14313ab9-1851-4d68-a9d7-35713d567140" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4430,17 +4535,25 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="V13" dT="2022-08-17T21:56:55.73" personId="{2792CE45-4317-4272-AD2D-215EEF504979}" id="{FC76F462-2E90-4330-A0E9-0F650F6597C0}">
+    <text>There is an issue with the data from SLOAD, the 2011-2012 is messed up. Mark is looking into it. This is the sum of the LC gage.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CB55C4-5E51-4C62-9A91-E4779496D8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CB55C4-5E51-4C62-9A91-E4779496D8F0}">
   <dimension ref="A1:BN601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1:BM1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R2:U21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4638,7 +4751,7 @@
       </c>
       <c r="BN1" s="6"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>[1]annualCYFlow!A80</f>
         <v>2000</v>
@@ -4706,25 +4819,25 @@
         <f>[1]annualCYFlow!$U80</f>
         <v>8655796</v>
       </c>
-      <c r="R2" s="3">
-        <f>[1]annualCYFlow!$V80</f>
-        <v>9065665</v>
-      </c>
-      <c r="S2" s="3">
-        <f>[1]annualCYFlow!$W80</f>
-        <v>110901</v>
-      </c>
-      <c r="T2" s="3">
-        <f>[1]annualCYFlow!$X80</f>
-        <v>10692374</v>
-      </c>
-      <c r="U2" s="3">
-        <f>[1]annualCYFlow!$Y80</f>
-        <v>7895680</v>
-      </c>
-      <c r="V2" s="3">
-        <f>[1]annualCYFlow!$Z80</f>
-        <v>6509232</v>
+      <c r="R2" s="7">
+        <f ca="1">[2]CompareAnn!E32</f>
+        <v>9099265.1691899989</v>
+      </c>
+      <c r="S2" s="7">
+        <f ca="1">[2]CompareAnn!F32</f>
+        <v>111272.86347</v>
+      </c>
+      <c r="T2" s="7">
+        <f ca="1">[2]CompareAnn!G32</f>
+        <v>10675984.840129999</v>
+      </c>
+      <c r="U2" s="7">
+        <f ca="1">[2]CompareAnn!J32</f>
+        <v>7616896.2292449996</v>
+      </c>
+      <c r="V2" s="7">
+        <f ca="1">[2]CompareAnn!K32</f>
+        <v>6525416.1468600007</v>
       </c>
       <c r="W2" s="3">
         <f>[1]annualCYSaltMass!$B80</f>
@@ -4897,7 +5010,7 @@
       </c>
       <c r="BN2" s="6"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>[1]annualCYFlow!A81</f>
         <v>2001</v>
@@ -4965,25 +5078,25 @@
         <f>[1]annualCYFlow!$U81</f>
         <v>8090783</v>
       </c>
-      <c r="R3" s="3">
-        <f>[1]annualCYFlow!$V81</f>
-        <v>8504609</v>
-      </c>
-      <c r="S3" s="3">
-        <f>[1]annualCYFlow!$W81</f>
-        <v>103534</v>
-      </c>
-      <c r="T3" s="3">
-        <f>[1]annualCYFlow!$X81</f>
-        <v>10209550</v>
-      </c>
-      <c r="U3" s="3">
-        <f>[1]annualCYFlow!$Y81</f>
-        <v>7699451</v>
-      </c>
-      <c r="V3" s="3">
-        <f>[1]annualCYFlow!$Z81</f>
-        <v>6097241</v>
+      <c r="R3" s="7">
+        <f ca="1">[2]CompareAnn!E33</f>
+        <v>8526233.8423900008</v>
+      </c>
+      <c r="S3" s="7">
+        <f ca="1">[2]CompareAnn!F33</f>
+        <v>103699.27877000002</v>
+      </c>
+      <c r="T3" s="7">
+        <f ca="1">[2]CompareAnn!G33</f>
+        <v>10205835.72631</v>
+      </c>
+      <c r="U3" s="7">
+        <f ca="1">[2]CompareAnn!J33</f>
+        <v>7087490.3194419993</v>
+      </c>
+      <c r="V3" s="7">
+        <f ca="1">[2]CompareAnn!K33</f>
+        <v>6115743.2897799993</v>
       </c>
       <c r="W3" s="3">
         <f>[1]annualCYSaltMass!$B81</f>
@@ -5156,7 +5269,7 @@
       </c>
       <c r="BN3" s="6"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>[1]annualCYFlow!A82</f>
         <v>2002</v>
@@ -5224,25 +5337,25 @@
         <f>[1]annualCYFlow!$U82</f>
         <v>7912550</v>
       </c>
-      <c r="R4" s="3">
-        <f>[1]annualCYFlow!$V82</f>
-        <v>8215598</v>
-      </c>
-      <c r="S4" s="3">
-        <f>[1]annualCYFlow!$W82</f>
-        <v>77081</v>
-      </c>
-      <c r="T4" s="3">
-        <f>[1]annualCYFlow!$X82</f>
-        <v>10447813</v>
-      </c>
-      <c r="U4" s="3">
-        <f>[1]annualCYFlow!$Y82</f>
-        <v>7565419</v>
-      </c>
-      <c r="V4" s="3">
-        <f>[1]annualCYFlow!$Z82</f>
-        <v>6140916</v>
+      <c r="R4" s="7">
+        <f ca="1">[2]CompareAnn!E34</f>
+        <v>8238587.5492199995</v>
+      </c>
+      <c r="S4" s="7">
+        <f ca="1">[2]CompareAnn!F34</f>
+        <v>77310.595820000002</v>
+      </c>
+      <c r="T4" s="7">
+        <f ca="1">[2]CompareAnn!G34</f>
+        <v>10442237.66148</v>
+      </c>
+      <c r="U4" s="7">
+        <f ca="1">[2]CompareAnn!J34</f>
+        <v>7247326.1708239997</v>
+      </c>
+      <c r="V4" s="7">
+        <f ca="1">[2]CompareAnn!K34</f>
+        <v>6152645.7797899991</v>
       </c>
       <c r="W4" s="3">
         <f>[1]annualCYSaltMass!$B82</f>
@@ -5415,7 +5528,7 @@
       </c>
       <c r="BN4" s="6"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>[1]annualCYFlow!A83</f>
         <v>2003</v>
@@ -5483,25 +5596,25 @@
         <f>[1]annualCYFlow!$U83</f>
         <v>8365822</v>
       </c>
-      <c r="R5" s="3">
-        <f>[1]annualCYFlow!$V83</f>
-        <v>8688617</v>
-      </c>
-      <c r="S5" s="3">
-        <f>[1]annualCYFlow!$W83</f>
-        <v>78503</v>
-      </c>
-      <c r="T5" s="3">
-        <f>[1]annualCYFlow!$X83</f>
-        <v>9381874</v>
-      </c>
-      <c r="U5" s="3">
-        <f>[1]annualCYFlow!$Y83</f>
-        <v>7303335</v>
-      </c>
-      <c r="V5" s="3">
-        <f>[1]annualCYFlow!$Z83</f>
-        <v>5775140</v>
+      <c r="R5" s="7">
+        <f ca="1">[2]CompareAnn!E35</f>
+        <v>8705518.4126199987</v>
+      </c>
+      <c r="S5" s="7">
+        <f ca="1">[2]CompareAnn!F35</f>
+        <v>78757.190260000003</v>
+      </c>
+      <c r="T5" s="7">
+        <f ca="1">[2]CompareAnn!G35</f>
+        <v>9365253.7418300007</v>
+      </c>
+      <c r="U5" s="7">
+        <f ca="1">[2]CompareAnn!J35</f>
+        <v>6819441.9758599978</v>
+      </c>
+      <c r="V5" s="7">
+        <f ca="1">[2]CompareAnn!K35</f>
+        <v>5778762.0748699997</v>
       </c>
       <c r="W5" s="3">
         <f>[1]annualCYSaltMass!$B83</f>
@@ -5674,7 +5787,7 @@
       </c>
       <c r="BN5" s="6"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>[1]annualCYFlow!A84</f>
         <v>2004</v>
@@ -5742,25 +5855,25 @@
         <f>[1]annualCYFlow!$U84</f>
         <v>8557930</v>
       </c>
-      <c r="R6" s="3">
-        <f>[1]annualCYFlow!$V84</f>
-        <v>8976822</v>
-      </c>
-      <c r="S6" s="3">
-        <f>[1]annualCYFlow!$W84</f>
-        <v>131876</v>
-      </c>
-      <c r="T6" s="3">
-        <f>[1]annualCYFlow!$X84</f>
-        <v>9345461</v>
-      </c>
-      <c r="U6" s="3">
-        <f>[1]annualCYFlow!$Y84</f>
-        <v>6779789</v>
-      </c>
-      <c r="V6" s="3">
-        <f>[1]annualCYFlow!$Z84</f>
-        <v>5528967</v>
+      <c r="R6" s="7">
+        <f ca="1">[2]CompareAnn!E36</f>
+        <v>9007615.7405500002</v>
+      </c>
+      <c r="S6" s="7">
+        <f ca="1">[2]CompareAnn!F36</f>
+        <v>132408.23578999998</v>
+      </c>
+      <c r="T6" s="7">
+        <f ca="1">[2]CompareAnn!G36</f>
+        <v>9345125.5607100017</v>
+      </c>
+      <c r="U6" s="7">
+        <f ca="1">[2]CompareAnn!J36</f>
+        <v>6552708.2606699998</v>
+      </c>
+      <c r="V6" s="7">
+        <f ca="1">[2]CompareAnn!K36</f>
+        <v>5538394.0686800005</v>
       </c>
       <c r="W6" s="3">
         <f>[1]annualCYSaltMass!$B84</f>
@@ -5933,7 +6046,7 @@
       </c>
       <c r="BN6" s="6"/>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>[1]annualCYFlow!A85</f>
         <v>2005</v>
@@ -6001,25 +6114,25 @@
         <f>[1]annualCYFlow!$U85</f>
         <v>8431731</v>
       </c>
-      <c r="R7" s="3">
-        <f>[1]annualCYFlow!$V85</f>
-        <v>9040711</v>
-      </c>
-      <c r="S7" s="3">
-        <f>[1]annualCYFlow!$W85</f>
-        <v>565810</v>
-      </c>
-      <c r="T7" s="3">
-        <f>[1]annualCYFlow!$X85</f>
-        <v>8274646</v>
-      </c>
-      <c r="U7" s="3">
-        <f>[1]annualCYFlow!$Y85</f>
-        <v>6370120</v>
-      </c>
-      <c r="V7" s="3">
-        <f>[1]annualCYFlow!$Z85</f>
-        <v>5270598</v>
+      <c r="R7" s="7">
+        <f ca="1">[2]CompareAnn!E37</f>
+        <v>9058094.2209699992</v>
+      </c>
+      <c r="S7" s="7">
+        <f ca="1">[2]CompareAnn!F37</f>
+        <v>569639.71924000001</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">[2]CompareAnn!G37</f>
+        <v>8275510.1789799994</v>
+      </c>
+      <c r="U7" s="7">
+        <f ca="1">[2]CompareAnn!J37</f>
+        <v>6185430.7238099994</v>
+      </c>
+      <c r="V7" s="7">
+        <f ca="1">[2]CompareAnn!K37</f>
+        <v>5283846.8035200005</v>
       </c>
       <c r="W7" s="3">
         <f>[1]annualCYSaltMass!$B85</f>
@@ -6192,7 +6305,7 @@
       </c>
       <c r="BN7" s="6"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>[1]annualCYFlow!A86</f>
         <v>2006</v>
@@ -6260,25 +6373,25 @@
         <f>[1]annualCYFlow!$U86</f>
         <v>8676794</v>
       </c>
-      <c r="R8" s="3">
-        <f>[1]annualCYFlow!$V86</f>
-        <v>9098803</v>
-      </c>
-      <c r="S8" s="3">
-        <f>[1]annualCYFlow!$W86</f>
-        <v>157055</v>
-      </c>
-      <c r="T8" s="3">
-        <f>[1]annualCYFlow!$X86</f>
-        <v>9259950</v>
-      </c>
-      <c r="U8" s="3">
-        <f>[1]annualCYFlow!$Y86</f>
-        <v>6592938</v>
-      </c>
-      <c r="V8" s="3">
-        <f>[1]annualCYFlow!$Z86</f>
-        <v>5672989</v>
+      <c r="R8" s="7">
+        <f ca="1">[2]CompareAnn!E38</f>
+        <v>9141791.1414199993</v>
+      </c>
+      <c r="S8" s="7">
+        <f ca="1">[2]CompareAnn!F38</f>
+        <v>157231.50154000003</v>
+      </c>
+      <c r="T8" s="7">
+        <f ca="1">[2]CompareAnn!G38</f>
+        <v>9260297.2726699989</v>
+      </c>
+      <c r="U8" s="7">
+        <f ca="1">[2]CompareAnn!J38</f>
+        <v>6721389.7854499994</v>
+      </c>
+      <c r="V8" s="7">
+        <f ca="1">[2]CompareAnn!K38</f>
+        <v>5684221.2210200001</v>
       </c>
       <c r="W8" s="3">
         <f>[1]annualCYSaltMass!$B86</f>
@@ -6451,7 +6564,7 @@
       </c>
       <c r="BN8" s="6"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>[1]annualCYFlow!A87</f>
         <v>2007</v>
@@ -6519,25 +6632,25 @@
         <f>[1]annualCYFlow!$U87</f>
         <v>8365968</v>
       </c>
-      <c r="R9" s="3">
-        <f>[1]annualCYFlow!$V87</f>
-        <v>8840828</v>
-      </c>
-      <c r="S9" s="3">
-        <f>[1]annualCYFlow!$W87</f>
-        <v>105398</v>
-      </c>
-      <c r="T9" s="3">
-        <f>[1]annualCYFlow!$X87</f>
-        <v>9362637</v>
-      </c>
-      <c r="U9" s="3">
-        <f>[1]annualCYFlow!$Y87</f>
-        <v>6565027</v>
-      </c>
-      <c r="V9" s="3">
-        <f>[1]annualCYFlow!$Z87</f>
-        <v>5673094</v>
+      <c r="R9" s="7">
+        <f ca="1">[2]CompareAnn!E39</f>
+        <v>8818509.7916700002</v>
+      </c>
+      <c r="S9" s="7">
+        <f ca="1">[2]CompareAnn!F39</f>
+        <v>104941.36967000001</v>
+      </c>
+      <c r="T9" s="7">
+        <f ca="1">[2]CompareAnn!G39</f>
+        <v>9362972.6949199997</v>
+      </c>
+      <c r="U9" s="7">
+        <f ca="1">[2]CompareAnn!J39</f>
+        <v>6711345.4026200008</v>
+      </c>
+      <c r="V9" s="7">
+        <f ca="1">[2]CompareAnn!K39</f>
+        <v>5647591.9411899997</v>
       </c>
       <c r="W9" s="3">
         <f>[1]annualCYSaltMass!$B87</f>
@@ -6710,7 +6823,7 @@
       </c>
       <c r="BN9" s="6"/>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>[1]annualCYFlow!A88</f>
         <v>2008</v>
@@ -6778,25 +6891,25 @@
         <f>[1]annualCYFlow!$U88</f>
         <v>9313839</v>
       </c>
-      <c r="R10" s="3">
-        <f>[1]annualCYFlow!$V88</f>
-        <v>9800340</v>
-      </c>
-      <c r="S10" s="3">
-        <f>[1]annualCYFlow!$W88</f>
-        <v>103354</v>
-      </c>
-      <c r="T10" s="3">
-        <f>[1]annualCYFlow!$X88</f>
-        <v>9540895</v>
-      </c>
-      <c r="U10" s="3">
-        <f>[1]annualCYFlow!$Y88</f>
-        <v>6848048</v>
-      </c>
-      <c r="V10" s="3">
-        <f>[1]annualCYFlow!$Z88</f>
-        <v>5672660</v>
+      <c r="R10" s="7">
+        <f ca="1">[2]CompareAnn!E40</f>
+        <v>9761814.9459099993</v>
+      </c>
+      <c r="S10" s="7">
+        <f ca="1">[2]CompareAnn!F40</f>
+        <v>103210.45990000002</v>
+      </c>
+      <c r="T10" s="7">
+        <f ca="1">[2]CompareAnn!G40</f>
+        <v>9545338.8429499995</v>
+      </c>
+      <c r="U10" s="7">
+        <f ca="1">[2]CompareAnn!J40</f>
+        <v>6698509.2752799997</v>
+      </c>
+      <c r="V10" s="7">
+        <f ca="1">[2]CompareAnn!K40</f>
+        <v>5655507.1254700003</v>
       </c>
       <c r="W10" s="3">
         <f>[1]annualCYSaltMass!$B88</f>
@@ -6969,7 +7082,7 @@
       </c>
       <c r="BN10" s="6"/>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>[1]annualCYFlow!A89</f>
         <v>2009</v>
@@ -7037,25 +7150,25 @@
         <f>[1]annualCYFlow!$U89</f>
         <v>8466135</v>
       </c>
-      <c r="R11" s="3">
-        <f>[1]annualCYFlow!$V89</f>
-        <v>8890543</v>
-      </c>
-      <c r="S11" s="3">
-        <f>[1]annualCYFlow!$W89</f>
-        <v>88693</v>
-      </c>
-      <c r="T11" s="3">
-        <f>[1]annualCYFlow!$X89</f>
-        <v>9481070</v>
-      </c>
-      <c r="U11" s="3">
-        <f>[1]annualCYFlow!$Y89</f>
-        <v>6535570</v>
-      </c>
-      <c r="V11" s="3">
-        <f>[1]annualCYFlow!$Z89</f>
-        <v>5407376</v>
+      <c r="R11" s="7">
+        <f ca="1">[2]CompareAnn!E41</f>
+        <v>8859876.7719000001</v>
+      </c>
+      <c r="S11" s="7">
+        <f ca="1">[2]CompareAnn!F41</f>
+        <v>88476.758189999993</v>
+      </c>
+      <c r="T11" s="7">
+        <f ca="1">[2]CompareAnn!G41</f>
+        <v>9480056.28101</v>
+      </c>
+      <c r="U11" s="7">
+        <f ca="1">[2]CompareAnn!J41</f>
+        <v>6389984.0838800007</v>
+      </c>
+      <c r="V11" s="7">
+        <f ca="1">[2]CompareAnn!K41</f>
+        <v>5376293.6359999999</v>
       </c>
       <c r="W11" s="3">
         <f>[1]annualCYSaltMass!$B89</f>
@@ -7228,7 +7341,7 @@
       </c>
       <c r="BN11" s="6"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>[1]annualCYFlow!A90</f>
         <v>2010</v>
@@ -7296,25 +7409,25 @@
         <f>[1]annualCYFlow!$U90</f>
         <v>8351825</v>
       </c>
-      <c r="R12" s="3">
-        <f>[1]annualCYFlow!$V90</f>
-        <v>8889880</v>
-      </c>
-      <c r="S12" s="3">
-        <f>[1]annualCYFlow!$W90</f>
-        <v>284473</v>
-      </c>
-      <c r="T12" s="3">
-        <f>[1]annualCYFlow!$X90</f>
-        <v>9452548</v>
-      </c>
-      <c r="U12" s="3">
-        <f>[1]annualCYFlow!$Y90</f>
-        <v>6451901</v>
-      </c>
-      <c r="V12" s="3">
-        <f>[1]annualCYFlow!$Z90</f>
-        <v>5479000</v>
+      <c r="R12" s="7">
+        <f ca="1">[2]CompareAnn!E42</f>
+        <v>8868191.2632999998</v>
+      </c>
+      <c r="S12" s="7">
+        <f ca="1">[2]CompareAnn!F42</f>
+        <v>279804.10966000002</v>
+      </c>
+      <c r="T12" s="7">
+        <f ca="1">[2]CompareAnn!G42</f>
+        <v>9450794.0288699996</v>
+      </c>
+      <c r="U12" s="7">
+        <f ca="1">[2]CompareAnn!J42</f>
+        <v>6371203.6910100002</v>
+      </c>
+      <c r="V12" s="7">
+        <f ca="1">[2]CompareAnn!K42</f>
+        <v>5388080.2757400004</v>
       </c>
       <c r="W12" s="3">
         <f>[1]annualCYSaltMass!$B90</f>
@@ -7487,7 +7600,7 @@
       </c>
       <c r="BN12" s="6"/>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>[1]annualCYFlow!A91</f>
         <v>2011</v>
@@ -7555,25 +7668,25 @@
         <f>[1]annualCYFlow!$U91</f>
         <v>13844356</v>
       </c>
-      <c r="R13" s="3">
-        <f>[1]annualCYFlow!$V91</f>
-        <v>14237446</v>
-      </c>
-      <c r="S13" s="3">
-        <f>[1]annualCYFlow!$W91</f>
-        <v>272921</v>
-      </c>
-      <c r="T13" s="3">
-        <f>[1]annualCYFlow!$X91</f>
-        <v>9207507</v>
-      </c>
-      <c r="U13" s="3">
-        <f>[1]annualCYFlow!$Y91</f>
-        <v>6686897</v>
-      </c>
-      <c r="V13" s="3">
-        <f>[1]annualCYFlow!$Z91</f>
-        <v>6686897</v>
+      <c r="R13" s="7">
+        <f ca="1">[2]CompareAnn!E43</f>
+        <v>14197605.51471</v>
+      </c>
+      <c r="S13" s="7">
+        <f ca="1">[2]CompareAnn!F43</f>
+        <v>271506.04135999997</v>
+      </c>
+      <c r="T13" s="7">
+        <f ca="1">[2]CompareAnn!G43</f>
+        <v>9206305.1891099978</v>
+      </c>
+      <c r="U13" s="7">
+        <f ca="1">[2]CompareAnn!J43</f>
+        <v>6714205.950389999</v>
+      </c>
+      <c r="V13" s="7">
+        <f ca="1">[2]CompareAnn!K43</f>
+        <v>5694961.7777900007</v>
       </c>
       <c r="W13" s="3">
         <f>[1]annualCYSaltMass!$B91</f>
@@ -7746,7 +7859,7 @@
       </c>
       <c r="BN13" s="6"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>[1]annualCYFlow!A92</f>
         <v>2012</v>
@@ -7814,25 +7927,25 @@
         <f>[1]annualCYFlow!$U92</f>
         <v>8248261</v>
       </c>
-      <c r="R14" s="3">
-        <f>[1]annualCYFlow!$V92</f>
-        <v>8611920</v>
-      </c>
-      <c r="S14" s="3">
-        <f>[1]annualCYFlow!$W92</f>
-        <v>122103</v>
-      </c>
-      <c r="T14" s="3">
-        <f>[1]annualCYFlow!$X92</f>
-        <v>9386795</v>
-      </c>
-      <c r="U14" s="3">
-        <f>[1]annualCYFlow!$Y92</f>
-        <v>6646432</v>
-      </c>
-      <c r="V14" s="3">
-        <f>[1]annualCYFlow!$Z92</f>
-        <v>6636677</v>
+      <c r="R14" s="7">
+        <f ca="1">[2]CompareAnn!E44</f>
+        <v>8591033.8576400001</v>
+      </c>
+      <c r="S14" s="7">
+        <f ca="1">[2]CompareAnn!F44</f>
+        <v>121515.10162999999</v>
+      </c>
+      <c r="T14" s="7">
+        <f ca="1">[2]CompareAnn!G44</f>
+        <v>9388443.7823100016</v>
+      </c>
+      <c r="U14" s="7">
+        <f ca="1">[2]CompareAnn!J44</f>
+        <v>6711596.9608499995</v>
+      </c>
+      <c r="V14" s="7">
+        <f ca="1">[2]CompareAnn!K44</f>
+        <v>5697381.3327899985</v>
       </c>
       <c r="W14" s="3">
         <f>[1]annualCYSaltMass!$B92</f>
@@ -8005,7 +8118,7 @@
       </c>
       <c r="BN14" s="6"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>[1]annualCYFlow!A93</f>
         <v>2013</v>
@@ -8073,25 +8186,25 @@
         <f>[1]annualCYFlow!$U93</f>
         <v>8008293</v>
       </c>
-      <c r="R15" s="3">
-        <f>[1]annualCYFlow!$V93</f>
-        <v>8501941</v>
-      </c>
-      <c r="S15" s="3">
-        <f>[1]annualCYFlow!$W93</f>
-        <v>111572</v>
-      </c>
-      <c r="T15" s="3">
-        <f>[1]annualCYFlow!$X93</f>
-        <v>9375806</v>
-      </c>
-      <c r="U15" s="3">
-        <f>[1]annualCYFlow!$Y93</f>
-        <v>6335191</v>
-      </c>
-      <c r="V15" s="3">
-        <f>[1]annualCYFlow!$Z93</f>
-        <v>5311384</v>
+      <c r="R15" s="7">
+        <f ca="1">[2]CompareAnn!E45</f>
+        <v>8485015.4549299981</v>
+      </c>
+      <c r="S15" s="7">
+        <f ca="1">[2]CompareAnn!F45</f>
+        <v>111391.07192999999</v>
+      </c>
+      <c r="T15" s="7">
+        <f ca="1">[2]CompareAnn!G45</f>
+        <v>9375282.3967000004</v>
+      </c>
+      <c r="U15" s="7">
+        <f ca="1">[2]CompareAnn!J45</f>
+        <v>6335016.2650700007</v>
+      </c>
+      <c r="V15" s="7">
+        <f ca="1">[2]CompareAnn!K45</f>
+        <v>5288892.6686399998</v>
       </c>
       <c r="W15" s="3">
         <f>[1]annualCYSaltMass!$B93</f>
@@ -8264,7 +8377,7 @@
       </c>
       <c r="BN15" s="6"/>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>[1]annualCYFlow!A94</f>
         <v>2014</v>
@@ -8332,25 +8445,25 @@
         <f>[1]annualCYFlow!$U94</f>
         <v>8066266</v>
       </c>
-      <c r="R16" s="3">
-        <f>[1]annualCYFlow!$V94</f>
-        <v>8438780</v>
-      </c>
-      <c r="S16" s="3">
-        <f>[1]annualCYFlow!$W94</f>
-        <v>104903</v>
-      </c>
-      <c r="T16" s="3">
-        <f>[1]annualCYFlow!$X94</f>
-        <v>9615156</v>
-      </c>
-      <c r="U16" s="3">
-        <f>[1]annualCYFlow!$Y94</f>
-        <v>6302810</v>
-      </c>
-      <c r="V16" s="3">
-        <f>[1]annualCYFlow!$Z94</f>
-        <v>5472565</v>
+      <c r="R16" s="7">
+        <f ca="1">[2]CompareAnn!E46</f>
+        <v>8424521.0953299999</v>
+      </c>
+      <c r="S16" s="7">
+        <f ca="1">[2]CompareAnn!F46</f>
+        <v>104726.67175000001</v>
+      </c>
+      <c r="T16" s="7">
+        <f ca="1">[2]CompareAnn!G46</f>
+        <v>9614840.053270001</v>
+      </c>
+      <c r="U16" s="7">
+        <f ca="1">[2]CompareAnn!J46</f>
+        <v>6455041.1866299994</v>
+      </c>
+      <c r="V16" s="7">
+        <f ca="1">[2]CompareAnn!K46</f>
+        <v>5442456.5639599999</v>
       </c>
       <c r="W16" s="3">
         <f>[1]annualCYSaltMass!$B94</f>
@@ -8523,7 +8636,7 @@
       </c>
       <c r="BN16" s="6"/>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>[1]annualCYFlow!A95</f>
         <v>2015</v>
@@ -8591,25 +8704,25 @@
         <f>[1]annualCYFlow!$U95</f>
         <v>8918927</v>
       </c>
-      <c r="R17" s="3">
-        <f>[1]annualCYFlow!$V95</f>
-        <v>9321596</v>
-      </c>
-      <c r="S17" s="3">
-        <f>[1]annualCYFlow!$W95</f>
-        <v>93311</v>
-      </c>
-      <c r="T17" s="3">
-        <f>[1]annualCYFlow!$X95</f>
-        <v>9413492</v>
-      </c>
-      <c r="U17" s="3">
-        <f>[1]annualCYFlow!$Y95</f>
-        <v>6370329</v>
-      </c>
-      <c r="V17" s="3">
-        <f>[1]annualCYFlow!$Z95</f>
-        <v>5360230</v>
+      <c r="R17" s="7">
+        <f ca="1">[2]CompareAnn!E47</f>
+        <v>9293467.7076600008</v>
+      </c>
+      <c r="S17" s="7">
+        <f ca="1">[2]CompareAnn!F47</f>
+        <v>92729.762810000015</v>
+      </c>
+      <c r="T17" s="7">
+        <f ca="1">[2]CompareAnn!G47</f>
+        <v>9414000.1577400006</v>
+      </c>
+      <c r="U17" s="7">
+        <f ca="1">[2]CompareAnn!J47</f>
+        <v>6276298.9256199989</v>
+      </c>
+      <c r="V17" s="7">
+        <f ca="1">[2]CompareAnn!K47</f>
+        <v>5337246.3571800003</v>
       </c>
       <c r="W17" s="3">
         <f>[1]annualCYSaltMass!$B95</f>
@@ -8782,7 +8895,7 @@
       </c>
       <c r="BN17" s="6"/>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>[1]annualCYFlow!A96</f>
         <v>2016</v>
@@ -8850,25 +8963,25 @@
         <f>[1]annualCYFlow!$U96</f>
         <v>9339231</v>
       </c>
-      <c r="R18" s="3">
-        <f>[1]annualCYFlow!$V96</f>
-        <v>9738628</v>
-      </c>
-      <c r="S18" s="3">
-        <f>[1]annualCYFlow!$W96</f>
-        <v>117856</v>
-      </c>
-      <c r="T18" s="3">
-        <f>[1]annualCYFlow!$X96</f>
-        <v>9276628</v>
-      </c>
-      <c r="U18" s="3">
-        <f>[1]annualCYFlow!$Y96</f>
-        <v>6394845</v>
-      </c>
-      <c r="V18" s="3">
-        <f>[1]annualCYFlow!$Z96</f>
-        <v>5408231</v>
+      <c r="R18" s="7">
+        <f ca="1">[2]CompareAnn!E48</f>
+        <v>9711319.3245100006</v>
+      </c>
+      <c r="S18" s="7">
+        <f ca="1">[2]CompareAnn!F48</f>
+        <v>117433.74210999999</v>
+      </c>
+      <c r="T18" s="7">
+        <f ca="1">[2]CompareAnn!G48</f>
+        <v>9275997.1192100011</v>
+      </c>
+      <c r="U18" s="7">
+        <f ca="1">[2]CompareAnn!J48</f>
+        <v>6306620.2038499992</v>
+      </c>
+      <c r="V18" s="7">
+        <f ca="1">[2]CompareAnn!K48</f>
+        <v>5390831.20089</v>
       </c>
       <c r="W18" s="3">
         <f>[1]annualCYSaltMass!$B96</f>
@@ -9041,7 +9154,7 @@
       </c>
       <c r="BN18" s="6"/>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>[1]annualCYFlow!A97</f>
         <v>2017</v>
@@ -9109,25 +9222,25 @@
         <f>[1]annualCYFlow!$U97</f>
         <v>8861425</v>
       </c>
-      <c r="R19" s="3">
-        <f>[1]annualCYFlow!$V97</f>
-        <v>9300493</v>
-      </c>
-      <c r="S19" s="3">
-        <f>[1]annualCYFlow!$W97</f>
-        <v>157535</v>
-      </c>
-      <c r="T19" s="3">
-        <f>[1]annualCYFlow!$X97</f>
-        <v>8731564</v>
-      </c>
-      <c r="U19" s="3">
-        <f>[1]annualCYFlow!$Y97</f>
-        <v>6421363</v>
-      </c>
-      <c r="V19" s="3">
-        <f>[1]annualCYFlow!$Z97</f>
-        <v>5350274</v>
+      <c r="R19" s="7">
+        <f ca="1">[2]CompareAnn!E49</f>
+        <v>9282917.5610100012</v>
+      </c>
+      <c r="S19" s="7">
+        <f ca="1">[2]CompareAnn!F49</f>
+        <v>157595.64811000001</v>
+      </c>
+      <c r="T19" s="7">
+        <f ca="1">[2]CompareAnn!G49</f>
+        <v>8730094.1071700007</v>
+      </c>
+      <c r="U19" s="7">
+        <f ca="1">[2]CompareAnn!J49</f>
+        <v>6255600.3214400001</v>
+      </c>
+      <c r="V19" s="7">
+        <f ca="1">[2]CompareAnn!K49</f>
+        <v>5322419.2024899991</v>
       </c>
       <c r="W19" s="3">
         <f>[1]annualCYSaltMass!$B97</f>
@@ -9300,7 +9413,7 @@
       </c>
       <c r="BN19" s="6"/>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>[1]annualCYFlow!A98</f>
         <v>2018</v>
@@ -9368,25 +9481,25 @@
         <f>[1]annualCYFlow!$U98</f>
         <v>9234721</v>
       </c>
-      <c r="R20" s="3">
-        <f>[1]annualCYFlow!$V98</f>
-        <v>9627472</v>
-      </c>
-      <c r="S20" s="3">
-        <f>[1]annualCYFlow!$W98</f>
-        <v>91523</v>
-      </c>
-      <c r="T20" s="3">
-        <f>[1]annualCYFlow!$X98</f>
-        <v>9116167</v>
-      </c>
-      <c r="U20" s="3">
-        <f>[1]annualCYFlow!$Y98</f>
-        <v>6514052</v>
-      </c>
-      <c r="V20" s="3">
-        <f>[1]annualCYFlow!$Z98</f>
-        <v>5317008</v>
+      <c r="R20" s="7">
+        <f ca="1">[2]CompareAnn!E50</f>
+        <v>9601879.6816199999</v>
+      </c>
+      <c r="S20" s="7">
+        <f ca="1">[2]CompareAnn!F50</f>
+        <v>90888.288840000008</v>
+      </c>
+      <c r="T20" s="7">
+        <f ca="1">[2]CompareAnn!G50</f>
+        <v>9116380.8263399992</v>
+      </c>
+      <c r="U20" s="7">
+        <f ca="1">[2]CompareAnn!J50</f>
+        <v>6285863.0131900003</v>
+      </c>
+      <c r="V20" s="7">
+        <f ca="1">[2]CompareAnn!K50</f>
+        <v>5299418.11326</v>
       </c>
       <c r="W20" s="3">
         <f>[1]annualCYSaltMass!$B98</f>
@@ -9559,7 +9672,7 @@
       </c>
       <c r="BN20" s="6"/>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>[1]annualCYFlow!A99</f>
         <v>2019</v>
@@ -9627,25 +9740,25 @@
         <f>[1]annualCYFlow!$U99</f>
         <v>9197627</v>
       </c>
-      <c r="R21" s="3">
-        <f>[1]annualCYFlow!$V99</f>
-        <v>9693783</v>
-      </c>
-      <c r="S21" s="3">
-        <f>[1]annualCYFlow!$W99</f>
-        <v>231863</v>
-      </c>
-      <c r="T21" s="3">
-        <f>[1]annualCYFlow!$X99</f>
-        <v>8515562</v>
-      </c>
-      <c r="U21" s="3">
-        <f>[1]annualCYFlow!$Y99</f>
-        <v>6258339</v>
-      </c>
-      <c r="V21" s="3">
-        <f>[1]annualCYFlow!$Z99</f>
-        <v>5290491</v>
+      <c r="R21" s="7">
+        <f ca="1">[2]CompareAnn!E51</f>
+        <v>9665853.0220599994</v>
+      </c>
+      <c r="S21" s="7">
+        <f ca="1">[2]CompareAnn!F51</f>
+        <v>228779.38485</v>
+      </c>
+      <c r="T21" s="7">
+        <f ca="1">[2]CompareAnn!G51</f>
+        <v>8514583.2208200004</v>
+      </c>
+      <c r="U21" s="7">
+        <f ca="1">[2]CompareAnn!J51</f>
+        <v>6151099.7816900006</v>
+      </c>
+      <c r="V21" s="7">
+        <f ca="1">[2]CompareAnn!K51</f>
+        <v>5267245.3898</v>
       </c>
       <c r="W21" s="3">
         <f>[1]annualCYSaltMass!$B99</f>
@@ -9818,1747 +9931,1749 @@
       </c>
       <c r="BN21" s="6"/>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN22" s="6"/>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN23" s="6"/>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN24" s="6"/>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN25" s="6"/>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN26" s="6"/>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN27" s="6"/>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN28" s="6"/>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN29" s="6"/>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN30" s="6"/>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN31" s="6"/>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="BN32" s="6"/>
     </row>
-    <row r="33" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="33" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN33" s="6"/>
     </row>
-    <row r="34" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="34" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN34" s="6"/>
     </row>
-    <row r="35" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="35" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN35" s="6"/>
     </row>
-    <row r="36" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="36" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN36" s="6"/>
     </row>
-    <row r="37" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="37" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN37" s="6"/>
     </row>
-    <row r="38" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="38" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN38" s="6"/>
     </row>
-    <row r="39" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="39" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN39" s="6"/>
     </row>
-    <row r="40" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="40" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN40" s="6"/>
     </row>
-    <row r="41" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="41" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN41" s="6"/>
     </row>
-    <row r="42" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="42" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN42" s="6"/>
     </row>
-    <row r="43" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="43" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN43" s="6"/>
     </row>
-    <row r="44" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="44" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN44" s="6"/>
     </row>
-    <row r="45" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="45" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN45" s="6"/>
     </row>
-    <row r="46" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="46" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN46" s="6"/>
     </row>
-    <row r="47" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="47" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN47" s="6"/>
     </row>
-    <row r="48" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="48" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN48" s="6"/>
     </row>
-    <row r="49" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="49" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN49" s="6"/>
     </row>
-    <row r="50" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="50" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN50" s="6"/>
     </row>
-    <row r="51" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="51" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN51" s="6"/>
     </row>
-    <row r="52" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="52" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN52" s="6"/>
     </row>
-    <row r="53" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="53" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN53" s="6"/>
     </row>
-    <row r="54" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="54" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN54" s="6"/>
     </row>
-    <row r="55" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="55" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN55" s="6"/>
     </row>
-    <row r="56" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="56" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN56" s="6"/>
     </row>
-    <row r="57" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="57" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN57" s="6"/>
     </row>
-    <row r="58" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="58" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN58" s="6"/>
     </row>
-    <row r="59" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="59" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN59" s="6"/>
     </row>
-    <row r="60" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="60" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN60" s="6"/>
     </row>
-    <row r="61" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="61" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN61" s="6"/>
     </row>
-    <row r="62" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="62" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN62" s="6"/>
     </row>
-    <row r="63" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="63" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN63" s="6"/>
     </row>
-    <row r="64" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="64" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN64" s="6"/>
     </row>
-    <row r="65" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="65" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN65" s="6"/>
     </row>
-    <row r="66" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="66" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN66" s="6"/>
     </row>
-    <row r="67" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="67" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN67" s="6"/>
     </row>
-    <row r="68" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="68" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN68" s="6"/>
     </row>
-    <row r="69" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="69" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN69" s="6"/>
     </row>
-    <row r="70" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="70" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN70" s="6"/>
     </row>
-    <row r="71" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="71" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN71" s="6"/>
     </row>
-    <row r="72" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="72" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN72" s="6"/>
     </row>
-    <row r="73" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="73" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN73" s="6"/>
     </row>
-    <row r="74" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="74" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN74" s="6"/>
     </row>
-    <row r="75" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="75" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN75" s="6"/>
     </row>
-    <row r="76" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="76" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN76" s="6"/>
     </row>
-    <row r="77" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="77" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN77" s="6"/>
     </row>
-    <row r="78" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="78" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN78" s="6"/>
     </row>
-    <row r="79" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="79" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN79" s="6"/>
     </row>
-    <row r="80" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="80" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN80" s="6"/>
     </row>
-    <row r="81" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="81" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN81" s="6"/>
     </row>
-    <row r="82" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="82" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN82" s="6"/>
     </row>
-    <row r="83" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="83" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN83" s="6"/>
     </row>
-    <row r="84" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="84" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN84" s="6"/>
     </row>
-    <row r="85" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="85" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN85" s="6"/>
     </row>
-    <row r="86" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="86" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN86" s="6"/>
     </row>
-    <row r="87" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="87" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN87" s="6"/>
     </row>
-    <row r="88" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="88" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN88" s="6"/>
     </row>
-    <row r="89" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="89" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN89" s="6"/>
     </row>
-    <row r="90" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="90" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN90" s="6"/>
     </row>
-    <row r="91" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="91" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN91" s="6"/>
     </row>
-    <row r="92" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="92" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN92" s="6"/>
     </row>
-    <row r="93" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="93" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN93" s="6"/>
     </row>
-    <row r="94" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="94" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN94" s="6"/>
     </row>
-    <row r="95" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="95" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN95" s="6"/>
     </row>
-    <row r="96" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="96" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN96" s="6"/>
     </row>
-    <row r="97" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="97" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN97" s="6"/>
     </row>
-    <row r="98" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="98" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN98" s="6"/>
     </row>
-    <row r="99" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="99" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN99" s="6"/>
     </row>
-    <row r="100" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="100" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN100" s="6"/>
     </row>
-    <row r="101" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="101" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN101" s="6"/>
     </row>
-    <row r="102" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="102" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN102" s="6"/>
     </row>
-    <row r="103" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="103" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN103" s="6"/>
     </row>
-    <row r="104" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="104" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN104" s="6"/>
     </row>
-    <row r="105" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="105" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN105" s="6"/>
     </row>
-    <row r="106" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="106" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN106" s="6"/>
     </row>
-    <row r="107" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="107" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN107" s="6"/>
     </row>
-    <row r="108" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="108" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN108" s="6"/>
     </row>
-    <row r="109" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="109" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN109" s="6"/>
     </row>
-    <row r="110" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="110" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN110" s="6"/>
     </row>
-    <row r="111" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="111" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN111" s="6"/>
     </row>
-    <row r="112" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="112" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN112" s="6"/>
     </row>
-    <row r="113" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="113" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN113" s="6"/>
     </row>
-    <row r="114" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="114" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN114" s="6"/>
     </row>
-    <row r="115" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="115" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN115" s="6"/>
     </row>
-    <row r="116" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="116" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN116" s="6"/>
     </row>
-    <row r="117" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="117" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN117" s="6"/>
     </row>
-    <row r="118" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="118" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN118" s="6"/>
     </row>
-    <row r="119" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="119" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN119" s="6"/>
     </row>
-    <row r="120" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="120" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN120" s="6"/>
     </row>
-    <row r="121" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="121" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN121" s="6"/>
     </row>
-    <row r="122" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="122" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN122" s="6"/>
     </row>
-    <row r="123" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="123" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN123" s="6"/>
     </row>
-    <row r="124" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="124" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN124" s="6"/>
     </row>
-    <row r="125" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="125" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN125" s="6"/>
     </row>
-    <row r="126" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="126" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN126" s="6"/>
     </row>
-    <row r="127" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="127" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN127" s="6"/>
     </row>
-    <row r="128" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="128" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN128" s="6"/>
     </row>
-    <row r="129" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="129" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN129" s="6"/>
     </row>
-    <row r="130" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="130" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN130" s="6"/>
     </row>
-    <row r="131" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="131" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN131" s="6"/>
     </row>
-    <row r="132" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="132" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN132" s="6"/>
     </row>
-    <row r="133" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="133" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN133" s="6"/>
     </row>
-    <row r="134" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="134" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN134" s="6"/>
     </row>
-    <row r="135" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="135" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN135" s="6"/>
     </row>
-    <row r="136" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="136" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN136" s="6"/>
     </row>
-    <row r="137" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="137" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN137" s="6"/>
     </row>
-    <row r="138" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="138" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN138" s="6"/>
     </row>
-    <row r="139" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="139" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN139" s="6"/>
     </row>
-    <row r="140" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="140" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN140" s="6"/>
     </row>
-    <row r="141" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="141" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN141" s="6"/>
     </row>
-    <row r="142" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="142" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN142" s="6"/>
     </row>
-    <row r="143" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="143" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN143" s="6"/>
     </row>
-    <row r="144" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="144" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN144" s="6"/>
     </row>
-    <row r="145" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="145" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN145" s="6"/>
     </row>
-    <row r="146" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="146" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN146" s="6"/>
     </row>
-    <row r="147" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="147" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN147" s="6"/>
     </row>
-    <row r="148" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="148" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN148" s="6"/>
     </row>
-    <row r="149" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="149" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN149" s="6"/>
     </row>
-    <row r="150" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="150" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN150" s="6"/>
     </row>
-    <row r="151" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="151" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN151" s="6"/>
     </row>
-    <row r="152" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="152" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN152" s="6"/>
     </row>
-    <row r="153" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="153" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN153" s="6"/>
     </row>
-    <row r="154" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="154" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN154" s="6"/>
     </row>
-    <row r="155" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="155" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN155" s="6"/>
     </row>
-    <row r="156" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="156" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN156" s="6"/>
     </row>
-    <row r="157" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="157" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN157" s="6"/>
     </row>
-    <row r="158" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="158" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN158" s="6"/>
     </row>
-    <row r="159" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="159" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN159" s="6"/>
     </row>
-    <row r="160" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="160" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN160" s="6"/>
     </row>
-    <row r="161" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="161" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN161" s="6"/>
     </row>
-    <row r="162" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="162" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN162" s="6"/>
     </row>
-    <row r="163" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="163" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN163" s="6"/>
     </row>
-    <row r="164" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="164" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN164" s="6"/>
     </row>
-    <row r="165" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="165" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN165" s="6"/>
     </row>
-    <row r="166" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="166" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN166" s="6"/>
     </row>
-    <row r="167" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="167" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN167" s="6"/>
     </row>
-    <row r="168" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="168" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN168" s="6"/>
     </row>
-    <row r="169" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="169" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN169" s="6"/>
     </row>
-    <row r="170" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="170" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN170" s="6"/>
     </row>
-    <row r="171" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="171" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN171" s="6"/>
     </row>
-    <row r="172" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="172" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN172" s="6"/>
     </row>
-    <row r="173" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="173" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN173" s="6"/>
     </row>
-    <row r="174" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="174" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN174" s="6"/>
     </row>
-    <row r="175" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="175" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN175" s="6"/>
     </row>
-    <row r="176" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="176" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN176" s="6"/>
     </row>
-    <row r="177" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="177" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN177" s="6"/>
     </row>
-    <row r="178" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="178" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN178" s="6"/>
     </row>
-    <row r="179" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="179" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN179" s="6"/>
     </row>
-    <row r="180" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="180" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN180" s="6"/>
     </row>
-    <row r="181" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="181" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN181" s="6"/>
     </row>
-    <row r="182" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="182" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN182" s="6"/>
     </row>
-    <row r="183" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="183" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN183" s="6"/>
     </row>
-    <row r="184" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="184" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN184" s="6"/>
     </row>
-    <row r="185" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="185" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN185" s="6"/>
     </row>
-    <row r="186" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="186" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN186" s="6"/>
     </row>
-    <row r="187" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="187" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN187" s="6"/>
     </row>
-    <row r="188" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="188" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN188" s="6"/>
     </row>
-    <row r="189" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="189" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN189" s="6"/>
     </row>
-    <row r="190" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="190" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN190" s="6"/>
     </row>
-    <row r="191" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="191" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN191" s="6"/>
     </row>
-    <row r="192" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="192" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN192" s="6"/>
     </row>
-    <row r="193" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="193" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN193" s="6"/>
     </row>
-    <row r="194" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="194" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN194" s="6"/>
     </row>
-    <row r="195" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="195" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN195" s="6"/>
     </row>
-    <row r="196" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="196" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN196" s="6"/>
     </row>
-    <row r="197" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="197" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN197" s="6"/>
     </row>
-    <row r="198" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="198" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN198" s="6"/>
     </row>
-    <row r="199" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="199" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN199" s="6"/>
     </row>
-    <row r="200" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="200" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN200" s="6"/>
     </row>
-    <row r="201" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="201" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN201" s="6"/>
     </row>
-    <row r="202" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="202" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN202" s="6"/>
     </row>
-    <row r="203" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="203" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN203" s="6"/>
     </row>
-    <row r="204" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="204" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN204" s="6"/>
     </row>
-    <row r="205" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="205" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN205" s="6"/>
     </row>
-    <row r="206" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="206" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN206" s="6"/>
     </row>
-    <row r="207" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="207" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN207" s="6"/>
     </row>
-    <row r="208" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="208" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN208" s="6"/>
     </row>
-    <row r="209" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="209" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN209" s="6"/>
     </row>
-    <row r="210" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="210" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN210" s="6"/>
     </row>
-    <row r="211" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="211" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN211" s="6"/>
     </row>
-    <row r="212" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="212" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN212" s="6"/>
     </row>
-    <row r="213" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="213" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN213" s="6"/>
     </row>
-    <row r="214" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="214" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN214" s="6"/>
     </row>
-    <row r="215" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="215" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN215" s="6"/>
     </row>
-    <row r="216" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="216" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN216" s="6"/>
     </row>
-    <row r="217" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="217" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN217" s="6"/>
     </row>
-    <row r="218" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="218" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN218" s="6"/>
     </row>
-    <row r="219" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="219" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN219" s="6"/>
     </row>
-    <row r="220" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="220" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN220" s="6"/>
     </row>
-    <row r="221" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="221" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN221" s="6"/>
     </row>
-    <row r="222" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="222" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN222" s="6"/>
     </row>
-    <row r="223" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="223" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN223" s="6"/>
     </row>
-    <row r="224" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="224" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN224" s="6"/>
     </row>
-    <row r="225" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="225" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN225" s="6"/>
     </row>
-    <row r="226" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="226" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN226" s="6"/>
     </row>
-    <row r="227" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="227" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN227" s="6"/>
     </row>
-    <row r="228" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="228" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN228" s="6"/>
     </row>
-    <row r="229" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="229" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN229" s="6"/>
     </row>
-    <row r="230" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="230" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN230" s="6"/>
     </row>
-    <row r="231" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="231" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN231" s="6"/>
     </row>
-    <row r="232" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="232" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN232" s="6"/>
     </row>
-    <row r="233" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="233" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN233" s="6"/>
     </row>
-    <row r="234" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="234" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN234" s="6"/>
     </row>
-    <row r="235" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="235" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN235" s="6"/>
     </row>
-    <row r="236" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="236" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN236" s="6"/>
     </row>
-    <row r="237" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="237" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN237" s="6"/>
     </row>
-    <row r="238" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="238" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN238" s="6"/>
     </row>
-    <row r="239" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="239" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN239" s="6"/>
     </row>
-    <row r="240" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="240" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN240" s="6"/>
     </row>
-    <row r="241" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="241" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN241" s="6"/>
     </row>
-    <row r="242" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="242" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN242" s="6"/>
     </row>
-    <row r="243" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="243" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN243" s="6"/>
     </row>
-    <row r="244" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="244" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN244" s="6"/>
     </row>
-    <row r="245" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="245" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN245" s="6"/>
     </row>
-    <row r="246" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="246" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN246" s="6"/>
     </row>
-    <row r="247" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="247" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN247" s="6"/>
     </row>
-    <row r="248" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="248" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN248" s="6"/>
     </row>
-    <row r="249" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="249" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN249" s="6"/>
     </row>
-    <row r="250" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="250" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN250" s="6"/>
     </row>
-    <row r="251" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="251" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN251" s="6"/>
     </row>
-    <row r="252" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="252" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN252" s="6"/>
     </row>
-    <row r="253" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="253" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN253" s="6"/>
     </row>
-    <row r="254" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="254" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN254" s="6"/>
     </row>
-    <row r="255" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="255" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN255" s="6"/>
     </row>
-    <row r="256" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="256" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN256" s="6"/>
     </row>
-    <row r="257" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="257" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN257" s="6"/>
     </row>
-    <row r="258" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="258" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN258" s="6"/>
     </row>
-    <row r="259" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="259" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN259" s="6"/>
     </row>
-    <row r="260" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="260" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN260" s="6"/>
     </row>
-    <row r="261" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="261" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN261" s="6"/>
     </row>
-    <row r="262" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="262" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN262" s="6"/>
     </row>
-    <row r="263" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="263" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN263" s="6"/>
     </row>
-    <row r="264" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="264" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN264" s="6"/>
     </row>
-    <row r="265" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="265" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN265" s="6"/>
     </row>
-    <row r="266" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="266" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN266" s="6"/>
     </row>
-    <row r="267" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="267" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN267" s="6"/>
     </row>
-    <row r="268" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="268" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN268" s="6"/>
     </row>
-    <row r="269" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="269" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN269" s="6"/>
     </row>
-    <row r="270" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="270" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN270" s="6"/>
     </row>
-    <row r="271" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="271" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN271" s="6"/>
     </row>
-    <row r="272" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="272" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN272" s="6"/>
     </row>
-    <row r="273" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="273" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN273" s="6"/>
     </row>
-    <row r="274" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="274" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN274" s="6"/>
     </row>
-    <row r="275" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="275" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN275" s="6"/>
     </row>
-    <row r="276" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="276" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN276" s="6"/>
     </row>
-    <row r="277" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="277" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN277" s="6"/>
     </row>
-    <row r="278" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="278" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN278" s="6"/>
     </row>
-    <row r="279" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="279" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN279" s="6"/>
     </row>
-    <row r="280" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="280" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN280" s="6"/>
     </row>
-    <row r="281" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="281" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN281" s="6"/>
     </row>
-    <row r="282" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="282" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN282" s="6"/>
     </row>
-    <row r="283" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="283" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN283" s="6"/>
     </row>
-    <row r="284" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="284" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN284" s="6"/>
     </row>
-    <row r="285" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="285" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN285" s="6"/>
     </row>
-    <row r="286" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="286" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN286" s="6"/>
     </row>
-    <row r="287" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="287" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN287" s="6"/>
     </row>
-    <row r="288" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="288" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN288" s="6"/>
     </row>
-    <row r="289" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="289" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN289" s="6"/>
     </row>
-    <row r="290" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="290" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN290" s="6"/>
     </row>
-    <row r="291" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="291" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN291" s="6"/>
     </row>
-    <row r="292" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="292" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN292" s="6"/>
     </row>
-    <row r="293" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="293" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN293" s="6"/>
     </row>
-    <row r="294" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="294" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN294" s="6"/>
     </row>
-    <row r="295" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="295" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN295" s="6"/>
     </row>
-    <row r="296" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="296" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN296" s="6"/>
     </row>
-    <row r="297" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="297" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN297" s="6"/>
     </row>
-    <row r="298" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="298" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN298" s="6"/>
     </row>
-    <row r="299" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="299" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN299" s="6"/>
     </row>
-    <row r="300" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="300" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN300" s="6"/>
     </row>
-    <row r="301" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="301" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN301" s="6"/>
     </row>
-    <row r="302" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="302" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN302" s="6"/>
     </row>
-    <row r="303" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="303" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN303" s="6"/>
     </row>
-    <row r="304" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="304" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN304" s="6"/>
     </row>
-    <row r="305" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="305" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN305" s="6"/>
     </row>
-    <row r="306" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="306" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN306" s="6"/>
     </row>
-    <row r="307" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="307" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN307" s="6"/>
     </row>
-    <row r="308" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="308" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN308" s="6"/>
     </row>
-    <row r="309" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="309" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN309" s="6"/>
     </row>
-    <row r="310" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="310" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN310" s="6"/>
     </row>
-    <row r="311" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="311" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN311" s="6"/>
     </row>
-    <row r="312" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="312" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN312" s="6"/>
     </row>
-    <row r="313" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="313" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN313" s="6"/>
     </row>
-    <row r="314" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="314" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN314" s="6"/>
     </row>
-    <row r="315" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="315" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN315" s="6"/>
     </row>
-    <row r="316" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="316" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN316" s="6"/>
     </row>
-    <row r="317" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="317" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN317" s="6"/>
     </row>
-    <row r="318" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="318" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN318" s="6"/>
     </row>
-    <row r="319" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="319" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN319" s="6"/>
     </row>
-    <row r="320" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="320" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN320" s="6"/>
     </row>
-    <row r="321" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="321" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN321" s="6"/>
     </row>
-    <row r="322" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="322" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN322" s="6"/>
     </row>
-    <row r="323" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="323" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN323" s="6"/>
     </row>
-    <row r="324" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="324" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN324" s="6"/>
     </row>
-    <row r="325" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="325" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN325" s="6"/>
     </row>
-    <row r="326" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="326" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN326" s="6"/>
     </row>
-    <row r="327" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="327" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN327" s="6"/>
     </row>
-    <row r="328" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="328" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN328" s="6"/>
     </row>
-    <row r="329" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="329" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN329" s="6"/>
     </row>
-    <row r="330" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="330" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN330" s="6"/>
     </row>
-    <row r="331" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="331" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN331" s="6"/>
     </row>
-    <row r="332" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="332" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN332" s="6"/>
     </row>
-    <row r="333" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="333" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN333" s="6"/>
     </row>
-    <row r="334" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="334" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN334" s="6"/>
     </row>
-    <row r="335" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="335" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN335" s="6"/>
     </row>
-    <row r="336" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="336" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN336" s="6"/>
     </row>
-    <row r="337" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="337" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN337" s="6"/>
     </row>
-    <row r="338" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="338" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN338" s="6"/>
     </row>
-    <row r="339" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="339" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN339" s="6"/>
     </row>
-    <row r="340" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="340" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN340" s="6"/>
     </row>
-    <row r="341" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="341" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN341" s="6"/>
     </row>
-    <row r="342" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="342" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN342" s="6"/>
     </row>
-    <row r="343" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="343" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN343" s="6"/>
     </row>
-    <row r="344" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="344" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN344" s="6"/>
     </row>
-    <row r="345" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="345" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN345" s="6"/>
     </row>
-    <row r="346" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="346" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN346" s="6"/>
     </row>
-    <row r="347" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="347" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN347" s="6"/>
     </row>
-    <row r="348" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="348" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN348" s="6"/>
     </row>
-    <row r="349" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="349" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN349" s="6"/>
     </row>
-    <row r="350" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="350" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN350" s="6"/>
     </row>
-    <row r="351" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="351" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN351" s="6"/>
     </row>
-    <row r="352" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="352" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN352" s="6"/>
     </row>
-    <row r="353" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="353" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN353" s="6"/>
     </row>
-    <row r="354" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="354" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN354" s="6"/>
     </row>
-    <row r="355" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="355" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN355" s="6"/>
     </row>
-    <row r="356" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="356" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN356" s="6"/>
     </row>
-    <row r="357" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="357" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN357" s="6"/>
     </row>
-    <row r="358" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="358" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN358" s="6"/>
     </row>
-    <row r="359" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="359" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN359" s="6"/>
     </row>
-    <row r="360" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="360" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN360" s="6"/>
     </row>
-    <row r="361" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="361" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN361" s="6"/>
     </row>
-    <row r="362" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="362" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN362" s="6"/>
     </row>
-    <row r="363" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="363" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN363" s="6"/>
     </row>
-    <row r="364" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="364" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN364" s="6"/>
     </row>
-    <row r="365" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="365" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN365" s="6"/>
     </row>
-    <row r="366" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="366" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN366" s="6"/>
     </row>
-    <row r="367" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="367" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN367" s="6"/>
     </row>
-    <row r="368" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="368" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN368" s="6"/>
     </row>
-    <row r="369" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="369" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN369" s="6"/>
     </row>
-    <row r="370" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="370" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN370" s="6"/>
     </row>
-    <row r="371" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="371" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN371" s="6"/>
     </row>
-    <row r="372" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="372" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN372" s="6"/>
     </row>
-    <row r="373" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="373" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN373" s="6"/>
     </row>
-    <row r="374" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="374" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN374" s="6"/>
     </row>
-    <row r="375" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="375" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN375" s="6"/>
     </row>
-    <row r="376" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="376" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN376" s="6"/>
     </row>
-    <row r="377" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="377" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN377" s="6"/>
     </row>
-    <row r="378" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="378" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN378" s="6"/>
     </row>
-    <row r="379" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="379" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN379" s="6"/>
     </row>
-    <row r="380" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="380" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN380" s="6"/>
     </row>
-    <row r="381" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="381" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN381" s="6"/>
     </row>
-    <row r="382" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="382" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN382" s="6"/>
     </row>
-    <row r="383" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="383" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN383" s="6"/>
     </row>
-    <row r="384" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="384" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN384" s="6"/>
     </row>
-    <row r="385" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="385" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN385" s="6"/>
     </row>
-    <row r="386" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="386" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN386" s="6"/>
     </row>
-    <row r="387" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="387" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN387" s="6"/>
     </row>
-    <row r="388" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="388" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN388" s="6"/>
     </row>
-    <row r="389" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="389" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN389" s="6"/>
     </row>
-    <row r="390" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="390" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN390" s="6"/>
     </row>
-    <row r="391" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="391" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN391" s="6"/>
     </row>
-    <row r="392" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="392" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN392" s="6"/>
     </row>
-    <row r="393" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="393" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN393" s="6"/>
     </row>
-    <row r="394" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="394" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN394" s="6"/>
     </row>
-    <row r="395" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="395" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN395" s="6"/>
     </row>
-    <row r="396" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="396" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN396" s="6"/>
     </row>
-    <row r="397" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="397" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN397" s="6"/>
     </row>
-    <row r="398" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="398" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN398" s="6"/>
     </row>
-    <row r="399" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="399" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN399" s="6"/>
     </row>
-    <row r="400" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="400" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN400" s="6"/>
     </row>
-    <row r="401" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="401" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN401" s="6"/>
     </row>
-    <row r="402" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="402" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN402" s="6"/>
     </row>
-    <row r="403" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="403" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN403" s="6"/>
     </row>
-    <row r="404" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="404" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN404" s="6"/>
     </row>
-    <row r="405" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="405" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN405" s="6"/>
     </row>
-    <row r="406" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="406" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN406" s="6"/>
     </row>
-    <row r="407" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="407" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN407" s="6"/>
     </row>
-    <row r="408" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="408" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN408" s="6"/>
     </row>
-    <row r="409" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="409" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN409" s="6"/>
     </row>
-    <row r="410" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="410" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN410" s="6"/>
     </row>
-    <row r="411" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="411" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN411" s="6"/>
     </row>
-    <row r="412" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="412" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN412" s="6"/>
     </row>
-    <row r="413" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="413" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN413" s="6"/>
     </row>
-    <row r="414" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="414" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN414" s="6"/>
     </row>
-    <row r="415" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="415" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN415" s="6"/>
     </row>
-    <row r="416" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="416" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN416" s="6"/>
     </row>
-    <row r="417" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="417" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN417" s="6"/>
     </row>
-    <row r="418" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="418" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN418" s="6"/>
     </row>
-    <row r="419" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="419" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN419" s="6"/>
     </row>
-    <row r="420" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="420" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN420" s="6"/>
     </row>
-    <row r="421" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="421" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN421" s="6"/>
     </row>
-    <row r="422" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="422" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN422" s="6"/>
     </row>
-    <row r="423" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="423" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN423" s="6"/>
     </row>
-    <row r="424" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="424" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN424" s="6"/>
     </row>
-    <row r="425" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="425" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN425" s="6"/>
     </row>
-    <row r="426" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="426" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN426" s="6"/>
     </row>
-    <row r="427" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="427" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN427" s="6"/>
     </row>
-    <row r="428" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="428" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN428" s="6"/>
     </row>
-    <row r="429" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="429" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN429" s="6"/>
     </row>
-    <row r="430" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="430" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN430" s="6"/>
     </row>
-    <row r="431" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="431" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN431" s="6"/>
     </row>
-    <row r="432" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="432" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN432" s="6"/>
     </row>
-    <row r="433" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="433" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN433" s="6"/>
     </row>
-    <row r="434" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="434" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN434" s="6"/>
     </row>
-    <row r="435" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="435" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN435" s="6"/>
     </row>
-    <row r="436" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="436" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN436" s="6"/>
     </row>
-    <row r="437" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="437" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN437" s="6"/>
     </row>
-    <row r="438" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="438" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN438" s="6"/>
     </row>
-    <row r="439" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="439" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN439" s="6"/>
     </row>
-    <row r="440" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="440" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN440" s="6"/>
     </row>
-    <row r="441" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="441" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN441" s="6"/>
     </row>
-    <row r="442" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="442" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN442" s="6"/>
     </row>
-    <row r="443" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="443" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN443" s="6"/>
     </row>
-    <row r="444" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="444" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN444" s="6"/>
     </row>
-    <row r="445" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="445" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN445" s="6"/>
     </row>
-    <row r="446" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="446" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN446" s="6"/>
     </row>
-    <row r="447" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="447" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN447" s="6"/>
     </row>
-    <row r="448" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="448" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN448" s="6"/>
     </row>
-    <row r="449" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="449" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN449" s="6"/>
     </row>
-    <row r="450" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="450" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN450" s="6"/>
     </row>
-    <row r="451" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="451" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN451" s="6"/>
     </row>
-    <row r="452" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="452" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN452" s="6"/>
     </row>
-    <row r="453" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="453" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN453" s="6"/>
     </row>
-    <row r="454" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="454" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN454" s="6"/>
     </row>
-    <row r="455" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="455" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN455" s="6"/>
     </row>
-    <row r="456" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="456" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN456" s="6"/>
     </row>
-    <row r="457" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="457" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN457" s="6"/>
     </row>
-    <row r="458" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="458" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN458" s="6"/>
     </row>
-    <row r="459" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="459" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN459" s="6"/>
     </row>
-    <row r="460" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="460" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN460" s="6"/>
     </row>
-    <row r="461" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="461" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN461" s="6"/>
     </row>
-    <row r="462" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="462" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN462" s="6"/>
     </row>
-    <row r="463" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="463" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN463" s="6"/>
     </row>
-    <row r="464" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="464" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN464" s="6"/>
     </row>
-    <row r="465" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="465" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN465" s="6"/>
     </row>
-    <row r="466" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="466" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN466" s="6"/>
     </row>
-    <row r="467" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="467" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN467" s="6"/>
     </row>
-    <row r="468" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="468" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN468" s="6"/>
     </row>
-    <row r="469" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="469" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN469" s="6"/>
     </row>
-    <row r="470" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="470" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN470" s="6"/>
     </row>
-    <row r="471" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="471" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN471" s="6"/>
     </row>
-    <row r="472" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="472" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN472" s="6"/>
     </row>
-    <row r="473" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="473" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN473" s="6"/>
     </row>
-    <row r="474" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="474" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN474" s="6"/>
     </row>
-    <row r="475" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="475" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN475" s="6"/>
     </row>
-    <row r="476" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="476" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN476" s="6"/>
     </row>
-    <row r="477" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="477" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN477" s="6"/>
     </row>
-    <row r="478" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="478" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN478" s="6"/>
     </row>
-    <row r="479" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="479" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN479" s="6"/>
     </row>
-    <row r="480" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="480" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN480" s="6"/>
     </row>
-    <row r="481" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="481" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN481" s="6"/>
     </row>
-    <row r="482" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="482" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN482" s="6"/>
     </row>
-    <row r="483" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="483" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN483" s="6"/>
     </row>
-    <row r="484" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="484" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN484" s="6"/>
     </row>
-    <row r="485" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="485" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN485" s="6"/>
     </row>
-    <row r="486" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="486" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN486" s="6"/>
     </row>
-    <row r="487" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="487" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN487" s="6"/>
     </row>
-    <row r="488" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="488" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN488" s="6"/>
     </row>
-    <row r="489" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="489" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN489" s="6"/>
     </row>
-    <row r="490" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="490" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN490" s="6"/>
     </row>
-    <row r="491" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="491" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN491" s="6"/>
     </row>
-    <row r="492" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="492" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN492" s="6"/>
     </row>
-    <row r="493" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="493" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN493" s="6"/>
     </row>
-    <row r="494" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="494" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN494" s="6"/>
     </row>
-    <row r="495" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="495" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN495" s="6"/>
     </row>
-    <row r="496" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="496" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN496" s="6"/>
     </row>
-    <row r="497" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="497" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN497" s="6"/>
     </row>
-    <row r="498" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="498" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN498" s="6"/>
     </row>
-    <row r="499" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="499" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN499" s="6"/>
     </row>
-    <row r="500" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="500" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN500" s="6"/>
     </row>
-    <row r="501" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="501" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN501" s="6"/>
     </row>
-    <row r="502" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="502" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN502" s="6"/>
     </row>
-    <row r="503" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="503" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN503" s="6"/>
     </row>
-    <row r="504" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="504" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN504" s="6"/>
     </row>
-    <row r="505" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="505" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN505" s="6"/>
     </row>
-    <row r="506" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="506" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN506" s="6"/>
     </row>
-    <row r="507" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="507" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN507" s="6"/>
     </row>
-    <row r="508" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="508" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN508" s="6"/>
     </row>
-    <row r="509" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="509" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN509" s="6"/>
     </row>
-    <row r="510" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="510" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN510" s="6"/>
     </row>
-    <row r="511" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="511" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN511" s="6"/>
     </row>
-    <row r="512" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="512" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN512" s="6"/>
     </row>
-    <row r="513" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="513" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN513" s="6"/>
     </row>
-    <row r="514" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="514" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN514" s="6"/>
     </row>
-    <row r="515" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="515" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN515" s="6"/>
     </row>
-    <row r="516" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="516" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN516" s="6"/>
     </row>
-    <row r="517" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="517" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN517" s="6"/>
     </row>
-    <row r="518" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="518" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN518" s="6"/>
     </row>
-    <row r="519" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="519" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN519" s="6"/>
     </row>
-    <row r="520" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="520" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN520" s="6"/>
     </row>
-    <row r="521" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="521" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN521" s="6"/>
     </row>
-    <row r="522" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="522" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN522" s="6"/>
     </row>
-    <row r="523" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="523" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN523" s="6"/>
     </row>
-    <row r="524" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="524" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN524" s="6"/>
     </row>
-    <row r="525" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="525" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN525" s="6"/>
     </row>
-    <row r="526" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="526" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN526" s="6"/>
     </row>
-    <row r="527" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="527" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN527" s="6"/>
     </row>
-    <row r="528" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="528" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN528" s="6"/>
     </row>
-    <row r="529" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="529" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN529" s="6"/>
     </row>
-    <row r="530" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="530" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN530" s="6"/>
     </row>
-    <row r="531" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="531" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN531" s="6"/>
     </row>
-    <row r="532" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="532" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN532" s="6"/>
     </row>
-    <row r="533" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="533" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN533" s="6"/>
     </row>
-    <row r="534" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="534" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN534" s="6"/>
     </row>
-    <row r="535" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="535" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN535" s="6"/>
     </row>
-    <row r="536" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="536" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN536" s="6"/>
     </row>
-    <row r="537" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="537" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN537" s="6"/>
     </row>
-    <row r="538" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="538" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN538" s="6"/>
     </row>
-    <row r="539" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="539" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN539" s="6"/>
     </row>
-    <row r="540" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="540" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN540" s="6"/>
     </row>
-    <row r="541" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="541" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN541" s="6"/>
     </row>
-    <row r="542" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="542" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN542" s="6"/>
     </row>
-    <row r="543" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="543" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN543" s="6"/>
     </row>
-    <row r="544" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="544" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN544" s="6"/>
     </row>
-    <row r="545" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="545" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN545" s="6"/>
     </row>
-    <row r="546" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="546" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN546" s="6"/>
     </row>
-    <row r="547" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="547" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN547" s="6"/>
     </row>
-    <row r="548" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="548" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN548" s="6"/>
     </row>
-    <row r="549" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="549" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN549" s="6"/>
     </row>
-    <row r="550" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="550" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN550" s="6"/>
     </row>
-    <row r="551" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="551" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN551" s="6"/>
     </row>
-    <row r="552" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="552" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN552" s="6"/>
     </row>
-    <row r="553" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="553" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN553" s="6"/>
     </row>
-    <row r="554" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="554" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN554" s="6"/>
     </row>
-    <row r="555" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="555" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN555" s="6"/>
     </row>
-    <row r="556" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="556" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN556" s="6"/>
     </row>
-    <row r="557" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="557" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN557" s="6"/>
     </row>
-    <row r="558" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="558" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN558" s="6"/>
     </row>
-    <row r="559" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="559" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN559" s="6"/>
     </row>
-    <row r="560" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="560" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN560" s="6"/>
     </row>
-    <row r="561" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="561" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN561" s="6"/>
     </row>
-    <row r="562" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="562" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN562" s="6"/>
     </row>
-    <row r="563" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="563" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN563" s="6"/>
     </row>
-    <row r="564" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="564" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN564" s="6"/>
     </row>
-    <row r="565" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="565" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN565" s="6"/>
     </row>
-    <row r="566" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="566" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN566" s="6"/>
     </row>
-    <row r="567" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="567" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN567" s="6"/>
     </row>
-    <row r="568" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="568" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN568" s="6"/>
     </row>
-    <row r="569" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="569" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN569" s="6"/>
     </row>
-    <row r="570" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="570" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN570" s="6"/>
     </row>
-    <row r="571" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="571" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN571" s="6"/>
     </row>
-    <row r="572" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="572" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN572" s="6"/>
     </row>
-    <row r="573" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="573" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN573" s="6"/>
     </row>
-    <row r="574" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="574" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN574" s="6"/>
     </row>
-    <row r="575" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="575" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN575" s="6"/>
     </row>
-    <row r="576" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="576" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN576" s="6"/>
     </row>
-    <row r="577" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="577" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN577" s="6"/>
     </row>
-    <row r="578" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="578" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN578" s="6"/>
     </row>
-    <row r="579" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="579" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN579" s="6"/>
     </row>
-    <row r="580" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="580" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN580" s="6"/>
     </row>
-    <row r="581" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="581" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN581" s="6"/>
     </row>
-    <row r="582" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="582" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN582" s="6"/>
     </row>
-    <row r="583" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="583" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN583" s="6"/>
     </row>
-    <row r="584" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="584" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN584" s="6"/>
     </row>
-    <row r="585" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="585" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN585" s="6"/>
     </row>
-    <row r="586" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="586" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN586" s="6"/>
     </row>
-    <row r="587" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="587" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN587" s="6"/>
     </row>
-    <row r="588" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="588" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN588" s="6"/>
     </row>
-    <row r="589" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="589" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN589" s="6"/>
     </row>
-    <row r="590" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="590" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN590" s="6"/>
     </row>
-    <row r="591" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="591" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN591" s="6"/>
     </row>
-    <row r="592" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="592" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN592" s="6"/>
     </row>
-    <row r="593" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="593" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN593" s="6"/>
     </row>
-    <row r="594" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="594" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN594" s="6"/>
     </row>
-    <row r="595" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="595" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN595" s="6"/>
     </row>
-    <row r="596" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="596" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN596" s="6"/>
     </row>
-    <row r="597" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="597" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN597" s="6"/>
     </row>
-    <row r="598" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="598" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN598" s="6"/>
     </row>
-    <row r="599" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="599" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN599" s="6"/>
     </row>
-    <row r="600" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="600" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN600" s="6"/>
     </row>
-    <row r="601" spans="66:66" x14ac:dyDescent="0.3">
+    <row r="601" spans="66:66" x14ac:dyDescent="0.25">
       <c r="BN601" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/HistFlowMassConcAnn.xlsx
+++ b/data/HistFlowMassConcAnn.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfelletter\Documents\RW-RDF-Process-Plot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B13609C-2809-4688-9DA0-26F9638E7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A85152-69F6-45B1-B583-099A0A67F89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59F0FA27-635D-4EC0-813F-B52CA9E5C405}"/>
+    <workbookView xWindow="10725" yWindow="1440" windowWidth="19245" windowHeight="14970" xr2:uid="{59F0FA27-635D-4EC0-813F-B52CA9E5C405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,15 +39,31 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={FC76F462-2E90-4330-A0E9-0F650F6597C0}</author>
+    <author>Conor Felletter</author>
   </authors>
   <commentList>
-    <comment ref="V13" authorId="0" shapeId="0" xr:uid="{FC76F462-2E90-4330-A0E9-0F650F6597C0}">
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{3681EA24-FC68-4BAF-B373-D7BC863AE6CA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    There is an issue with the data from SLOAD, the 2011-2012 is messed up. Mark is looking into it. This is the sum of the LC gage.</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Conor Felletter:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These come from 2020 NFSM 20231002 run for v6</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -56,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>Year</t>
   </si>
@@ -260,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +283,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,12 +316,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -307,15 +329,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,6 +370,7 @@
       <sheetName val="Compare_RWInput"/>
       <sheetName val="monthlySaltMass"/>
       <sheetName val="annualCYFlow"/>
+      <sheetName val="compareParkerAnnual"/>
       <sheetName val="annualCYSaltMass"/>
       <sheetName val="annualCYConc"/>
       <sheetName val="FactSheet"/>
@@ -359,15 +380,33 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="905">
+          <cell r="B905">
+            <v>36556</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="905">
+          <cell r="C905">
+            <v>406.1</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="11">
+        <row r="905">
+          <cell r="C905">
+            <v>34607.781265313439</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12">
         <row r="80">
           <cell r="A80">
@@ -418,6 +457,21 @@
           <cell r="U80">
             <v>8655796</v>
           </cell>
+          <cell r="V80">
+            <v>9065665</v>
+          </cell>
+          <cell r="W80">
+            <v>110901</v>
+          </cell>
+          <cell r="X80">
+            <v>10692374</v>
+          </cell>
+          <cell r="Y80">
+            <v>7895680</v>
+          </cell>
+          <cell r="Z80">
+            <v>6509232</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="A81">
@@ -468,6 +522,21 @@
           <cell r="U81">
             <v>8090783</v>
           </cell>
+          <cell r="V81">
+            <v>8504609</v>
+          </cell>
+          <cell r="W81">
+            <v>103534</v>
+          </cell>
+          <cell r="X81">
+            <v>10209550</v>
+          </cell>
+          <cell r="Y81">
+            <v>7699451</v>
+          </cell>
+          <cell r="Z81">
+            <v>6097241</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="A82">
@@ -518,6 +587,21 @@
           <cell r="U82">
             <v>7912550</v>
           </cell>
+          <cell r="V82">
+            <v>8215598</v>
+          </cell>
+          <cell r="W82">
+            <v>77081</v>
+          </cell>
+          <cell r="X82">
+            <v>10447813</v>
+          </cell>
+          <cell r="Y82">
+            <v>7565419</v>
+          </cell>
+          <cell r="Z82">
+            <v>6140916</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="A83">
@@ -568,6 +652,21 @@
           <cell r="U83">
             <v>8365822</v>
           </cell>
+          <cell r="V83">
+            <v>8688617</v>
+          </cell>
+          <cell r="W83">
+            <v>78503</v>
+          </cell>
+          <cell r="X83">
+            <v>9381874</v>
+          </cell>
+          <cell r="Y83">
+            <v>7303335</v>
+          </cell>
+          <cell r="Z83">
+            <v>5775140</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="A84">
@@ -618,6 +717,21 @@
           <cell r="U84">
             <v>8557930</v>
           </cell>
+          <cell r="V84">
+            <v>8976822</v>
+          </cell>
+          <cell r="W84">
+            <v>131876</v>
+          </cell>
+          <cell r="X84">
+            <v>9345461</v>
+          </cell>
+          <cell r="Y84">
+            <v>6779789</v>
+          </cell>
+          <cell r="Z84">
+            <v>5528967</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="A85">
@@ -668,6 +782,21 @@
           <cell r="U85">
             <v>8431731</v>
           </cell>
+          <cell r="V85">
+            <v>9040711</v>
+          </cell>
+          <cell r="W85">
+            <v>565810</v>
+          </cell>
+          <cell r="X85">
+            <v>8274646</v>
+          </cell>
+          <cell r="Y85">
+            <v>6370120</v>
+          </cell>
+          <cell r="Z85">
+            <v>5270598</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="A86">
@@ -718,6 +847,21 @@
           <cell r="U86">
             <v>8676794</v>
           </cell>
+          <cell r="V86">
+            <v>9098803</v>
+          </cell>
+          <cell r="W86">
+            <v>157055</v>
+          </cell>
+          <cell r="X86">
+            <v>9259950</v>
+          </cell>
+          <cell r="Y86">
+            <v>6592938</v>
+          </cell>
+          <cell r="Z86">
+            <v>5672989</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="A87">
@@ -768,6 +912,21 @@
           <cell r="U87">
             <v>8365968</v>
           </cell>
+          <cell r="V87">
+            <v>8840828</v>
+          </cell>
+          <cell r="W87">
+            <v>105398</v>
+          </cell>
+          <cell r="X87">
+            <v>9362637</v>
+          </cell>
+          <cell r="Y87">
+            <v>6565027</v>
+          </cell>
+          <cell r="Z87">
+            <v>5673094</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="A88">
@@ -818,6 +977,21 @@
           <cell r="U88">
             <v>9313839</v>
           </cell>
+          <cell r="V88">
+            <v>9800340</v>
+          </cell>
+          <cell r="W88">
+            <v>103354</v>
+          </cell>
+          <cell r="X88">
+            <v>9540895</v>
+          </cell>
+          <cell r="Y88">
+            <v>6848048</v>
+          </cell>
+          <cell r="Z88">
+            <v>5672660</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="A89">
@@ -868,6 +1042,21 @@
           <cell r="U89">
             <v>8466135</v>
           </cell>
+          <cell r="V89">
+            <v>8890543</v>
+          </cell>
+          <cell r="W89">
+            <v>88693</v>
+          </cell>
+          <cell r="X89">
+            <v>9481070</v>
+          </cell>
+          <cell r="Y89">
+            <v>6535570</v>
+          </cell>
+          <cell r="Z89">
+            <v>5407376</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="A90">
@@ -918,6 +1107,21 @@
           <cell r="U90">
             <v>8351825</v>
           </cell>
+          <cell r="V90">
+            <v>8889880</v>
+          </cell>
+          <cell r="W90">
+            <v>284473</v>
+          </cell>
+          <cell r="X90">
+            <v>9452548</v>
+          </cell>
+          <cell r="Y90">
+            <v>6451901</v>
+          </cell>
+          <cell r="Z90">
+            <v>5479000</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="A91">
@@ -968,6 +1172,21 @@
           <cell r="U91">
             <v>13844356</v>
           </cell>
+          <cell r="V91">
+            <v>14237446</v>
+          </cell>
+          <cell r="W91">
+            <v>272921</v>
+          </cell>
+          <cell r="X91">
+            <v>9207507</v>
+          </cell>
+          <cell r="Y91">
+            <v>6686897</v>
+          </cell>
+          <cell r="Z91">
+            <v>5720870.205000001</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="A92">
@@ -1018,6 +1237,21 @@
           <cell r="U92">
             <v>8248261</v>
           </cell>
+          <cell r="V92">
+            <v>8611920</v>
+          </cell>
+          <cell r="W92">
+            <v>122103</v>
+          </cell>
+          <cell r="X92">
+            <v>9386795</v>
+          </cell>
+          <cell r="Y92">
+            <v>6646432</v>
+          </cell>
+          <cell r="Z92">
+            <v>5717379.2449999992</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="A93">
@@ -1068,6 +1302,21 @@
           <cell r="U93">
             <v>8008293</v>
           </cell>
+          <cell r="V93">
+            <v>8501941</v>
+          </cell>
+          <cell r="W93">
+            <v>111572</v>
+          </cell>
+          <cell r="X93">
+            <v>9375806</v>
+          </cell>
+          <cell r="Y93">
+            <v>6335191</v>
+          </cell>
+          <cell r="Z93">
+            <v>5311384</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="A94">
@@ -1118,6 +1367,21 @@
           <cell r="U94">
             <v>8066266</v>
           </cell>
+          <cell r="V94">
+            <v>8438780</v>
+          </cell>
+          <cell r="W94">
+            <v>104903</v>
+          </cell>
+          <cell r="X94">
+            <v>9615156</v>
+          </cell>
+          <cell r="Y94">
+            <v>6335907</v>
+          </cell>
+          <cell r="Z94">
+            <v>5472565</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="A95">
@@ -1168,6 +1432,21 @@
           <cell r="U95">
             <v>8918927</v>
           </cell>
+          <cell r="V95">
+            <v>9321596</v>
+          </cell>
+          <cell r="W95">
+            <v>93311</v>
+          </cell>
+          <cell r="X95">
+            <v>9413492</v>
+          </cell>
+          <cell r="Y95">
+            <v>6276391</v>
+          </cell>
+          <cell r="Z95">
+            <v>5360230</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="A96">
@@ -1218,6 +1497,21 @@
           <cell r="U96">
             <v>9339231</v>
           </cell>
+          <cell r="V96">
+            <v>9738628</v>
+          </cell>
+          <cell r="W96">
+            <v>117856</v>
+          </cell>
+          <cell r="X96">
+            <v>9276628</v>
+          </cell>
+          <cell r="Y96">
+            <v>6306713</v>
+          </cell>
+          <cell r="Z96">
+            <v>5408231</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="A97">
@@ -1268,6 +1562,21 @@
           <cell r="U97">
             <v>8861425</v>
           </cell>
+          <cell r="V97">
+            <v>9300493</v>
+          </cell>
+          <cell r="W97">
+            <v>157535</v>
+          </cell>
+          <cell r="X97">
+            <v>8731564</v>
+          </cell>
+          <cell r="Y97">
+            <v>6255692</v>
+          </cell>
+          <cell r="Z97">
+            <v>5350274</v>
+          </cell>
         </row>
         <row r="98">
           <cell r="A98">
@@ -1318,6 +1627,21 @@
           <cell r="U98">
             <v>9234721</v>
           </cell>
+          <cell r="V98">
+            <v>9627472</v>
+          </cell>
+          <cell r="W98">
+            <v>91523</v>
+          </cell>
+          <cell r="X98">
+            <v>9116511</v>
+          </cell>
+          <cell r="Y98">
+            <v>6285954</v>
+          </cell>
+          <cell r="Z98">
+            <v>5317008</v>
+          </cell>
         </row>
         <row r="99">
           <cell r="A99">
@@ -1345,7 +1669,7 @@
             <v>1432500</v>
           </cell>
           <cell r="M99">
-            <v>1392421.5519999999</v>
+            <v>1392421</v>
           </cell>
           <cell r="O99">
             <v>456104</v>
@@ -1368,9 +1692,90 @@
           <cell r="U99">
             <v>9197627</v>
           </cell>
+          <cell r="V99">
+            <v>9693783</v>
+          </cell>
+          <cell r="W99">
+            <v>231863</v>
+          </cell>
+          <cell r="X99">
+            <v>8514707</v>
+          </cell>
+          <cell r="Y99">
+            <v>6151190</v>
+          </cell>
+          <cell r="Z99">
+            <v>5289855</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>2020</v>
+          </cell>
+          <cell r="B100">
+            <v>1207832</v>
+          </cell>
+          <cell r="C100">
+            <v>1864343</v>
+          </cell>
+          <cell r="G100">
+            <v>939557</v>
+          </cell>
+          <cell r="H100">
+            <v>118465</v>
+          </cell>
+          <cell r="I100">
+            <v>2680203</v>
+          </cell>
+          <cell r="K100">
+            <v>957163.75000000012</v>
+          </cell>
+          <cell r="L100">
+            <v>1338279</v>
+          </cell>
+          <cell r="M100">
+            <v>953454</v>
+          </cell>
+          <cell r="O100">
+            <v>119694</v>
+          </cell>
+          <cell r="P100">
+            <v>312618</v>
+          </cell>
+          <cell r="Q100">
+            <v>2972988</v>
+          </cell>
+          <cell r="R100">
+            <v>28716</v>
+          </cell>
+          <cell r="S100">
+            <v>403185</v>
+          </cell>
+          <cell r="T100">
+            <v>595913</v>
+          </cell>
+          <cell r="U100">
+            <v>8439058</v>
+          </cell>
+          <cell r="V100">
+            <v>8805412</v>
+          </cell>
+          <cell r="W100">
+            <v>126032</v>
+          </cell>
+          <cell r="X100">
+            <v>8782929</v>
+          </cell>
+          <cell r="Y100">
+            <v>6243045</v>
+          </cell>
+          <cell r="Z100">
+            <v>5310524</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
         <row r="80">
           <cell r="B80">
             <v>492244.46959392144</v>
@@ -2112,7 +2517,7 @@
             <v>5371056.0934543665</v>
           </cell>
           <cell r="Z91">
-            <v>6181071.1652763756</v>
+            <v>5300369.3382932562</v>
           </cell>
         </row>
         <row r="92">
@@ -2174,7 +2579,7 @@
             <v>5156062.8408645475</v>
           </cell>
           <cell r="Z92">
-            <v>6083167.78086494</v>
+            <v>5251977.3485417254</v>
           </cell>
         </row>
         <row r="93">
@@ -2295,7 +2700,7 @@
             <v>7589950.3574744361</v>
           </cell>
           <cell r="Y94">
-            <v>5127397.0484449277</v>
+            <v>5154935.5790005885</v>
           </cell>
           <cell r="Z94">
             <v>5171207.9243171867</v>
@@ -2357,7 +2762,7 @@
             <v>7864639.088887644</v>
           </cell>
           <cell r="Y95">
-            <v>5495199.6928309845</v>
+            <v>5412244.5349286404</v>
           </cell>
           <cell r="Z95">
             <v>5294084.3098068088</v>
@@ -2419,7 +2824,7 @@
             <v>7542794.2850579806</v>
           </cell>
           <cell r="Y96">
-            <v>5429845.0818609037</v>
+            <v>5355317.3273011474</v>
           </cell>
           <cell r="Z96">
             <v>5254607.9436530657</v>
@@ -2445,7 +2850,7 @@
             <v>694841.61897117423</v>
           </cell>
           <cell r="L97">
-            <v>1521821.8695372608</v>
+            <v>1521913.2212140772</v>
           </cell>
           <cell r="M97">
             <v>207441.01211990818</v>
@@ -2481,7 +2886,7 @@
             <v>7062809.1621430404</v>
           </cell>
           <cell r="Y97">
-            <v>5368895.775208395</v>
+            <v>5229946.966579075</v>
           </cell>
           <cell r="Z97">
             <v>5106608.3046326963</v>
@@ -2489,130 +2894,192 @@
         </row>
         <row r="98">
           <cell r="B98">
-            <v>452793.42343154573</v>
+            <v>452810.27256134909</v>
           </cell>
           <cell r="C98">
-            <v>1052032.6078218769</v>
+            <v>1051298.0180681378</v>
           </cell>
           <cell r="G98">
-            <v>520128.76497096522</v>
+            <v>520302.227755528</v>
           </cell>
           <cell r="H98">
-            <v>104482.61493051531</v>
+            <v>104452.41808544435</v>
           </cell>
           <cell r="I98">
-            <v>2118329.8070087912</v>
+            <v>2119269.7675331212</v>
           </cell>
           <cell r="K98">
             <v>442729.14372603362</v>
           </cell>
           <cell r="L98">
-            <v>729408.63687505922</v>
+            <v>730671.02979066852</v>
           </cell>
           <cell r="M98">
-            <v>157561.15531714642</v>
+            <v>157395.56378098755</v>
           </cell>
           <cell r="O98">
-            <v>74848.61218468078</v>
+            <v>74936.951383225183</v>
           </cell>
           <cell r="P98">
-            <v>133945.08140400203</v>
+            <v>133132.97254597698</v>
           </cell>
           <cell r="Q98">
-            <v>1387396.9556558104</v>
+            <v>1380567.0590985329</v>
           </cell>
           <cell r="R98">
-            <v>40941.688829724197</v>
+            <v>41012.422243762987</v>
           </cell>
           <cell r="S98">
-            <v>80457.555894058372</v>
+            <v>80303.430565930801</v>
           </cell>
           <cell r="T98">
-            <v>246998.22217172576</v>
+            <v>245360.05413598035</v>
           </cell>
           <cell r="U98">
-            <v>5431981.0079522878</v>
+            <v>5431329.1242965879</v>
           </cell>
           <cell r="V98">
             <v>6415387.9063059613</v>
           </cell>
           <cell r="W98">
-            <v>252509.76096666919</v>
+            <v>252985.76380596071</v>
           </cell>
           <cell r="X98">
-            <v>7077863.12003149</v>
+            <v>7074655.7049378864</v>
           </cell>
           <cell r="Y98">
-            <v>5235569.6272892859</v>
+            <v>5057595.2514697118</v>
           </cell>
           <cell r="Z98">
-            <v>4896711.2797276853</v>
+            <v>4896714.8662573779</v>
           </cell>
         </row>
         <row r="99">
           <cell r="B99">
-            <v>582892.58697738731</v>
+            <v>581871.84469176584</v>
           </cell>
           <cell r="C99">
-            <v>1389795.2165838114</v>
+            <v>1389429.8815309987</v>
           </cell>
           <cell r="G99">
-            <v>844645.23538210534</v>
+            <v>839808.66412583238</v>
           </cell>
           <cell r="H99">
-            <v>290982.16176627507</v>
+            <v>287697.70385974681</v>
           </cell>
           <cell r="I99">
-            <v>3122692.1057380354</v>
+            <v>3111342.1526369485</v>
           </cell>
           <cell r="K99">
             <v>363891.08685548854</v>
           </cell>
           <cell r="L99">
-            <v>643567.16406863462</v>
+            <v>646988.88580051693</v>
           </cell>
           <cell r="M99">
-            <v>277886.15726461547</v>
+            <v>278289.06131759525</v>
           </cell>
           <cell r="O99">
-            <v>231455.21707043075</v>
+            <v>229154.41557951164</v>
           </cell>
           <cell r="P99">
-            <v>225560.1662420498</v>
+            <v>219672.33062273072</v>
           </cell>
           <cell r="Q99">
-            <v>1752785.1514620751</v>
+            <v>1736319.9051531523</v>
           </cell>
           <cell r="R99">
-            <v>102696.66441333762</v>
+            <v>104885.28535224003</v>
           </cell>
           <cell r="S99">
-            <v>106228.4397701016</v>
+            <v>105049.33149085252</v>
           </cell>
           <cell r="T99">
-            <v>561223.17160150758</v>
+            <v>550739.88712526183</v>
           </cell>
           <cell r="U99">
-            <v>5681594.2023974052</v>
+            <v>5686983.6014872361</v>
           </cell>
           <cell r="V99">
-            <v>6725266.8753222935</v>
+            <v>6729916.6537544075</v>
           </cell>
           <cell r="W99">
-            <v>540039.77681966336</v>
+            <v>562879.31348362367</v>
           </cell>
           <cell r="X99">
-            <v>6490008.479351324</v>
+            <v>6470274.3584156726</v>
           </cell>
           <cell r="Y99">
-            <v>4898584.424195868</v>
+            <v>4809931.4616813622</v>
           </cell>
           <cell r="Z99">
-            <v>4704414.8133121077</v>
+            <v>4709643.0826131385</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>466139.91962163011</v>
+          </cell>
+          <cell r="C100">
+            <v>1131820.7478337155</v>
+          </cell>
+          <cell r="G100">
+            <v>543736.84540163982</v>
+          </cell>
+          <cell r="H100">
+            <v>128711.82185303635</v>
+          </cell>
+          <cell r="I100">
+            <v>2205214.7575011472</v>
+          </cell>
+          <cell r="K100">
+            <v>335924.83828601392</v>
+          </cell>
+          <cell r="L100">
+            <v>641354.09686039831</v>
+          </cell>
+          <cell r="M100">
+            <v>225067.71809406285</v>
+          </cell>
+          <cell r="O100">
+            <v>101143.88401094775</v>
+          </cell>
+          <cell r="P100">
+            <v>149702.49593440385</v>
+          </cell>
+          <cell r="Q100">
+            <v>1335901.5684575534</v>
+          </cell>
+          <cell r="R100">
+            <v>43723.937674623296</v>
+          </cell>
+          <cell r="S100">
+            <v>81428.424369316315</v>
+          </cell>
+          <cell r="T100">
+            <v>287866.40984920476</v>
+          </cell>
+          <cell r="U100">
+            <v>4871140.7608720958</v>
+          </cell>
+          <cell r="V100">
+            <v>5847130.1987414807</v>
+          </cell>
+          <cell r="W100">
+            <v>360955.80501791986</v>
+          </cell>
+          <cell r="X100">
+            <v>6692791.8232992422</v>
+          </cell>
+          <cell r="Y100">
+            <v>4892031.5842699753</v>
+          </cell>
+          <cell r="Z100">
+            <v>4765537.0758653097</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
+      <sheetData sheetId="15">
         <row r="80">
           <cell r="C80">
             <v>274.59472522938319</v>
@@ -3354,7 +3821,7 @@
             <v>590.74830967188518</v>
           </cell>
           <cell r="AA91">
-            <v>679.83973343689911</v>
+            <v>681.41465833168638</v>
           </cell>
         </row>
         <row r="92">
@@ -3416,7 +3883,7 @@
             <v>570.55441364629928</v>
           </cell>
           <cell r="AA92">
-            <v>674.1344896248529</v>
+            <v>675.60565626008258</v>
           </cell>
         </row>
         <row r="93">
@@ -3537,7 +4004,7 @@
             <v>580.5639085626899</v>
           </cell>
           <cell r="Z94">
-            <v>598.31538033036065</v>
+            <v>598.38663045401381</v>
           </cell>
           <cell r="AA94">
             <v>694.97391634452947</v>
@@ -3599,7 +4066,7 @@
             <v>614.46262656833392</v>
           </cell>
           <cell r="Z95">
-            <v>634.43779939780177</v>
+            <v>634.21258094022483</v>
           </cell>
           <cell r="AA95">
             <v>726.39837094676898</v>
@@ -3661,7 +4128,7 @@
             <v>598.01152691473669</v>
           </cell>
           <cell r="Z96">
-            <v>624.48908190894372</v>
+            <v>624.52463644690977</v>
           </cell>
           <cell r="AA96">
             <v>714.58273355927281</v>
@@ -3687,7 +4154,7 @@
             <v>215.1253750732466</v>
           </cell>
           <cell r="M97">
-            <v>374.81893774465141</v>
+            <v>374.84143731516679</v>
           </cell>
           <cell r="N97">
             <v>152.1691304165694</v>
@@ -3723,7 +4190,7 @@
             <v>594.91218389970004</v>
           </cell>
           <cell r="Z97">
-            <v>614.92929793877101</v>
+            <v>614.87857453659797</v>
           </cell>
           <cell r="AA97">
             <v>701.97873564980023</v>
@@ -3731,513 +4198,196 @@
         </row>
         <row r="98">
           <cell r="C98">
-            <v>321.88048706699487</v>
+            <v>321.89246472794821</v>
           </cell>
           <cell r="D98">
-            <v>495.7354021468505</v>
+            <v>495.3892511394813</v>
           </cell>
           <cell r="H98">
-            <v>459.16212159221431</v>
+            <v>459.31525201979531</v>
           </cell>
           <cell r="I98">
-            <v>1042.2811995605412</v>
+            <v>1041.9799666336621</v>
           </cell>
           <cell r="J98">
-            <v>686.43049836562795</v>
+            <v>686.7350862390673</v>
           </cell>
           <cell r="L98">
             <v>235.59624218271705</v>
           </cell>
           <cell r="M98">
-            <v>338.44980820842693</v>
+            <v>339.03556579144941</v>
           </cell>
           <cell r="N98">
-            <v>165.42613021711415</v>
+            <v>165.25227285380447</v>
           </cell>
           <cell r="P98">
-            <v>718.53630584887685</v>
+            <v>719.38434991450526</v>
           </cell>
           <cell r="Q98">
-            <v>379.58874833350029</v>
+            <v>377.28730223561422</v>
           </cell>
           <cell r="R98">
-            <v>370.19764333352327</v>
+            <v>368.37522935213985</v>
           </cell>
           <cell r="S98">
-            <v>1400.2118205068587</v>
+            <v>1402.6309137409905</v>
           </cell>
           <cell r="T98">
-            <v>149.62692247395569</v>
+            <v>149.34029559016886</v>
           </cell>
           <cell r="U98">
-            <v>414.41578267792698</v>
+            <v>411.66724998517179</v>
           </cell>
           <cell r="V98">
-            <v>432.61532227124121</v>
+            <v>432.563404774221</v>
           </cell>
           <cell r="W98">
             <v>490.0925381034607</v>
           </cell>
           <cell r="X98">
-            <v>2029.1556275471737</v>
+            <v>2032.9807622127773</v>
           </cell>
           <cell r="Y98">
-            <v>571.02788984668655</v>
+            <v>570.74758473938095</v>
           </cell>
           <cell r="Z98">
-            <v>591.12612264992663</v>
+            <v>591.75277811450724</v>
           </cell>
           <cell r="AA98">
-            <v>677.33671544221863</v>
+            <v>677.33721154829936</v>
           </cell>
         </row>
         <row r="99">
           <cell r="C99">
-            <v>230.21450047712716</v>
+            <v>229.81135643198024</v>
           </cell>
           <cell r="D99">
-            <v>306.52619729848954</v>
+            <v>306.44562084870597</v>
           </cell>
           <cell r="H99">
-            <v>288.09813171967585</v>
+            <v>286.44843657609169</v>
           </cell>
           <cell r="I99">
-            <v>329.2748257924157</v>
+            <v>325.55813986764997</v>
           </cell>
           <cell r="J99">
-            <v>382.40952219361458</v>
+            <v>381.01959004682004</v>
           </cell>
           <cell r="L99">
             <v>254.41641235606158</v>
           </cell>
           <cell r="M99">
-            <v>330.42026883071554</v>
+            <v>332.17704928446767</v>
           </cell>
           <cell r="N99">
-            <v>146.77889363080126</v>
+            <v>146.99176499061701</v>
           </cell>
           <cell r="P99">
-            <v>373.22482810937862</v>
+            <v>369.51475299493092</v>
           </cell>
           <cell r="Q99">
-            <v>299.6455762210706</v>
+            <v>291.82387646690137</v>
           </cell>
           <cell r="R99">
-            <v>296.02371759161241</v>
+            <v>293.24294128291132</v>
           </cell>
           <cell r="S99">
-            <v>626.20315129708081</v>
+            <v>639.5484857026787</v>
           </cell>
           <cell r="T99">
-            <v>153.57573221839567</v>
+            <v>151.87108120646002</v>
           </cell>
           <cell r="U99">
-            <v>302.5851326377491</v>
+            <v>296.93303881084563</v>
           </cell>
           <cell r="V99">
-            <v>454.31999602723619</v>
+            <v>454.75095108770984</v>
           </cell>
           <cell r="W99">
-            <v>510.25076278270308</v>
+            <v>510.60354476678503</v>
           </cell>
           <cell r="X99">
-            <v>1713.0172317273559</v>
+            <v>1785.4647097639556</v>
           </cell>
           <cell r="Y99">
-            <v>560.53067232673538</v>
+            <v>558.88238510144868</v>
           </cell>
           <cell r="Z99">
-            <v>575.67709005536449</v>
+            <v>575.10504777124424</v>
           </cell>
           <cell r="AA99">
-            <v>653.99896680667268</v>
+            <v>654.8045088192398</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>283.84235324117924</v>
+          </cell>
+          <cell r="D100">
+            <v>446.4977428509668</v>
+          </cell>
+          <cell r="H100">
+            <v>425.63081633152638</v>
+          </cell>
+          <cell r="I100">
+            <v>799.09021398725361</v>
+          </cell>
+          <cell r="J100">
+            <v>605.13271763370165</v>
+          </cell>
+          <cell r="L100">
+            <v>258.12098134525877</v>
+          </cell>
+          <cell r="M100">
+            <v>352.46714720921426</v>
+          </cell>
+          <cell r="N100">
+            <v>173.61246205899812</v>
+          </cell>
+          <cell r="P100">
+            <v>621.49076478353129</v>
+          </cell>
+          <cell r="Q100">
+            <v>352.19443889987139</v>
+          </cell>
+          <cell r="R100">
+            <v>330.48270511014505</v>
+          </cell>
+          <cell r="S100">
+            <v>1119.857480150439</v>
+          </cell>
+          <cell r="T100">
+            <v>148.53852201842827</v>
+          </cell>
+          <cell r="U100">
+            <v>355.28393070800604</v>
+          </cell>
+          <cell r="V100">
+            <v>424.52585089473257</v>
+          </cell>
+          <cell r="W100">
+            <v>488.38297560636585</v>
+          </cell>
+          <cell r="X100">
+            <v>2106.3989804176722</v>
+          </cell>
+          <cell r="Y100">
+            <v>560.44807006865244</v>
+          </cell>
+          <cell r="Z100">
+            <v>576.31539409054392</v>
+          </cell>
+          <cell r="AA100">
+            <v>659.99692197982711</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instructions"/>
-      <sheetName val="CompareUSGS,LCHDB,GL"/>
-      <sheetName val="NFvsGLdatasources"/>
-      <sheetName val="lchdb2Data"/>
-      <sheetName val="ExcelToRW"/>
-      <sheetName val="OldData"/>
-      <sheetName val="%Diff"/>
-      <sheetName val="Compare"/>
-      <sheetName val="CompareAnn"/>
-      <sheetName val="SLOADflow"/>
-      <sheetName val="CompareSLOAD"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="32">
-          <cell r="E32">
-            <v>9099265.1691899989</v>
-          </cell>
-          <cell r="F32">
-            <v>111272.86347</v>
-          </cell>
-          <cell r="G32">
-            <v>10675984.840129999</v>
-          </cell>
-          <cell r="J32">
-            <v>7616896.2292449996</v>
-          </cell>
-          <cell r="K32">
-            <v>6525416.1468600007</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>8526233.8423900008</v>
-          </cell>
-          <cell r="F33">
-            <v>103699.27877000002</v>
-          </cell>
-          <cell r="G33">
-            <v>10205835.72631</v>
-          </cell>
-          <cell r="J33">
-            <v>7087490.3194419993</v>
-          </cell>
-          <cell r="K33">
-            <v>6115743.2897799993</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>8238587.5492199995</v>
-          </cell>
-          <cell r="F34">
-            <v>77310.595820000002</v>
-          </cell>
-          <cell r="G34">
-            <v>10442237.66148</v>
-          </cell>
-          <cell r="J34">
-            <v>7247326.1708239997</v>
-          </cell>
-          <cell r="K34">
-            <v>6152645.7797899991</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>8705518.4126199987</v>
-          </cell>
-          <cell r="F35">
-            <v>78757.190260000003</v>
-          </cell>
-          <cell r="G35">
-            <v>9365253.7418300007</v>
-          </cell>
-          <cell r="J35">
-            <v>6819441.9758599978</v>
-          </cell>
-          <cell r="K35">
-            <v>5778762.0748699997</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>9007615.7405500002</v>
-          </cell>
-          <cell r="F36">
-            <v>132408.23578999998</v>
-          </cell>
-          <cell r="G36">
-            <v>9345125.5607100017</v>
-          </cell>
-          <cell r="J36">
-            <v>6552708.2606699998</v>
-          </cell>
-          <cell r="K36">
-            <v>5538394.0686800005</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>9058094.2209699992</v>
-          </cell>
-          <cell r="F37">
-            <v>569639.71924000001</v>
-          </cell>
-          <cell r="G37">
-            <v>8275510.1789799994</v>
-          </cell>
-          <cell r="J37">
-            <v>6185430.7238099994</v>
-          </cell>
-          <cell r="K37">
-            <v>5283846.8035200005</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38">
-            <v>9141791.1414199993</v>
-          </cell>
-          <cell r="F38">
-            <v>157231.50154000003</v>
-          </cell>
-          <cell r="G38">
-            <v>9260297.2726699989</v>
-          </cell>
-          <cell r="J38">
-            <v>6721389.7854499994</v>
-          </cell>
-          <cell r="K38">
-            <v>5684221.2210200001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>8818509.7916700002</v>
-          </cell>
-          <cell r="F39">
-            <v>104941.36967000001</v>
-          </cell>
-          <cell r="G39">
-            <v>9362972.6949199997</v>
-          </cell>
-          <cell r="J39">
-            <v>6711345.4026200008</v>
-          </cell>
-          <cell r="K39">
-            <v>5647591.9411899997</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>9761814.9459099993</v>
-          </cell>
-          <cell r="F40">
-            <v>103210.45990000002</v>
-          </cell>
-          <cell r="G40">
-            <v>9545338.8429499995</v>
-          </cell>
-          <cell r="J40">
-            <v>6698509.2752799997</v>
-          </cell>
-          <cell r="K40">
-            <v>5655507.1254700003</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>8859876.7719000001</v>
-          </cell>
-          <cell r="F41">
-            <v>88476.758189999993</v>
-          </cell>
-          <cell r="G41">
-            <v>9480056.28101</v>
-          </cell>
-          <cell r="J41">
-            <v>6389984.0838800007</v>
-          </cell>
-          <cell r="K41">
-            <v>5376293.6359999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42">
-            <v>8868191.2632999998</v>
-          </cell>
-          <cell r="F42">
-            <v>279804.10966000002</v>
-          </cell>
-          <cell r="G42">
-            <v>9450794.0288699996</v>
-          </cell>
-          <cell r="J42">
-            <v>6371203.6910100002</v>
-          </cell>
-          <cell r="K42">
-            <v>5388080.2757400004</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43">
-            <v>14197605.51471</v>
-          </cell>
-          <cell r="F43">
-            <v>271506.04135999997</v>
-          </cell>
-          <cell r="G43">
-            <v>9206305.1891099978</v>
-          </cell>
-          <cell r="J43">
-            <v>6714205.950389999</v>
-          </cell>
-          <cell r="K43">
-            <v>5694961.7777900007</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>8591033.8576400001</v>
-          </cell>
-          <cell r="F44">
-            <v>121515.10162999999</v>
-          </cell>
-          <cell r="G44">
-            <v>9388443.7823100016</v>
-          </cell>
-          <cell r="J44">
-            <v>6711596.9608499995</v>
-          </cell>
-          <cell r="K44">
-            <v>5697381.3327899985</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>8485015.4549299981</v>
-          </cell>
-          <cell r="F45">
-            <v>111391.07192999999</v>
-          </cell>
-          <cell r="G45">
-            <v>9375282.3967000004</v>
-          </cell>
-          <cell r="J45">
-            <v>6335016.2650700007</v>
-          </cell>
-          <cell r="K45">
-            <v>5288892.6686399998</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>8424521.0953299999</v>
-          </cell>
-          <cell r="F46">
-            <v>104726.67175000001</v>
-          </cell>
-          <cell r="G46">
-            <v>9614840.053270001</v>
-          </cell>
-          <cell r="J46">
-            <v>6455041.1866299994</v>
-          </cell>
-          <cell r="K46">
-            <v>5442456.5639599999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>9293467.7076600008</v>
-          </cell>
-          <cell r="F47">
-            <v>92729.762810000015</v>
-          </cell>
-          <cell r="G47">
-            <v>9414000.1577400006</v>
-          </cell>
-          <cell r="J47">
-            <v>6276298.9256199989</v>
-          </cell>
-          <cell r="K47">
-            <v>5337246.3571800003</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>9711319.3245100006</v>
-          </cell>
-          <cell r="F48">
-            <v>117433.74210999999</v>
-          </cell>
-          <cell r="G48">
-            <v>9275997.1192100011</v>
-          </cell>
-          <cell r="J48">
-            <v>6306620.2038499992</v>
-          </cell>
-          <cell r="K48">
-            <v>5390831.20089</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>9282917.5610100012</v>
-          </cell>
-          <cell r="F49">
-            <v>157595.64811000001</v>
-          </cell>
-          <cell r="G49">
-            <v>8730094.1071700007</v>
-          </cell>
-          <cell r="J49">
-            <v>6255600.3214400001</v>
-          </cell>
-          <cell r="K49">
-            <v>5322419.2024899991</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>9601879.6816199999</v>
-          </cell>
-          <cell r="F50">
-            <v>90888.288840000008</v>
-          </cell>
-          <cell r="G50">
-            <v>9116380.8263399992</v>
-          </cell>
-          <cell r="J50">
-            <v>6285863.0131900003</v>
-          </cell>
-          <cell r="K50">
-            <v>5299418.11326</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>9665853.0220599994</v>
-          </cell>
-          <cell r="F51">
-            <v>228779.38485</v>
-          </cell>
-          <cell r="G51">
-            <v>8514583.2208200004</v>
-          </cell>
-          <cell r="J51">
-            <v>6151099.7816900006</v>
-          </cell>
-          <cell r="K51">
-            <v>5267245.3898</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Felletter, Conor K" id="{2792CE45-4317-4272-AD2D-215EEF504979}" userId="S::cfelletter@usbr.gov::14313ab9-1851-4d68-a9d7-35713d567140" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4535,25 +4685,17 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V13" dT="2022-08-17T21:56:55.73" personId="{2792CE45-4317-4272-AD2D-215EEF504979}" id="{FC76F462-2E90-4330-A0E9-0F650F6597C0}">
-    <text>There is an issue with the data from SLOAD, the 2011-2012 is messed up. Mark is looking into it. This is the sum of the LC gage.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CB55C4-5E51-4C62-9A91-E4779496D8F0}">
-  <dimension ref="A1:BN601"/>
+  <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R2:U21"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4740,18 +4882,17 @@
       <c r="BJ1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BN1" s="6"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>[1]annualCYFlow!A80</f>
         <v>2000</v>
@@ -4819,25 +4960,25 @@
         <f>[1]annualCYFlow!$U80</f>
         <v>8655796</v>
       </c>
-      <c r="R2" s="7">
-        <f ca="1">[2]CompareAnn!E32</f>
-        <v>9099265.1691899989</v>
-      </c>
-      <c r="S2" s="7">
-        <f ca="1">[2]CompareAnn!F32</f>
-        <v>111272.86347</v>
-      </c>
-      <c r="T2" s="7">
-        <f ca="1">[2]CompareAnn!G32</f>
-        <v>10675984.840129999</v>
-      </c>
-      <c r="U2" s="7">
-        <f ca="1">[2]CompareAnn!J32</f>
-        <v>7616896.2292449996</v>
-      </c>
-      <c r="V2" s="7">
-        <f ca="1">[2]CompareAnn!K32</f>
-        <v>6525416.1468600007</v>
+      <c r="R2" s="3">
+        <f>[1]annualCYFlow!$V80</f>
+        <v>9065665</v>
+      </c>
+      <c r="S2" s="3">
+        <f>[1]annualCYFlow!$W80</f>
+        <v>110901</v>
+      </c>
+      <c r="T2" s="3">
+        <f>[1]annualCYFlow!$X80</f>
+        <v>10692374</v>
+      </c>
+      <c r="U2" s="3">
+        <f>[1]annualCYFlow!$Y80</f>
+        <v>7895680</v>
+      </c>
+      <c r="V2" s="3">
+        <f>[1]annualCYFlow!$Z80</f>
+        <v>6509232</v>
       </c>
       <c r="W2" s="3">
         <f>[1]annualCYSaltMass!$B80</f>
@@ -5008,9 +5149,8 @@
       <c r="BM2" s="5">
         <v>466.01983587186299</v>
       </c>
-      <c r="BN2" s="6"/>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>[1]annualCYFlow!A81</f>
         <v>2001</v>
@@ -5078,25 +5218,25 @@
         <f>[1]annualCYFlow!$U81</f>
         <v>8090783</v>
       </c>
-      <c r="R3" s="7">
-        <f ca="1">[2]CompareAnn!E33</f>
-        <v>8526233.8423900008</v>
-      </c>
-      <c r="S3" s="7">
-        <f ca="1">[2]CompareAnn!F33</f>
-        <v>103699.27877000002</v>
-      </c>
-      <c r="T3" s="7">
-        <f ca="1">[2]CompareAnn!G33</f>
-        <v>10205835.72631</v>
-      </c>
-      <c r="U3" s="7">
-        <f ca="1">[2]CompareAnn!J33</f>
-        <v>7087490.3194419993</v>
-      </c>
-      <c r="V3" s="7">
-        <f ca="1">[2]CompareAnn!K33</f>
-        <v>6115743.2897799993</v>
+      <c r="R3" s="3">
+        <f>[1]annualCYFlow!$V81</f>
+        <v>8504609</v>
+      </c>
+      <c r="S3" s="3">
+        <f>[1]annualCYFlow!$W81</f>
+        <v>103534</v>
+      </c>
+      <c r="T3" s="3">
+        <f>[1]annualCYFlow!$X81</f>
+        <v>10209550</v>
+      </c>
+      <c r="U3" s="3">
+        <f>[1]annualCYFlow!$Y81</f>
+        <v>7699451</v>
+      </c>
+      <c r="V3" s="3">
+        <f>[1]annualCYFlow!$Z81</f>
+        <v>6097241</v>
       </c>
       <c r="W3" s="3">
         <f>[1]annualCYSaltMass!$B81</f>
@@ -5267,9 +5407,8 @@
       <c r="BM3" s="5">
         <v>472.193426092697</v>
       </c>
-      <c r="BN3" s="6"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>[1]annualCYFlow!A82</f>
         <v>2002</v>
@@ -5337,25 +5476,25 @@
         <f>[1]annualCYFlow!$U82</f>
         <v>7912550</v>
       </c>
-      <c r="R4" s="7">
-        <f ca="1">[2]CompareAnn!E34</f>
-        <v>8238587.5492199995</v>
-      </c>
-      <c r="S4" s="7">
-        <f ca="1">[2]CompareAnn!F34</f>
-        <v>77310.595820000002</v>
-      </c>
-      <c r="T4" s="7">
-        <f ca="1">[2]CompareAnn!G34</f>
-        <v>10442237.66148</v>
-      </c>
-      <c r="U4" s="7">
-        <f ca="1">[2]CompareAnn!J34</f>
-        <v>7247326.1708239997</v>
-      </c>
-      <c r="V4" s="7">
-        <f ca="1">[2]CompareAnn!K34</f>
-        <v>6152645.7797899991</v>
+      <c r="R4" s="3">
+        <f>[1]annualCYFlow!$V82</f>
+        <v>8215598</v>
+      </c>
+      <c r="S4" s="3">
+        <f>[1]annualCYFlow!$W82</f>
+        <v>77081</v>
+      </c>
+      <c r="T4" s="3">
+        <f>[1]annualCYFlow!$X82</f>
+        <v>10447813</v>
+      </c>
+      <c r="U4" s="3">
+        <f>[1]annualCYFlow!$Y82</f>
+        <v>7565419</v>
+      </c>
+      <c r="V4" s="3">
+        <f>[1]annualCYFlow!$Z82</f>
+        <v>6140916</v>
       </c>
       <c r="W4" s="3">
         <f>[1]annualCYSaltMass!$B82</f>
@@ -5526,9 +5665,8 @@
       <c r="BM4" s="5">
         <v>500.171854298477</v>
       </c>
-      <c r="BN4" s="6"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>[1]annualCYFlow!A83</f>
         <v>2003</v>
@@ -5596,25 +5734,25 @@
         <f>[1]annualCYFlow!$U83</f>
         <v>8365822</v>
       </c>
-      <c r="R5" s="7">
-        <f ca="1">[2]CompareAnn!E35</f>
-        <v>8705518.4126199987</v>
-      </c>
-      <c r="S5" s="7">
-        <f ca="1">[2]CompareAnn!F35</f>
-        <v>78757.190260000003</v>
-      </c>
-      <c r="T5" s="7">
-        <f ca="1">[2]CompareAnn!G35</f>
-        <v>9365253.7418300007</v>
-      </c>
-      <c r="U5" s="7">
-        <f ca="1">[2]CompareAnn!J35</f>
-        <v>6819441.9758599978</v>
-      </c>
-      <c r="V5" s="7">
-        <f ca="1">[2]CompareAnn!K35</f>
-        <v>5778762.0748699997</v>
+      <c r="R5" s="3">
+        <f>[1]annualCYFlow!$V83</f>
+        <v>8688617</v>
+      </c>
+      <c r="S5" s="3">
+        <f>[1]annualCYFlow!$W83</f>
+        <v>78503</v>
+      </c>
+      <c r="T5" s="3">
+        <f>[1]annualCYFlow!$X83</f>
+        <v>9381874</v>
+      </c>
+      <c r="U5" s="3">
+        <f>[1]annualCYFlow!$Y83</f>
+        <v>7303335</v>
+      </c>
+      <c r="V5" s="3">
+        <f>[1]annualCYFlow!$Z83</f>
+        <v>5775140</v>
       </c>
       <c r="W5" s="3">
         <f>[1]annualCYSaltMass!$B83</f>
@@ -5785,9 +5923,8 @@
       <c r="BM5" s="5">
         <v>582.26869880426102</v>
       </c>
-      <c r="BN5" s="6"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>[1]annualCYFlow!A84</f>
         <v>2004</v>
@@ -5855,25 +5992,25 @@
         <f>[1]annualCYFlow!$U84</f>
         <v>8557930</v>
       </c>
-      <c r="R6" s="7">
-        <f ca="1">[2]CompareAnn!E36</f>
-        <v>9007615.7405500002</v>
-      </c>
-      <c r="S6" s="7">
-        <f ca="1">[2]CompareAnn!F36</f>
-        <v>132408.23578999998</v>
-      </c>
-      <c r="T6" s="7">
-        <f ca="1">[2]CompareAnn!G36</f>
-        <v>9345125.5607100017</v>
-      </c>
-      <c r="U6" s="7">
-        <f ca="1">[2]CompareAnn!J36</f>
-        <v>6552708.2606699998</v>
-      </c>
-      <c r="V6" s="7">
-        <f ca="1">[2]CompareAnn!K36</f>
-        <v>5538394.0686800005</v>
+      <c r="R6" s="3">
+        <f>[1]annualCYFlow!$V84</f>
+        <v>8976822</v>
+      </c>
+      <c r="S6" s="3">
+        <f>[1]annualCYFlow!$W84</f>
+        <v>131876</v>
+      </c>
+      <c r="T6" s="3">
+        <f>[1]annualCYFlow!$X84</f>
+        <v>9345461</v>
+      </c>
+      <c r="U6" s="3">
+        <f>[1]annualCYFlow!$Y84</f>
+        <v>6779789</v>
+      </c>
+      <c r="V6" s="3">
+        <f>[1]annualCYFlow!$Z84</f>
+        <v>5528967</v>
       </c>
       <c r="W6" s="3">
         <f>[1]annualCYSaltMass!$B84</f>
@@ -6044,9 +6181,8 @@
       <c r="BM6" s="5">
         <v>506.77055803793297</v>
       </c>
-      <c r="BN6" s="6"/>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>[1]annualCYFlow!A85</f>
         <v>2005</v>
@@ -6114,25 +6250,25 @@
         <f>[1]annualCYFlow!$U85</f>
         <v>8431731</v>
       </c>
-      <c r="R7" s="7">
-        <f ca="1">[2]CompareAnn!E37</f>
-        <v>9058094.2209699992</v>
-      </c>
-      <c r="S7" s="7">
-        <f ca="1">[2]CompareAnn!F37</f>
-        <v>569639.71924000001</v>
-      </c>
-      <c r="T7" s="7">
-        <f ca="1">[2]CompareAnn!G37</f>
-        <v>8275510.1789799994</v>
-      </c>
-      <c r="U7" s="7">
-        <f ca="1">[2]CompareAnn!J37</f>
-        <v>6185430.7238099994</v>
-      </c>
-      <c r="V7" s="7">
-        <f ca="1">[2]CompareAnn!K37</f>
-        <v>5283846.8035200005</v>
+      <c r="R7" s="3">
+        <f>[1]annualCYFlow!$V85</f>
+        <v>9040711</v>
+      </c>
+      <c r="S7" s="3">
+        <f>[1]annualCYFlow!$W85</f>
+        <v>565810</v>
+      </c>
+      <c r="T7" s="3">
+        <f>[1]annualCYFlow!$X85</f>
+        <v>8274646</v>
+      </c>
+      <c r="U7" s="3">
+        <f>[1]annualCYFlow!$Y85</f>
+        <v>6370120</v>
+      </c>
+      <c r="V7" s="3">
+        <f>[1]annualCYFlow!$Z85</f>
+        <v>5270598</v>
       </c>
       <c r="W7" s="3">
         <f>[1]annualCYSaltMass!$B85</f>
@@ -6303,9 +6439,8 @@
       <c r="BM7" s="5">
         <v>434.01304389303402</v>
       </c>
-      <c r="BN7" s="6"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>[1]annualCYFlow!A86</f>
         <v>2006</v>
@@ -6373,25 +6508,25 @@
         <f>[1]annualCYFlow!$U86</f>
         <v>8676794</v>
       </c>
-      <c r="R8" s="7">
-        <f ca="1">[2]CompareAnn!E38</f>
-        <v>9141791.1414199993</v>
-      </c>
-      <c r="S8" s="7">
-        <f ca="1">[2]CompareAnn!F38</f>
-        <v>157231.50154000003</v>
-      </c>
-      <c r="T8" s="7">
-        <f ca="1">[2]CompareAnn!G38</f>
-        <v>9260297.2726699989</v>
-      </c>
-      <c r="U8" s="7">
-        <f ca="1">[2]CompareAnn!J38</f>
-        <v>6721389.7854499994</v>
-      </c>
-      <c r="V8" s="7">
-        <f ca="1">[2]CompareAnn!K38</f>
-        <v>5684221.2210200001</v>
+      <c r="R8" s="3">
+        <f>[1]annualCYFlow!$V86</f>
+        <v>9098803</v>
+      </c>
+      <c r="S8" s="3">
+        <f>[1]annualCYFlow!$W86</f>
+        <v>157055</v>
+      </c>
+      <c r="T8" s="3">
+        <f>[1]annualCYFlow!$X86</f>
+        <v>9259950</v>
+      </c>
+      <c r="U8" s="3">
+        <f>[1]annualCYFlow!$Y86</f>
+        <v>6592938</v>
+      </c>
+      <c r="V8" s="3">
+        <f>[1]annualCYFlow!$Z86</f>
+        <v>5672989</v>
       </c>
       <c r="W8" s="3">
         <f>[1]annualCYSaltMass!$B86</f>
@@ -6562,9 +6697,8 @@
       <c r="BM8" s="5">
         <v>448.78184692397502</v>
       </c>
-      <c r="BN8" s="6"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>[1]annualCYFlow!A87</f>
         <v>2007</v>
@@ -6632,25 +6766,25 @@
         <f>[1]annualCYFlow!$U87</f>
         <v>8365968</v>
       </c>
-      <c r="R9" s="7">
-        <f ca="1">[2]CompareAnn!E39</f>
-        <v>8818509.7916700002</v>
-      </c>
-      <c r="S9" s="7">
-        <f ca="1">[2]CompareAnn!F39</f>
-        <v>104941.36967000001</v>
-      </c>
-      <c r="T9" s="7">
-        <f ca="1">[2]CompareAnn!G39</f>
-        <v>9362972.6949199997</v>
-      </c>
-      <c r="U9" s="7">
-        <f ca="1">[2]CompareAnn!J39</f>
-        <v>6711345.4026200008</v>
-      </c>
-      <c r="V9" s="7">
-        <f ca="1">[2]CompareAnn!K39</f>
-        <v>5647591.9411899997</v>
+      <c r="R9" s="3">
+        <f>[1]annualCYFlow!$V87</f>
+        <v>8840828</v>
+      </c>
+      <c r="S9" s="3">
+        <f>[1]annualCYFlow!$W87</f>
+        <v>105398</v>
+      </c>
+      <c r="T9" s="3">
+        <f>[1]annualCYFlow!$X87</f>
+        <v>9362637</v>
+      </c>
+      <c r="U9" s="3">
+        <f>[1]annualCYFlow!$Y87</f>
+        <v>6565027</v>
+      </c>
+      <c r="V9" s="3">
+        <f>[1]annualCYFlow!$Z87</f>
+        <v>5673094</v>
       </c>
       <c r="W9" s="3">
         <f>[1]annualCYSaltMass!$B87</f>
@@ -6821,9 +6955,8 @@
       <c r="BM9" s="5">
         <v>487.29605359981298</v>
       </c>
-      <c r="BN9" s="6"/>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>[1]annualCYFlow!A88</f>
         <v>2008</v>
@@ -6891,25 +7024,25 @@
         <f>[1]annualCYFlow!$U88</f>
         <v>9313839</v>
       </c>
-      <c r="R10" s="7">
-        <f ca="1">[2]CompareAnn!E40</f>
-        <v>9761814.9459099993</v>
-      </c>
-      <c r="S10" s="7">
-        <f ca="1">[2]CompareAnn!F40</f>
-        <v>103210.45990000002</v>
-      </c>
-      <c r="T10" s="7">
-        <f ca="1">[2]CompareAnn!G40</f>
-        <v>9545338.8429499995</v>
-      </c>
-      <c r="U10" s="7">
-        <f ca="1">[2]CompareAnn!J40</f>
-        <v>6698509.2752799997</v>
-      </c>
-      <c r="V10" s="7">
-        <f ca="1">[2]CompareAnn!K40</f>
-        <v>5655507.1254700003</v>
+      <c r="R10" s="3">
+        <f>[1]annualCYFlow!$V88</f>
+        <v>9800340</v>
+      </c>
+      <c r="S10" s="3">
+        <f>[1]annualCYFlow!$W88</f>
+        <v>103354</v>
+      </c>
+      <c r="T10" s="3">
+        <f>[1]annualCYFlow!$X88</f>
+        <v>9540895</v>
+      </c>
+      <c r="U10" s="3">
+        <f>[1]annualCYFlow!$Y88</f>
+        <v>6848048</v>
+      </c>
+      <c r="V10" s="3">
+        <f>[1]annualCYFlow!$Z88</f>
+        <v>5672660</v>
       </c>
       <c r="W10" s="3">
         <f>[1]annualCYSaltMass!$B88</f>
@@ -7080,9 +7213,8 @@
       <c r="BM10" s="5">
         <v>396.75427655073997</v>
       </c>
-      <c r="BN10" s="6"/>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>[1]annualCYFlow!A89</f>
         <v>2009</v>
@@ -7150,25 +7282,25 @@
         <f>[1]annualCYFlow!$U89</f>
         <v>8466135</v>
       </c>
-      <c r="R11" s="7">
-        <f ca="1">[2]CompareAnn!E41</f>
-        <v>8859876.7719000001</v>
-      </c>
-      <c r="S11" s="7">
-        <f ca="1">[2]CompareAnn!F41</f>
-        <v>88476.758189999993</v>
-      </c>
-      <c r="T11" s="7">
-        <f ca="1">[2]CompareAnn!G41</f>
-        <v>9480056.28101</v>
-      </c>
-      <c r="U11" s="7">
-        <f ca="1">[2]CompareAnn!J41</f>
-        <v>6389984.0838800007</v>
-      </c>
-      <c r="V11" s="7">
-        <f ca="1">[2]CompareAnn!K41</f>
-        <v>5376293.6359999999</v>
+      <c r="R11" s="3">
+        <f>[1]annualCYFlow!$V89</f>
+        <v>8890543</v>
+      </c>
+      <c r="S11" s="3">
+        <f>[1]annualCYFlow!$W89</f>
+        <v>88693</v>
+      </c>
+      <c r="T11" s="3">
+        <f>[1]annualCYFlow!$X89</f>
+        <v>9481070</v>
+      </c>
+      <c r="U11" s="3">
+        <f>[1]annualCYFlow!$Y89</f>
+        <v>6535570</v>
+      </c>
+      <c r="V11" s="3">
+        <f>[1]annualCYFlow!$Z89</f>
+        <v>5407376</v>
       </c>
       <c r="W11" s="3">
         <f>[1]annualCYSaltMass!$B89</f>
@@ -7339,9 +7471,8 @@
       <c r="BM11" s="5">
         <v>347.55269093506899</v>
       </c>
-      <c r="BN11" s="6"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>[1]annualCYFlow!A90</f>
         <v>2010</v>
@@ -7409,25 +7540,25 @@
         <f>[1]annualCYFlow!$U90</f>
         <v>8351825</v>
       </c>
-      <c r="R12" s="7">
-        <f ca="1">[2]CompareAnn!E42</f>
-        <v>8868191.2632999998</v>
-      </c>
-      <c r="S12" s="7">
-        <f ca="1">[2]CompareAnn!F42</f>
-        <v>279804.10966000002</v>
-      </c>
-      <c r="T12" s="7">
-        <f ca="1">[2]CompareAnn!G42</f>
-        <v>9450794.0288699996</v>
-      </c>
-      <c r="U12" s="7">
-        <f ca="1">[2]CompareAnn!J42</f>
-        <v>6371203.6910100002</v>
-      </c>
-      <c r="V12" s="7">
-        <f ca="1">[2]CompareAnn!K42</f>
-        <v>5388080.2757400004</v>
+      <c r="R12" s="3">
+        <f>[1]annualCYFlow!$V90</f>
+        <v>8889880</v>
+      </c>
+      <c r="S12" s="3">
+        <f>[1]annualCYFlow!$W90</f>
+        <v>284473</v>
+      </c>
+      <c r="T12" s="3">
+        <f>[1]annualCYFlow!$X90</f>
+        <v>9452548</v>
+      </c>
+      <c r="U12" s="3">
+        <f>[1]annualCYFlow!$Y90</f>
+        <v>6451901</v>
+      </c>
+      <c r="V12" s="3">
+        <f>[1]annualCYFlow!$Z90</f>
+        <v>5479000</v>
       </c>
       <c r="W12" s="3">
         <f>[1]annualCYSaltMass!$B90</f>
@@ -7598,9 +7729,8 @@
       <c r="BM12" s="5">
         <v>487.05521840338702</v>
       </c>
-      <c r="BN12" s="6"/>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>[1]annualCYFlow!A91</f>
         <v>2011</v>
@@ -7668,25 +7798,25 @@
         <f>[1]annualCYFlow!$U91</f>
         <v>13844356</v>
       </c>
-      <c r="R13" s="7">
-        <f ca="1">[2]CompareAnn!E43</f>
-        <v>14197605.51471</v>
-      </c>
-      <c r="S13" s="7">
-        <f ca="1">[2]CompareAnn!F43</f>
-        <v>271506.04135999997</v>
-      </c>
-      <c r="T13" s="7">
-        <f ca="1">[2]CompareAnn!G43</f>
-        <v>9206305.1891099978</v>
-      </c>
-      <c r="U13" s="7">
-        <f ca="1">[2]CompareAnn!J43</f>
-        <v>6714205.950389999</v>
-      </c>
-      <c r="V13" s="7">
-        <f ca="1">[2]CompareAnn!K43</f>
-        <v>5694961.7777900007</v>
+      <c r="R13" s="3">
+        <f>[1]annualCYFlow!$V91</f>
+        <v>14237446</v>
+      </c>
+      <c r="S13" s="3">
+        <f>[1]annualCYFlow!$W91</f>
+        <v>272921</v>
+      </c>
+      <c r="T13" s="3">
+        <f>[1]annualCYFlow!$X91</f>
+        <v>9207507</v>
+      </c>
+      <c r="U13" s="3">
+        <f>[1]annualCYFlow!$Y91</f>
+        <v>6686897</v>
+      </c>
+      <c r="V13" s="3">
+        <f>[1]annualCYFlow!$Z91</f>
+        <v>5720870.205000001</v>
       </c>
       <c r="W13" s="3">
         <f>[1]annualCYSaltMass!$B91</f>
@@ -7766,7 +7896,7 @@
       </c>
       <c r="AP13" s="3">
         <f>[1]annualCYSaltMass!$Z91</f>
-        <v>6181071.1652763756</v>
+        <v>5300369.3382932562</v>
       </c>
       <c r="AQ13" s="4">
         <f>[1]annualCYConc!$C91</f>
@@ -7846,7 +7976,7 @@
       </c>
       <c r="BJ13" s="4">
         <f>[1]annualCYConc!AA91</f>
-        <v>679.83973343689911</v>
+        <v>681.41465833168638</v>
       </c>
       <c r="BK13" s="5">
         <v>15927145.5067317</v>
@@ -7857,9 +7987,8 @@
       <c r="BM13" s="5">
         <v>342.36870000401399</v>
       </c>
-      <c r="BN13" s="6"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>[1]annualCYFlow!A92</f>
         <v>2012</v>
@@ -7927,25 +8056,25 @@
         <f>[1]annualCYFlow!$U92</f>
         <v>8248261</v>
       </c>
-      <c r="R14" s="7">
-        <f ca="1">[2]CompareAnn!E44</f>
-        <v>8591033.8576400001</v>
-      </c>
-      <c r="S14" s="7">
-        <f ca="1">[2]CompareAnn!F44</f>
-        <v>121515.10162999999</v>
-      </c>
-      <c r="T14" s="7">
-        <f ca="1">[2]CompareAnn!G44</f>
-        <v>9388443.7823100016</v>
-      </c>
-      <c r="U14" s="7">
-        <f ca="1">[2]CompareAnn!J44</f>
-        <v>6711596.9608499995</v>
-      </c>
-      <c r="V14" s="7">
-        <f ca="1">[2]CompareAnn!K44</f>
-        <v>5697381.3327899985</v>
+      <c r="R14" s="3">
+        <f>[1]annualCYFlow!$V92</f>
+        <v>8611920</v>
+      </c>
+      <c r="S14" s="3">
+        <f>[1]annualCYFlow!$W92</f>
+        <v>122103</v>
+      </c>
+      <c r="T14" s="3">
+        <f>[1]annualCYFlow!$X92</f>
+        <v>9386795</v>
+      </c>
+      <c r="U14" s="3">
+        <f>[1]annualCYFlow!$Y92</f>
+        <v>6646432</v>
+      </c>
+      <c r="V14" s="3">
+        <f>[1]annualCYFlow!$Z92</f>
+        <v>5717379.2449999992</v>
       </c>
       <c r="W14" s="3">
         <f>[1]annualCYSaltMass!$B92</f>
@@ -8025,7 +8154,7 @@
       </c>
       <c r="AP14" s="3">
         <f>[1]annualCYSaltMass!$Z92</f>
-        <v>6083167.78086494</v>
+        <v>5251977.3485417254</v>
       </c>
       <c r="AQ14" s="4">
         <f>[1]annualCYConc!$C92</f>
@@ -8105,7 +8234,7 @@
       </c>
       <c r="BJ14" s="4">
         <f>[1]annualCYConc!AA92</f>
-        <v>674.1344896248529</v>
+        <v>675.60565626008258</v>
       </c>
       <c r="BK14" s="5">
         <v>5241733.3455990301</v>
@@ -8116,9 +8245,8 @@
       <c r="BM14" s="5">
         <v>590.33581179565897</v>
       </c>
-      <c r="BN14" s="6"/>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>[1]annualCYFlow!A93</f>
         <v>2013</v>
@@ -8186,25 +8314,25 @@
         <f>[1]annualCYFlow!$U93</f>
         <v>8008293</v>
       </c>
-      <c r="R15" s="7">
-        <f ca="1">[2]CompareAnn!E45</f>
-        <v>8485015.4549299981</v>
-      </c>
-      <c r="S15" s="7">
-        <f ca="1">[2]CompareAnn!F45</f>
-        <v>111391.07192999999</v>
-      </c>
-      <c r="T15" s="7">
-        <f ca="1">[2]CompareAnn!G45</f>
-        <v>9375282.3967000004</v>
-      </c>
-      <c r="U15" s="7">
-        <f ca="1">[2]CompareAnn!J45</f>
-        <v>6335016.2650700007</v>
-      </c>
-      <c r="V15" s="7">
-        <f ca="1">[2]CompareAnn!K45</f>
-        <v>5288892.6686399998</v>
+      <c r="R15" s="3">
+        <f>[1]annualCYFlow!$V93</f>
+        <v>8501941</v>
+      </c>
+      <c r="S15" s="3">
+        <f>[1]annualCYFlow!$W93</f>
+        <v>111572</v>
+      </c>
+      <c r="T15" s="3">
+        <f>[1]annualCYFlow!$X93</f>
+        <v>9375806</v>
+      </c>
+      <c r="U15" s="3">
+        <f>[1]annualCYFlow!$Y93</f>
+        <v>6335191</v>
+      </c>
+      <c r="V15" s="3">
+        <f>[1]annualCYFlow!$Z93</f>
+        <v>5311384</v>
       </c>
       <c r="W15" s="3">
         <f>[1]annualCYSaltMass!$B93</f>
@@ -8375,9 +8503,8 @@
       <c r="BM15" s="5">
         <v>607.60059635008997</v>
       </c>
-      <c r="BN15" s="6"/>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>[1]annualCYFlow!A94</f>
         <v>2014</v>
@@ -8445,25 +8572,25 @@
         <f>[1]annualCYFlow!$U94</f>
         <v>8066266</v>
       </c>
-      <c r="R16" s="7">
-        <f ca="1">[2]CompareAnn!E46</f>
-        <v>8424521.0953299999</v>
-      </c>
-      <c r="S16" s="7">
-        <f ca="1">[2]CompareAnn!F46</f>
-        <v>104726.67175000001</v>
-      </c>
-      <c r="T16" s="7">
-        <f ca="1">[2]CompareAnn!G46</f>
-        <v>9614840.053270001</v>
-      </c>
-      <c r="U16" s="7">
-        <f ca="1">[2]CompareAnn!J46</f>
-        <v>6455041.1866299994</v>
-      </c>
-      <c r="V16" s="7">
-        <f ca="1">[2]CompareAnn!K46</f>
-        <v>5442456.5639599999</v>
+      <c r="R16" s="3">
+        <f>[1]annualCYFlow!$V94</f>
+        <v>8438780</v>
+      </c>
+      <c r="S16" s="3">
+        <f>[1]annualCYFlow!$W94</f>
+        <v>104903</v>
+      </c>
+      <c r="T16" s="3">
+        <f>[1]annualCYFlow!$X94</f>
+        <v>9615156</v>
+      </c>
+      <c r="U16" s="3">
+        <f>[1]annualCYFlow!$Y94</f>
+        <v>6335907</v>
+      </c>
+      <c r="V16" s="3">
+        <f>[1]annualCYFlow!$Z94</f>
+        <v>5472565</v>
       </c>
       <c r="W16" s="3">
         <f>[1]annualCYSaltMass!$B94</f>
@@ -8539,7 +8666,7 @@
       </c>
       <c r="AO16" s="3">
         <f>[1]annualCYSaltMass!$Y94</f>
-        <v>5127397.0484449277</v>
+        <v>5154935.5790005885</v>
       </c>
       <c r="AP16" s="3">
         <f>[1]annualCYSaltMass!$Z94</f>
@@ -8619,7 +8746,7 @@
       </c>
       <c r="BI16" s="4">
         <f>[1]annualCYConc!$Z94</f>
-        <v>598.31538033036065</v>
+        <v>598.38663045401381</v>
       </c>
       <c r="BJ16" s="4">
         <f>[1]annualCYConc!AA94</f>
@@ -8634,9 +8761,8 @@
       <c r="BM16" s="5">
         <v>499.92480678335801</v>
       </c>
-      <c r="BN16" s="6"/>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>[1]annualCYFlow!A95</f>
         <v>2015</v>
@@ -8704,25 +8830,25 @@
         <f>[1]annualCYFlow!$U95</f>
         <v>8918927</v>
       </c>
-      <c r="R17" s="7">
-        <f ca="1">[2]CompareAnn!E47</f>
-        <v>9293467.7076600008</v>
-      </c>
-      <c r="S17" s="7">
-        <f ca="1">[2]CompareAnn!F47</f>
-        <v>92729.762810000015</v>
-      </c>
-      <c r="T17" s="7">
-        <f ca="1">[2]CompareAnn!G47</f>
-        <v>9414000.1577400006</v>
-      </c>
-      <c r="U17" s="7">
-        <f ca="1">[2]CompareAnn!J47</f>
-        <v>6276298.9256199989</v>
-      </c>
-      <c r="V17" s="7">
-        <f ca="1">[2]CompareAnn!K47</f>
-        <v>5337246.3571800003</v>
+      <c r="R17" s="3">
+        <f>[1]annualCYFlow!$V95</f>
+        <v>9321596</v>
+      </c>
+      <c r="S17" s="3">
+        <f>[1]annualCYFlow!$W95</f>
+        <v>93311</v>
+      </c>
+      <c r="T17" s="3">
+        <f>[1]annualCYFlow!$X95</f>
+        <v>9413492</v>
+      </c>
+      <c r="U17" s="3">
+        <f>[1]annualCYFlow!$Y95</f>
+        <v>6276391</v>
+      </c>
+      <c r="V17" s="3">
+        <f>[1]annualCYFlow!$Z95</f>
+        <v>5360230</v>
       </c>
       <c r="W17" s="3">
         <f>[1]annualCYSaltMass!$B95</f>
@@ -8798,7 +8924,7 @@
       </c>
       <c r="AO17" s="3">
         <f>[1]annualCYSaltMass!$Y95</f>
-        <v>5495199.6928309845</v>
+        <v>5412244.5349286404</v>
       </c>
       <c r="AP17" s="3">
         <f>[1]annualCYSaltMass!$Z95</f>
@@ -8878,7 +9004,7 @@
       </c>
       <c r="BI17" s="4">
         <f>[1]annualCYConc!$Z95</f>
-        <v>634.43779939780177</v>
+        <v>634.21258094022483</v>
       </c>
       <c r="BJ17" s="4">
         <f>[1]annualCYConc!AA95</f>
@@ -8893,9 +9019,8 @@
       <c r="BM17" s="5">
         <v>404.56691747923998</v>
       </c>
-      <c r="BN17" s="6"/>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>[1]annualCYFlow!A96</f>
         <v>2016</v>
@@ -8963,25 +9088,25 @@
         <f>[1]annualCYFlow!$U96</f>
         <v>9339231</v>
       </c>
-      <c r="R18" s="7">
-        <f ca="1">[2]CompareAnn!E48</f>
-        <v>9711319.3245100006</v>
-      </c>
-      <c r="S18" s="7">
-        <f ca="1">[2]CompareAnn!F48</f>
-        <v>117433.74210999999</v>
-      </c>
-      <c r="T18" s="7">
-        <f ca="1">[2]CompareAnn!G48</f>
-        <v>9275997.1192100011</v>
-      </c>
-      <c r="U18" s="7">
-        <f ca="1">[2]CompareAnn!J48</f>
-        <v>6306620.2038499992</v>
-      </c>
-      <c r="V18" s="7">
-        <f ca="1">[2]CompareAnn!K48</f>
-        <v>5390831.20089</v>
+      <c r="R18" s="3">
+        <f>[1]annualCYFlow!$V96</f>
+        <v>9738628</v>
+      </c>
+      <c r="S18" s="3">
+        <f>[1]annualCYFlow!$W96</f>
+        <v>117856</v>
+      </c>
+      <c r="T18" s="3">
+        <f>[1]annualCYFlow!$X96</f>
+        <v>9276628</v>
+      </c>
+      <c r="U18" s="3">
+        <f>[1]annualCYFlow!$Y96</f>
+        <v>6306713</v>
+      </c>
+      <c r="V18" s="3">
+        <f>[1]annualCYFlow!$Z96</f>
+        <v>5408231</v>
       </c>
       <c r="W18" s="3">
         <f>[1]annualCYSaltMass!$B96</f>
@@ -9057,7 +9182,7 @@
       </c>
       <c r="AO18" s="3">
         <f>[1]annualCYSaltMass!$Y96</f>
-        <v>5429845.0818609037</v>
+        <v>5355317.3273011474</v>
       </c>
       <c r="AP18" s="3">
         <f>[1]annualCYSaltMass!$Z96</f>
@@ -9137,7 +9262,7 @@
       </c>
       <c r="BI18" s="4">
         <f>[1]annualCYConc!$Z96</f>
-        <v>624.48908190894372</v>
+        <v>624.52463644690977</v>
       </c>
       <c r="BJ18" s="4">
         <f>[1]annualCYConc!AA96</f>
@@ -9152,9 +9277,8 @@
       <c r="BM18" s="5">
         <v>439.85408470259102</v>
       </c>
-      <c r="BN18" s="6"/>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>[1]annualCYFlow!A97</f>
         <v>2017</v>
@@ -9222,25 +9346,25 @@
         <f>[1]annualCYFlow!$U97</f>
         <v>8861425</v>
       </c>
-      <c r="R19" s="7">
-        <f ca="1">[2]CompareAnn!E49</f>
-        <v>9282917.5610100012</v>
-      </c>
-      <c r="S19" s="7">
-        <f ca="1">[2]CompareAnn!F49</f>
-        <v>157595.64811000001</v>
-      </c>
-      <c r="T19" s="7">
-        <f ca="1">[2]CompareAnn!G49</f>
-        <v>8730094.1071700007</v>
-      </c>
-      <c r="U19" s="7">
-        <f ca="1">[2]CompareAnn!J49</f>
-        <v>6255600.3214400001</v>
-      </c>
-      <c r="V19" s="7">
-        <f ca="1">[2]CompareAnn!K49</f>
-        <v>5322419.2024899991</v>
+      <c r="R19" s="3">
+        <f>[1]annualCYFlow!$V97</f>
+        <v>9300493</v>
+      </c>
+      <c r="S19" s="3">
+        <f>[1]annualCYFlow!$W97</f>
+        <v>157535</v>
+      </c>
+      <c r="T19" s="3">
+        <f>[1]annualCYFlow!$X97</f>
+        <v>8731564</v>
+      </c>
+      <c r="U19" s="3">
+        <f>[1]annualCYFlow!$Y97</f>
+        <v>6255692</v>
+      </c>
+      <c r="V19" s="3">
+        <f>[1]annualCYFlow!$Z97</f>
+        <v>5350274</v>
       </c>
       <c r="W19" s="3">
         <f>[1]annualCYSaltMass!$B97</f>
@@ -9268,7 +9392,7 @@
       </c>
       <c r="AC19" s="3">
         <f>[1]annualCYSaltMass!$L97</f>
-        <v>1521821.8695372608</v>
+        <v>1521913.2212140772</v>
       </c>
       <c r="AD19" s="3">
         <f>[1]annualCYSaltMass!$M97</f>
@@ -9316,7 +9440,7 @@
       </c>
       <c r="AO19" s="3">
         <f>[1]annualCYSaltMass!$Y97</f>
-        <v>5368895.775208395</v>
+        <v>5229946.966579075</v>
       </c>
       <c r="AP19" s="3">
         <f>[1]annualCYSaltMass!$Z97</f>
@@ -9348,7 +9472,7 @@
       </c>
       <c r="AW19" s="4">
         <f>[1]annualCYConc!$M97</f>
-        <v>374.81893774465141</v>
+        <v>374.84143731516679</v>
       </c>
       <c r="AX19" s="4">
         <f>[1]annualCYConc!$N97</f>
@@ -9396,7 +9520,7 @@
       </c>
       <c r="BI19" s="4">
         <f>[1]annualCYConc!$Z97</f>
-        <v>614.92929793877101</v>
+        <v>614.87857453659797</v>
       </c>
       <c r="BJ19" s="4">
         <f>[1]annualCYConc!AA97</f>
@@ -9411,9 +9535,8 @@
       <c r="BM19" s="5">
         <v>437.95178723048099</v>
       </c>
-      <c r="BN19" s="6"/>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>[1]annualCYFlow!A98</f>
         <v>2018</v>
@@ -9481,45 +9604,45 @@
         <f>[1]annualCYFlow!$U98</f>
         <v>9234721</v>
       </c>
-      <c r="R20" s="7">
-        <f ca="1">[2]CompareAnn!E50</f>
-        <v>9601879.6816199999</v>
-      </c>
-      <c r="S20" s="7">
-        <f ca="1">[2]CompareAnn!F50</f>
-        <v>90888.288840000008</v>
-      </c>
-      <c r="T20" s="7">
-        <f ca="1">[2]CompareAnn!G50</f>
-        <v>9116380.8263399992</v>
-      </c>
-      <c r="U20" s="7">
-        <f ca="1">[2]CompareAnn!J50</f>
-        <v>6285863.0131900003</v>
-      </c>
-      <c r="V20" s="7">
-        <f ca="1">[2]CompareAnn!K50</f>
-        <v>5299418.11326</v>
+      <c r="R20" s="3">
+        <f>[1]annualCYFlow!$V98</f>
+        <v>9627472</v>
+      </c>
+      <c r="S20" s="3">
+        <f>[1]annualCYFlow!$W98</f>
+        <v>91523</v>
+      </c>
+      <c r="T20" s="3">
+        <f>[1]annualCYFlow!$X98</f>
+        <v>9116511</v>
+      </c>
+      <c r="U20" s="3">
+        <f>[1]annualCYFlow!$Y98</f>
+        <v>6285954</v>
+      </c>
+      <c r="V20" s="3">
+        <f>[1]annualCYFlow!$Z98</f>
+        <v>5317008</v>
       </c>
       <c r="W20" s="3">
         <f>[1]annualCYSaltMass!$B98</f>
-        <v>452793.42343154573</v>
+        <v>452810.27256134909</v>
       </c>
       <c r="X20" s="3">
         <f>[1]annualCYSaltMass!$C98</f>
-        <v>1052032.6078218769</v>
+        <v>1051298.0180681378</v>
       </c>
       <c r="Y20" s="3">
         <f>[1]annualCYSaltMass!$G98</f>
-        <v>520128.76497096522</v>
+        <v>520302.227755528</v>
       </c>
       <c r="Z20" s="3">
         <f>[1]annualCYSaltMass!$H98</f>
-        <v>104482.61493051531</v>
+        <v>104452.41808544435</v>
       </c>
       <c r="AA20" s="3">
         <f>[1]annualCYSaltMass!$I98</f>
-        <v>2118329.8070087912</v>
+        <v>2119269.7675331212</v>
       </c>
       <c r="AB20" s="3">
         <f>[1]annualCYSaltMass!$K98</f>
@@ -9527,39 +9650,39 @@
       </c>
       <c r="AC20" s="3">
         <f>[1]annualCYSaltMass!$L98</f>
-        <v>729408.63687505922</v>
+        <v>730671.02979066852</v>
       </c>
       <c r="AD20" s="3">
         <f>[1]annualCYSaltMass!$M98</f>
-        <v>157561.15531714642</v>
+        <v>157395.56378098755</v>
       </c>
       <c r="AE20" s="3">
         <f>[1]annualCYSaltMass!$O98</f>
-        <v>74848.61218468078</v>
+        <v>74936.951383225183</v>
       </c>
       <c r="AF20" s="3">
         <f>[1]annualCYSaltMass!$P98</f>
-        <v>133945.08140400203</v>
+        <v>133132.97254597698</v>
       </c>
       <c r="AG20" s="3">
         <f>[1]annualCYSaltMass!$Q98</f>
-        <v>1387396.9556558104</v>
+        <v>1380567.0590985329</v>
       </c>
       <c r="AH20" s="3">
         <f>[1]annualCYSaltMass!$R98</f>
-        <v>40941.688829724197</v>
+        <v>41012.422243762987</v>
       </c>
       <c r="AI20" s="3">
         <f>[1]annualCYSaltMass!$S98</f>
-        <v>80457.555894058372</v>
+        <v>80303.430565930801</v>
       </c>
       <c r="AJ20" s="3">
         <f>[1]annualCYSaltMass!$T98</f>
-        <v>246998.22217172576</v>
+        <v>245360.05413598035</v>
       </c>
       <c r="AK20" s="3">
         <f>[1]annualCYSaltMass!$U98</f>
-        <v>5431981.0079522878</v>
+        <v>5431329.1242965879</v>
       </c>
       <c r="AL20" s="3">
         <f>[1]annualCYSaltMass!$V98</f>
@@ -9567,39 +9690,39 @@
       </c>
       <c r="AM20" s="3">
         <f>[1]annualCYSaltMass!$W98</f>
-        <v>252509.76096666919</v>
+        <v>252985.76380596071</v>
       </c>
       <c r="AN20" s="3">
         <f>[1]annualCYSaltMass!$X98</f>
-        <v>7077863.12003149</v>
+        <v>7074655.7049378864</v>
       </c>
       <c r="AO20" s="3">
         <f>[1]annualCYSaltMass!$Y98</f>
-        <v>5235569.6272892859</v>
+        <v>5057595.2514697118</v>
       </c>
       <c r="AP20" s="3">
         <f>[1]annualCYSaltMass!$Z98</f>
-        <v>4896711.2797276853</v>
+        <v>4896714.8662573779</v>
       </c>
       <c r="AQ20" s="4">
         <f>[1]annualCYConc!$C98</f>
-        <v>321.88048706699487</v>
+        <v>321.89246472794821</v>
       </c>
       <c r="AR20" s="4">
         <f>[1]annualCYConc!$D98</f>
-        <v>495.7354021468505</v>
+        <v>495.3892511394813</v>
       </c>
       <c r="AS20" s="4">
         <f>[1]annualCYConc!$H98</f>
-        <v>459.16212159221431</v>
+        <v>459.31525201979531</v>
       </c>
       <c r="AT20" s="4">
         <f>[1]annualCYConc!$I98</f>
-        <v>1042.2811995605412</v>
+        <v>1041.9799666336621</v>
       </c>
       <c r="AU20" s="4">
         <f>[1]annualCYConc!$J98</f>
-        <v>686.43049836562795</v>
+        <v>686.7350862390673</v>
       </c>
       <c r="AV20" s="4">
         <f>[1]annualCYConc!$L98</f>
@@ -9607,39 +9730,39 @@
       </c>
       <c r="AW20" s="4">
         <f>[1]annualCYConc!$M98</f>
-        <v>338.44980820842693</v>
+        <v>339.03556579144941</v>
       </c>
       <c r="AX20" s="4">
         <f>[1]annualCYConc!$N98</f>
-        <v>165.42613021711415</v>
+        <v>165.25227285380447</v>
       </c>
       <c r="AY20" s="4">
         <f>[1]annualCYConc!$P98</f>
-        <v>718.53630584887685</v>
+        <v>719.38434991450526</v>
       </c>
       <c r="AZ20" s="4">
         <f>[1]annualCYConc!$Q98</f>
-        <v>379.58874833350029</v>
+        <v>377.28730223561422</v>
       </c>
       <c r="BA20" s="4">
         <f>[1]annualCYConc!$R98</f>
-        <v>370.19764333352327</v>
+        <v>368.37522935213985</v>
       </c>
       <c r="BB20" s="4">
         <f>[1]annualCYConc!$S98</f>
-        <v>1400.2118205068587</v>
+        <v>1402.6309137409905</v>
       </c>
       <c r="BC20" s="4">
         <f>[1]annualCYConc!$T98</f>
-        <v>149.62692247395569</v>
+        <v>149.34029559016886</v>
       </c>
       <c r="BD20" s="4">
         <f>[1]annualCYConc!$U98</f>
-        <v>414.41578267792698</v>
+        <v>411.66724998517179</v>
       </c>
       <c r="BE20" s="4">
         <f>[1]annualCYConc!$V98</f>
-        <v>432.61532227124121</v>
+        <v>432.563404774221</v>
       </c>
       <c r="BF20" s="4">
         <f>[1]annualCYConc!$W98</f>
@@ -9647,32 +9770,31 @@
       </c>
       <c r="BG20" s="4">
         <f>[1]annualCYConc!$X98</f>
-        <v>2029.1556275471737</v>
+        <v>2032.9807622127773</v>
       </c>
       <c r="BH20" s="4">
         <f>[1]annualCYConc!$Y98</f>
-        <v>571.02788984668655</v>
+        <v>570.74758473938095</v>
       </c>
       <c r="BI20" s="4">
         <f>[1]annualCYConc!$Z98</f>
-        <v>591.12612264992663</v>
+        <v>591.75277811450724</v>
       </c>
       <c r="BJ20" s="4">
         <f>[1]annualCYConc!AA98</f>
-        <v>677.33671544221863</v>
+        <v>677.33721154829936</v>
       </c>
       <c r="BK20" s="5">
         <v>5515347.0756084695</v>
       </c>
       <c r="BL20" s="5">
-        <v>3167619.1347992099</v>
+        <v>3164050.7045957302</v>
       </c>
       <c r="BM20" s="5">
-        <v>428.78751528198097</v>
-      </c>
-      <c r="BN20" s="6"/>
+        <v>428.31301997875499</v>
+      </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>[1]annualCYFlow!A99</f>
         <v>2019</v>
@@ -9710,7 +9832,7 @@
       </c>
       <c r="J21" s="3">
         <f>[1]annualCYFlow!$M99</f>
-        <v>1392421.5519999999</v>
+        <v>1392421</v>
       </c>
       <c r="K21" s="3">
         <f>[1]annualCYFlow!$O99</f>
@@ -9740,45 +9862,45 @@
         <f>[1]annualCYFlow!$U99</f>
         <v>9197627</v>
       </c>
-      <c r="R21" s="7">
-        <f ca="1">[2]CompareAnn!E51</f>
-        <v>9665853.0220599994</v>
-      </c>
-      <c r="S21" s="7">
-        <f ca="1">[2]CompareAnn!F51</f>
-        <v>228779.38485</v>
-      </c>
-      <c r="T21" s="7">
-        <f ca="1">[2]CompareAnn!G51</f>
-        <v>8514583.2208200004</v>
-      </c>
-      <c r="U21" s="7">
-        <f ca="1">[2]CompareAnn!J51</f>
-        <v>6151099.7816900006</v>
-      </c>
-      <c r="V21" s="7">
-        <f ca="1">[2]CompareAnn!K51</f>
-        <v>5267245.3898</v>
+      <c r="R21" s="3">
+        <f>[1]annualCYFlow!$V99</f>
+        <v>9693783</v>
+      </c>
+      <c r="S21" s="3">
+        <f>[1]annualCYFlow!$W99</f>
+        <v>231863</v>
+      </c>
+      <c r="T21" s="3">
+        <f>[1]annualCYFlow!$X99</f>
+        <v>8514707</v>
+      </c>
+      <c r="U21" s="3">
+        <f>[1]annualCYFlow!$Y99</f>
+        <v>6151190</v>
+      </c>
+      <c r="V21" s="3">
+        <f>[1]annualCYFlow!$Z99</f>
+        <v>5289855</v>
       </c>
       <c r="W21" s="3">
         <f>[1]annualCYSaltMass!$B99</f>
-        <v>582892.58697738731</v>
+        <v>581871.84469176584</v>
       </c>
       <c r="X21" s="3">
         <f>[1]annualCYSaltMass!$C99</f>
-        <v>1389795.2165838114</v>
+        <v>1389429.8815309987</v>
       </c>
       <c r="Y21" s="3">
         <f>[1]annualCYSaltMass!$G99</f>
-        <v>844645.23538210534</v>
+        <v>839808.66412583238</v>
       </c>
       <c r="Z21" s="3">
         <f>[1]annualCYSaltMass!$H99</f>
-        <v>290982.16176627507</v>
+        <v>287697.70385974681</v>
       </c>
       <c r="AA21" s="3">
         <f>[1]annualCYSaltMass!$I99</f>
-        <v>3122692.1057380354</v>
+        <v>3111342.1526369485</v>
       </c>
       <c r="AB21" s="3">
         <f>[1]annualCYSaltMass!$K99</f>
@@ -9786,79 +9908,79 @@
       </c>
       <c r="AC21" s="3">
         <f>[1]annualCYSaltMass!$L99</f>
-        <v>643567.16406863462</v>
+        <v>646988.88580051693</v>
       </c>
       <c r="AD21" s="3">
         <f>[1]annualCYSaltMass!$M99</f>
-        <v>277886.15726461547</v>
+        <v>278289.06131759525</v>
       </c>
       <c r="AE21" s="3">
         <f>[1]annualCYSaltMass!$O99</f>
-        <v>231455.21707043075</v>
+        <v>229154.41557951164</v>
       </c>
       <c r="AF21" s="3">
         <f>[1]annualCYSaltMass!$P99</f>
-        <v>225560.1662420498</v>
+        <v>219672.33062273072</v>
       </c>
       <c r="AG21" s="3">
         <f>[1]annualCYSaltMass!$Q99</f>
-        <v>1752785.1514620751</v>
+        <v>1736319.9051531523</v>
       </c>
       <c r="AH21" s="3">
         <f>[1]annualCYSaltMass!$R99</f>
-        <v>102696.66441333762</v>
+        <v>104885.28535224003</v>
       </c>
       <c r="AI21" s="3">
         <f>[1]annualCYSaltMass!$S99</f>
-        <v>106228.4397701016</v>
+        <v>105049.33149085252</v>
       </c>
       <c r="AJ21" s="3">
         <f>[1]annualCYSaltMass!$T99</f>
-        <v>561223.17160150758</v>
+        <v>550739.88712526183</v>
       </c>
       <c r="AK21" s="3">
         <f>[1]annualCYSaltMass!$U99</f>
-        <v>5681594.2023974052</v>
+        <v>5686983.6014872361</v>
       </c>
       <c r="AL21" s="3">
         <f>[1]annualCYSaltMass!$V99</f>
-        <v>6725266.8753222935</v>
+        <v>6729916.6537544075</v>
       </c>
       <c r="AM21" s="3">
         <f>[1]annualCYSaltMass!$W99</f>
-        <v>540039.77681966336</v>
+        <v>562879.31348362367</v>
       </c>
       <c r="AN21" s="3">
         <f>[1]annualCYSaltMass!$X99</f>
-        <v>6490008.479351324</v>
+        <v>6470274.3584156726</v>
       </c>
       <c r="AO21" s="3">
         <f>[1]annualCYSaltMass!$Y99</f>
-        <v>4898584.424195868</v>
+        <v>4809931.4616813622</v>
       </c>
       <c r="AP21" s="3">
         <f>[1]annualCYSaltMass!$Z99</f>
-        <v>4704414.8133121077</v>
+        <v>4709643.0826131385</v>
       </c>
       <c r="AQ21" s="4">
         <f>[1]annualCYConc!$C99</f>
-        <v>230.21450047712716</v>
+        <v>229.81135643198024</v>
       </c>
       <c r="AR21" s="4">
         <f>[1]annualCYConc!$D99</f>
-        <v>306.52619729848954</v>
+        <v>306.44562084870597</v>
       </c>
       <c r="AS21" s="4">
         <f>[1]annualCYConc!$H99</f>
-        <v>288.09813171967585</v>
+        <v>286.44843657609169</v>
       </c>
       <c r="AT21" s="4">
         <f>[1]annualCYConc!$I99</f>
-        <v>329.2748257924157</v>
+        <v>325.55813986764997</v>
       </c>
       <c r="AU21" s="4">
         <f>[1]annualCYConc!$J99</f>
-        <v>382.40952219361458</v>
+        <v>381.01959004682004</v>
       </c>
       <c r="AV21" s="4">
         <f>[1]annualCYConc!$L99</f>
@@ -9866,1814 +9988,330 @@
       </c>
       <c r="AW21" s="4">
         <f>[1]annualCYConc!$M99</f>
-        <v>330.42026883071554</v>
+        <v>332.17704928446767</v>
       </c>
       <c r="AX21" s="4">
         <f>[1]annualCYConc!$N99</f>
-        <v>146.77889363080126</v>
+        <v>146.99176499061701</v>
       </c>
       <c r="AY21" s="4">
         <f>[1]annualCYConc!$P99</f>
-        <v>373.22482810937862</v>
+        <v>369.51475299493092</v>
       </c>
       <c r="AZ21" s="4">
         <f>[1]annualCYConc!$Q99</f>
-        <v>299.6455762210706</v>
+        <v>291.82387646690137</v>
       </c>
       <c r="BA21" s="4">
         <f>[1]annualCYConc!$R99</f>
-        <v>296.02371759161241</v>
+        <v>293.24294128291132</v>
       </c>
       <c r="BB21" s="4">
         <f>[1]annualCYConc!$S99</f>
-        <v>626.20315129708081</v>
+        <v>639.5484857026787</v>
       </c>
       <c r="BC21" s="4">
         <f>[1]annualCYConc!$T99</f>
-        <v>153.57573221839567</v>
+        <v>151.87108120646002</v>
       </c>
       <c r="BD21" s="4">
         <f>[1]annualCYConc!$U99</f>
-        <v>302.5851326377491</v>
+        <v>296.93303881084563</v>
       </c>
       <c r="BE21" s="4">
         <f>[1]annualCYConc!$V99</f>
-        <v>454.31999602723619</v>
+        <v>454.75095108770984</v>
       </c>
       <c r="BF21" s="4">
         <f>[1]annualCYConc!$W99</f>
-        <v>510.25076278270308</v>
+        <v>510.60354476678503</v>
       </c>
       <c r="BG21" s="4">
         <f>[1]annualCYConc!$X99</f>
-        <v>1713.0172317273559</v>
+        <v>1785.4647097639556</v>
       </c>
       <c r="BH21" s="4">
         <f>[1]annualCYConc!$Y99</f>
-        <v>560.53067232673538</v>
+        <v>558.88238510144868</v>
       </c>
       <c r="BI21" s="4">
         <f>[1]annualCYConc!$Z99</f>
-        <v>575.67709005536449</v>
+        <v>575.10504777124424</v>
       </c>
       <c r="BJ21" s="4">
         <f>[1]annualCYConc!AA99</f>
-        <v>653.99896680667268</v>
+        <v>654.8045088192398</v>
       </c>
       <c r="BK21" s="5">
         <v>12123840.123800199</v>
       </c>
       <c r="BL21" s="5">
-        <v>6576203.8838002998</v>
+        <v>6611438.6802225402</v>
       </c>
       <c r="BM21" s="5">
-        <v>401.48787908494199</v>
-      </c>
-      <c r="BN21" s="6"/>
+        <v>403.61119842393998</v>
+      </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN22" s="6"/>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN23" s="6"/>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN24" s="6"/>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN25" s="6"/>
-    </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN26" s="6"/>
-    </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN27" s="6"/>
-    </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN28" s="6"/>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN29" s="6"/>
-    </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN30" s="6"/>
-    </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN31" s="6"/>
-    </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="BN32" s="6"/>
-    </row>
-    <row r="33" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN33" s="6"/>
-    </row>
-    <row r="34" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN34" s="6"/>
-    </row>
-    <row r="35" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN35" s="6"/>
-    </row>
-    <row r="36" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN36" s="6"/>
-    </row>
-    <row r="37" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN37" s="6"/>
-    </row>
-    <row r="38" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN38" s="6"/>
-    </row>
-    <row r="39" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN39" s="6"/>
-    </row>
-    <row r="40" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN40" s="6"/>
-    </row>
-    <row r="41" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN41" s="6"/>
-    </row>
-    <row r="42" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN42" s="6"/>
-    </row>
-    <row r="43" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN43" s="6"/>
-    </row>
-    <row r="44" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN44" s="6"/>
-    </row>
-    <row r="45" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN45" s="6"/>
-    </row>
-    <row r="46" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN46" s="6"/>
-    </row>
-    <row r="47" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN47" s="6"/>
-    </row>
-    <row r="48" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN48" s="6"/>
-    </row>
-    <row r="49" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN49" s="6"/>
-    </row>
-    <row r="50" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN50" s="6"/>
-    </row>
-    <row r="51" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN51" s="6"/>
-    </row>
-    <row r="52" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN52" s="6"/>
-    </row>
-    <row r="53" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN53" s="6"/>
-    </row>
-    <row r="54" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN54" s="6"/>
-    </row>
-    <row r="55" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN55" s="6"/>
-    </row>
-    <row r="56" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN56" s="6"/>
-    </row>
-    <row r="57" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN57" s="6"/>
-    </row>
-    <row r="58" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN58" s="6"/>
-    </row>
-    <row r="59" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN59" s="6"/>
-    </row>
-    <row r="60" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN60" s="6"/>
-    </row>
-    <row r="61" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN61" s="6"/>
-    </row>
-    <row r="62" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN62" s="6"/>
-    </row>
-    <row r="63" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN63" s="6"/>
-    </row>
-    <row r="64" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN64" s="6"/>
-    </row>
-    <row r="65" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN65" s="6"/>
-    </row>
-    <row r="66" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN66" s="6"/>
-    </row>
-    <row r="67" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN67" s="6"/>
-    </row>
-    <row r="68" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN68" s="6"/>
-    </row>
-    <row r="69" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN69" s="6"/>
-    </row>
-    <row r="70" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN70" s="6"/>
-    </row>
-    <row r="71" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN71" s="6"/>
-    </row>
-    <row r="72" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN72" s="6"/>
-    </row>
-    <row r="73" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN73" s="6"/>
-    </row>
-    <row r="74" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN74" s="6"/>
-    </row>
-    <row r="75" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN75" s="6"/>
-    </row>
-    <row r="76" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN76" s="6"/>
-    </row>
-    <row r="77" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN77" s="6"/>
-    </row>
-    <row r="78" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN78" s="6"/>
-    </row>
-    <row r="79" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN79" s="6"/>
-    </row>
-    <row r="80" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN80" s="6"/>
-    </row>
-    <row r="81" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN81" s="6"/>
-    </row>
-    <row r="82" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN82" s="6"/>
-    </row>
-    <row r="83" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN83" s="6"/>
-    </row>
-    <row r="84" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN84" s="6"/>
-    </row>
-    <row r="85" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN85" s="6"/>
-    </row>
-    <row r="86" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN86" s="6"/>
-    </row>
-    <row r="87" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN87" s="6"/>
-    </row>
-    <row r="88" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN88" s="6"/>
-    </row>
-    <row r="89" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN89" s="6"/>
-    </row>
-    <row r="90" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN90" s="6"/>
-    </row>
-    <row r="91" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN91" s="6"/>
-    </row>
-    <row r="92" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN92" s="6"/>
-    </row>
-    <row r="93" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN93" s="6"/>
-    </row>
-    <row r="94" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN94" s="6"/>
-    </row>
-    <row r="95" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN95" s="6"/>
-    </row>
-    <row r="96" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN96" s="6"/>
-    </row>
-    <row r="97" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN97" s="6"/>
-    </row>
-    <row r="98" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN98" s="6"/>
-    </row>
-    <row r="99" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN99" s="6"/>
-    </row>
-    <row r="100" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN100" s="6"/>
-    </row>
-    <row r="101" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN101" s="6"/>
-    </row>
-    <row r="102" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN102" s="6"/>
-    </row>
-    <row r="103" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN103" s="6"/>
-    </row>
-    <row r="104" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN104" s="6"/>
-    </row>
-    <row r="105" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN105" s="6"/>
-    </row>
-    <row r="106" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN106" s="6"/>
-    </row>
-    <row r="107" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN107" s="6"/>
-    </row>
-    <row r="108" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN108" s="6"/>
-    </row>
-    <row r="109" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN109" s="6"/>
-    </row>
-    <row r="110" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN110" s="6"/>
-    </row>
-    <row r="111" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN111" s="6"/>
-    </row>
-    <row r="112" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN112" s="6"/>
-    </row>
-    <row r="113" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN113" s="6"/>
-    </row>
-    <row r="114" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN114" s="6"/>
-    </row>
-    <row r="115" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN115" s="6"/>
-    </row>
-    <row r="116" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN116" s="6"/>
-    </row>
-    <row r="117" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN117" s="6"/>
-    </row>
-    <row r="118" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN118" s="6"/>
-    </row>
-    <row r="119" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN119" s="6"/>
-    </row>
-    <row r="120" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN120" s="6"/>
-    </row>
-    <row r="121" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN121" s="6"/>
-    </row>
-    <row r="122" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN122" s="6"/>
-    </row>
-    <row r="123" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN123" s="6"/>
-    </row>
-    <row r="124" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN124" s="6"/>
-    </row>
-    <row r="125" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN125" s="6"/>
-    </row>
-    <row r="126" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN126" s="6"/>
-    </row>
-    <row r="127" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN127" s="6"/>
-    </row>
-    <row r="128" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN128" s="6"/>
-    </row>
-    <row r="129" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN129" s="6"/>
-    </row>
-    <row r="130" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN130" s="6"/>
-    </row>
-    <row r="131" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN131" s="6"/>
-    </row>
-    <row r="132" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN132" s="6"/>
-    </row>
-    <row r="133" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN133" s="6"/>
-    </row>
-    <row r="134" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN134" s="6"/>
-    </row>
-    <row r="135" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN135" s="6"/>
-    </row>
-    <row r="136" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN136" s="6"/>
-    </row>
-    <row r="137" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN137" s="6"/>
-    </row>
-    <row r="138" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN138" s="6"/>
-    </row>
-    <row r="139" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN139" s="6"/>
-    </row>
-    <row r="140" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN140" s="6"/>
-    </row>
-    <row r="141" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN141" s="6"/>
-    </row>
-    <row r="142" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN142" s="6"/>
-    </row>
-    <row r="143" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN143" s="6"/>
-    </row>
-    <row r="144" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN144" s="6"/>
-    </row>
-    <row r="145" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN145" s="6"/>
-    </row>
-    <row r="146" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN146" s="6"/>
-    </row>
-    <row r="147" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN147" s="6"/>
-    </row>
-    <row r="148" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN148" s="6"/>
-    </row>
-    <row r="149" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN149" s="6"/>
-    </row>
-    <row r="150" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN150" s="6"/>
-    </row>
-    <row r="151" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN151" s="6"/>
-    </row>
-    <row r="152" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN152" s="6"/>
-    </row>
-    <row r="153" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN153" s="6"/>
-    </row>
-    <row r="154" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN154" s="6"/>
-    </row>
-    <row r="155" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN155" s="6"/>
-    </row>
-    <row r="156" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN156" s="6"/>
-    </row>
-    <row r="157" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN157" s="6"/>
-    </row>
-    <row r="158" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN158" s="6"/>
-    </row>
-    <row r="159" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN159" s="6"/>
-    </row>
-    <row r="160" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN160" s="6"/>
-    </row>
-    <row r="161" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN161" s="6"/>
-    </row>
-    <row r="162" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN162" s="6"/>
-    </row>
-    <row r="163" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN163" s="6"/>
-    </row>
-    <row r="164" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN164" s="6"/>
-    </row>
-    <row r="165" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN165" s="6"/>
-    </row>
-    <row r="166" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN166" s="6"/>
-    </row>
-    <row r="167" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN167" s="6"/>
-    </row>
-    <row r="168" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN168" s="6"/>
-    </row>
-    <row r="169" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN169" s="6"/>
-    </row>
-    <row r="170" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN170" s="6"/>
-    </row>
-    <row r="171" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN171" s="6"/>
-    </row>
-    <row r="172" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN172" s="6"/>
-    </row>
-    <row r="173" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN173" s="6"/>
-    </row>
-    <row r="174" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN174" s="6"/>
-    </row>
-    <row r="175" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN175" s="6"/>
-    </row>
-    <row r="176" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN176" s="6"/>
-    </row>
-    <row r="177" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN177" s="6"/>
-    </row>
-    <row r="178" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN178" s="6"/>
-    </row>
-    <row r="179" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN179" s="6"/>
-    </row>
-    <row r="180" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN180" s="6"/>
-    </row>
-    <row r="181" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN181" s="6"/>
-    </row>
-    <row r="182" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN182" s="6"/>
-    </row>
-    <row r="183" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN183" s="6"/>
-    </row>
-    <row r="184" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN184" s="6"/>
-    </row>
-    <row r="185" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN185" s="6"/>
-    </row>
-    <row r="186" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN186" s="6"/>
-    </row>
-    <row r="187" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN187" s="6"/>
-    </row>
-    <row r="188" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN188" s="6"/>
-    </row>
-    <row r="189" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN189" s="6"/>
-    </row>
-    <row r="190" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN190" s="6"/>
-    </row>
-    <row r="191" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN191" s="6"/>
-    </row>
-    <row r="192" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN192" s="6"/>
-    </row>
-    <row r="193" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN193" s="6"/>
-    </row>
-    <row r="194" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN194" s="6"/>
-    </row>
-    <row r="195" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN195" s="6"/>
-    </row>
-    <row r="196" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN196" s="6"/>
-    </row>
-    <row r="197" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN197" s="6"/>
-    </row>
-    <row r="198" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN198" s="6"/>
-    </row>
-    <row r="199" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN199" s="6"/>
-    </row>
-    <row r="200" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN200" s="6"/>
-    </row>
-    <row r="201" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN201" s="6"/>
-    </row>
-    <row r="202" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN202" s="6"/>
-    </row>
-    <row r="203" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN203" s="6"/>
-    </row>
-    <row r="204" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN204" s="6"/>
-    </row>
-    <row r="205" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN205" s="6"/>
-    </row>
-    <row r="206" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN206" s="6"/>
-    </row>
-    <row r="207" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN207" s="6"/>
-    </row>
-    <row r="208" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN208" s="6"/>
-    </row>
-    <row r="209" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN209" s="6"/>
-    </row>
-    <row r="210" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN210" s="6"/>
-    </row>
-    <row r="211" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN211" s="6"/>
-    </row>
-    <row r="212" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN212" s="6"/>
-    </row>
-    <row r="213" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN213" s="6"/>
-    </row>
-    <row r="214" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN214" s="6"/>
-    </row>
-    <row r="215" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN215" s="6"/>
-    </row>
-    <row r="216" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN216" s="6"/>
-    </row>
-    <row r="217" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN217" s="6"/>
-    </row>
-    <row r="218" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN218" s="6"/>
-    </row>
-    <row r="219" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN219" s="6"/>
-    </row>
-    <row r="220" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN220" s="6"/>
-    </row>
-    <row r="221" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN221" s="6"/>
-    </row>
-    <row r="222" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN222" s="6"/>
-    </row>
-    <row r="223" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN223" s="6"/>
-    </row>
-    <row r="224" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN224" s="6"/>
-    </row>
-    <row r="225" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN225" s="6"/>
-    </row>
-    <row r="226" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN226" s="6"/>
-    </row>
-    <row r="227" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN227" s="6"/>
-    </row>
-    <row r="228" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN228" s="6"/>
-    </row>
-    <row r="229" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN229" s="6"/>
-    </row>
-    <row r="230" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN230" s="6"/>
-    </row>
-    <row r="231" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN231" s="6"/>
-    </row>
-    <row r="232" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN232" s="6"/>
-    </row>
-    <row r="233" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN233" s="6"/>
-    </row>
-    <row r="234" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN234" s="6"/>
-    </row>
-    <row r="235" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN235" s="6"/>
-    </row>
-    <row r="236" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN236" s="6"/>
-    </row>
-    <row r="237" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN237" s="6"/>
-    </row>
-    <row r="238" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN238" s="6"/>
-    </row>
-    <row r="239" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN239" s="6"/>
-    </row>
-    <row r="240" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN240" s="6"/>
-    </row>
-    <row r="241" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN241" s="6"/>
-    </row>
-    <row r="242" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN242" s="6"/>
-    </row>
-    <row r="243" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN243" s="6"/>
-    </row>
-    <row r="244" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN244" s="6"/>
-    </row>
-    <row r="245" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN245" s="6"/>
-    </row>
-    <row r="246" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN246" s="6"/>
-    </row>
-    <row r="247" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN247" s="6"/>
-    </row>
-    <row r="248" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN248" s="6"/>
-    </row>
-    <row r="249" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN249" s="6"/>
-    </row>
-    <row r="250" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN250" s="6"/>
-    </row>
-    <row r="251" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN251" s="6"/>
-    </row>
-    <row r="252" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN252" s="6"/>
-    </row>
-    <row r="253" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN253" s="6"/>
-    </row>
-    <row r="254" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN254" s="6"/>
-    </row>
-    <row r="255" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN255" s="6"/>
-    </row>
-    <row r="256" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN256" s="6"/>
-    </row>
-    <row r="257" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN257" s="6"/>
-    </row>
-    <row r="258" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN258" s="6"/>
-    </row>
-    <row r="259" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN259" s="6"/>
-    </row>
-    <row r="260" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN260" s="6"/>
-    </row>
-    <row r="261" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN261" s="6"/>
-    </row>
-    <row r="262" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN262" s="6"/>
-    </row>
-    <row r="263" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN263" s="6"/>
-    </row>
-    <row r="264" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN264" s="6"/>
-    </row>
-    <row r="265" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN265" s="6"/>
-    </row>
-    <row r="266" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN266" s="6"/>
-    </row>
-    <row r="267" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN267" s="6"/>
-    </row>
-    <row r="268" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN268" s="6"/>
-    </row>
-    <row r="269" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN269" s="6"/>
-    </row>
-    <row r="270" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN270" s="6"/>
-    </row>
-    <row r="271" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN271" s="6"/>
-    </row>
-    <row r="272" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN272" s="6"/>
-    </row>
-    <row r="273" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN273" s="6"/>
-    </row>
-    <row r="274" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN274" s="6"/>
-    </row>
-    <row r="275" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN275" s="6"/>
-    </row>
-    <row r="276" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN276" s="6"/>
-    </row>
-    <row r="277" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN277" s="6"/>
-    </row>
-    <row r="278" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN278" s="6"/>
-    </row>
-    <row r="279" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN279" s="6"/>
-    </row>
-    <row r="280" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN280" s="6"/>
-    </row>
-    <row r="281" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN281" s="6"/>
-    </row>
-    <row r="282" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN282" s="6"/>
-    </row>
-    <row r="283" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN283" s="6"/>
-    </row>
-    <row r="284" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN284" s="6"/>
-    </row>
-    <row r="285" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN285" s="6"/>
-    </row>
-    <row r="286" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN286" s="6"/>
-    </row>
-    <row r="287" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN287" s="6"/>
-    </row>
-    <row r="288" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN288" s="6"/>
-    </row>
-    <row r="289" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN289" s="6"/>
-    </row>
-    <row r="290" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN290" s="6"/>
-    </row>
-    <row r="291" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN291" s="6"/>
-    </row>
-    <row r="292" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN292" s="6"/>
-    </row>
-    <row r="293" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN293" s="6"/>
-    </row>
-    <row r="294" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN294" s="6"/>
-    </row>
-    <row r="295" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN295" s="6"/>
-    </row>
-    <row r="296" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN296" s="6"/>
-    </row>
-    <row r="297" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN297" s="6"/>
-    </row>
-    <row r="298" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN298" s="6"/>
-    </row>
-    <row r="299" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN299" s="6"/>
-    </row>
-    <row r="300" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN300" s="6"/>
-    </row>
-    <row r="301" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN301" s="6"/>
-    </row>
-    <row r="302" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN302" s="6"/>
-    </row>
-    <row r="303" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN303" s="6"/>
-    </row>
-    <row r="304" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN304" s="6"/>
-    </row>
-    <row r="305" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN305" s="6"/>
-    </row>
-    <row r="306" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN306" s="6"/>
-    </row>
-    <row r="307" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN307" s="6"/>
-    </row>
-    <row r="308" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN308" s="6"/>
-    </row>
-    <row r="309" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN309" s="6"/>
-    </row>
-    <row r="310" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN310" s="6"/>
-    </row>
-    <row r="311" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN311" s="6"/>
-    </row>
-    <row r="312" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN312" s="6"/>
-    </row>
-    <row r="313" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN313" s="6"/>
-    </row>
-    <row r="314" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN314" s="6"/>
-    </row>
-    <row r="315" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN315" s="6"/>
-    </row>
-    <row r="316" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN316" s="6"/>
-    </row>
-    <row r="317" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN317" s="6"/>
-    </row>
-    <row r="318" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN318" s="6"/>
-    </row>
-    <row r="319" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN319" s="6"/>
-    </row>
-    <row r="320" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN320" s="6"/>
-    </row>
-    <row r="321" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN321" s="6"/>
-    </row>
-    <row r="322" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN322" s="6"/>
-    </row>
-    <row r="323" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN323" s="6"/>
-    </row>
-    <row r="324" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN324" s="6"/>
-    </row>
-    <row r="325" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN325" s="6"/>
-    </row>
-    <row r="326" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN326" s="6"/>
-    </row>
-    <row r="327" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN327" s="6"/>
-    </row>
-    <row r="328" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN328" s="6"/>
-    </row>
-    <row r="329" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN329" s="6"/>
-    </row>
-    <row r="330" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN330" s="6"/>
-    </row>
-    <row r="331" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN331" s="6"/>
-    </row>
-    <row r="332" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN332" s="6"/>
-    </row>
-    <row r="333" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN333" s="6"/>
-    </row>
-    <row r="334" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN334" s="6"/>
-    </row>
-    <row r="335" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN335" s="6"/>
-    </row>
-    <row r="336" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN336" s="6"/>
-    </row>
-    <row r="337" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN337" s="6"/>
-    </row>
-    <row r="338" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN338" s="6"/>
-    </row>
-    <row r="339" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN339" s="6"/>
-    </row>
-    <row r="340" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN340" s="6"/>
-    </row>
-    <row r="341" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN341" s="6"/>
-    </row>
-    <row r="342" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN342" s="6"/>
-    </row>
-    <row r="343" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN343" s="6"/>
-    </row>
-    <row r="344" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN344" s="6"/>
-    </row>
-    <row r="345" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN345" s="6"/>
-    </row>
-    <row r="346" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN346" s="6"/>
-    </row>
-    <row r="347" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN347" s="6"/>
-    </row>
-    <row r="348" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN348" s="6"/>
-    </row>
-    <row r="349" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN349" s="6"/>
-    </row>
-    <row r="350" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN350" s="6"/>
-    </row>
-    <row r="351" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN351" s="6"/>
-    </row>
-    <row r="352" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN352" s="6"/>
-    </row>
-    <row r="353" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN353" s="6"/>
-    </row>
-    <row r="354" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN354" s="6"/>
-    </row>
-    <row r="355" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN355" s="6"/>
-    </row>
-    <row r="356" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN356" s="6"/>
-    </row>
-    <row r="357" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN357" s="6"/>
-    </row>
-    <row r="358" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN358" s="6"/>
-    </row>
-    <row r="359" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN359" s="6"/>
-    </row>
-    <row r="360" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN360" s="6"/>
-    </row>
-    <row r="361" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN361" s="6"/>
-    </row>
-    <row r="362" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN362" s="6"/>
-    </row>
-    <row r="363" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN363" s="6"/>
-    </row>
-    <row r="364" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN364" s="6"/>
-    </row>
-    <row r="365" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN365" s="6"/>
-    </row>
-    <row r="366" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN366" s="6"/>
-    </row>
-    <row r="367" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN367" s="6"/>
-    </row>
-    <row r="368" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN368" s="6"/>
-    </row>
-    <row r="369" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN369" s="6"/>
-    </row>
-    <row r="370" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN370" s="6"/>
-    </row>
-    <row r="371" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN371" s="6"/>
-    </row>
-    <row r="372" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN372" s="6"/>
-    </row>
-    <row r="373" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN373" s="6"/>
-    </row>
-    <row r="374" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN374" s="6"/>
-    </row>
-    <row r="375" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN375" s="6"/>
-    </row>
-    <row r="376" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN376" s="6"/>
-    </row>
-    <row r="377" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN377" s="6"/>
-    </row>
-    <row r="378" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN378" s="6"/>
-    </row>
-    <row r="379" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN379" s="6"/>
-    </row>
-    <row r="380" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN380" s="6"/>
-    </row>
-    <row r="381" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN381" s="6"/>
-    </row>
-    <row r="382" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN382" s="6"/>
-    </row>
-    <row r="383" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN383" s="6"/>
-    </row>
-    <row r="384" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN384" s="6"/>
-    </row>
-    <row r="385" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN385" s="6"/>
-    </row>
-    <row r="386" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN386" s="6"/>
-    </row>
-    <row r="387" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN387" s="6"/>
-    </row>
-    <row r="388" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN388" s="6"/>
-    </row>
-    <row r="389" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN389" s="6"/>
-    </row>
-    <row r="390" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN390" s="6"/>
-    </row>
-    <row r="391" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN391" s="6"/>
-    </row>
-    <row r="392" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN392" s="6"/>
-    </row>
-    <row r="393" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN393" s="6"/>
-    </row>
-    <row r="394" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN394" s="6"/>
-    </row>
-    <row r="395" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN395" s="6"/>
-    </row>
-    <row r="396" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN396" s="6"/>
-    </row>
-    <row r="397" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN397" s="6"/>
-    </row>
-    <row r="398" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN398" s="6"/>
-    </row>
-    <row r="399" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN399" s="6"/>
-    </row>
-    <row r="400" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN400" s="6"/>
-    </row>
-    <row r="401" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN401" s="6"/>
-    </row>
-    <row r="402" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN402" s="6"/>
-    </row>
-    <row r="403" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN403" s="6"/>
-    </row>
-    <row r="404" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN404" s="6"/>
-    </row>
-    <row r="405" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN405" s="6"/>
-    </row>
-    <row r="406" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN406" s="6"/>
-    </row>
-    <row r="407" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN407" s="6"/>
-    </row>
-    <row r="408" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN408" s="6"/>
-    </row>
-    <row r="409" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN409" s="6"/>
-    </row>
-    <row r="410" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN410" s="6"/>
-    </row>
-    <row r="411" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN411" s="6"/>
-    </row>
-    <row r="412" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN412" s="6"/>
-    </row>
-    <row r="413" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN413" s="6"/>
-    </row>
-    <row r="414" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN414" s="6"/>
-    </row>
-    <row r="415" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN415" s="6"/>
-    </row>
-    <row r="416" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN416" s="6"/>
-    </row>
-    <row r="417" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN417" s="6"/>
-    </row>
-    <row r="418" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN418" s="6"/>
-    </row>
-    <row r="419" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN419" s="6"/>
-    </row>
-    <row r="420" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN420" s="6"/>
-    </row>
-    <row r="421" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN421" s="6"/>
-    </row>
-    <row r="422" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN422" s="6"/>
-    </row>
-    <row r="423" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN423" s="6"/>
-    </row>
-    <row r="424" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN424" s="6"/>
-    </row>
-    <row r="425" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN425" s="6"/>
-    </row>
-    <row r="426" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN426" s="6"/>
-    </row>
-    <row r="427" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN427" s="6"/>
-    </row>
-    <row r="428" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN428" s="6"/>
-    </row>
-    <row r="429" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN429" s="6"/>
-    </row>
-    <row r="430" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN430" s="6"/>
-    </row>
-    <row r="431" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN431" s="6"/>
-    </row>
-    <row r="432" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN432" s="6"/>
-    </row>
-    <row r="433" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN433" s="6"/>
-    </row>
-    <row r="434" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN434" s="6"/>
-    </row>
-    <row r="435" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN435" s="6"/>
-    </row>
-    <row r="436" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN436" s="6"/>
-    </row>
-    <row r="437" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN437" s="6"/>
-    </row>
-    <row r="438" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN438" s="6"/>
-    </row>
-    <row r="439" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN439" s="6"/>
-    </row>
-    <row r="440" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN440" s="6"/>
-    </row>
-    <row r="441" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN441" s="6"/>
-    </row>
-    <row r="442" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN442" s="6"/>
-    </row>
-    <row r="443" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN443" s="6"/>
-    </row>
-    <row r="444" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN444" s="6"/>
-    </row>
-    <row r="445" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN445" s="6"/>
-    </row>
-    <row r="446" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN446" s="6"/>
-    </row>
-    <row r="447" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN447" s="6"/>
-    </row>
-    <row r="448" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN448" s="6"/>
-    </row>
-    <row r="449" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN449" s="6"/>
-    </row>
-    <row r="450" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN450" s="6"/>
-    </row>
-    <row r="451" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN451" s="6"/>
-    </row>
-    <row r="452" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN452" s="6"/>
-    </row>
-    <row r="453" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN453" s="6"/>
-    </row>
-    <row r="454" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN454" s="6"/>
-    </row>
-    <row r="455" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN455" s="6"/>
-    </row>
-    <row r="456" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN456" s="6"/>
-    </row>
-    <row r="457" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN457" s="6"/>
-    </row>
-    <row r="458" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN458" s="6"/>
-    </row>
-    <row r="459" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN459" s="6"/>
-    </row>
-    <row r="460" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN460" s="6"/>
-    </row>
-    <row r="461" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN461" s="6"/>
-    </row>
-    <row r="462" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN462" s="6"/>
-    </row>
-    <row r="463" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN463" s="6"/>
-    </row>
-    <row r="464" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN464" s="6"/>
-    </row>
-    <row r="465" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN465" s="6"/>
-    </row>
-    <row r="466" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN466" s="6"/>
-    </row>
-    <row r="467" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN467" s="6"/>
-    </row>
-    <row r="468" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN468" s="6"/>
-    </row>
-    <row r="469" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN469" s="6"/>
-    </row>
-    <row r="470" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN470" s="6"/>
-    </row>
-    <row r="471" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN471" s="6"/>
-    </row>
-    <row r="472" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN472" s="6"/>
-    </row>
-    <row r="473" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN473" s="6"/>
-    </row>
-    <row r="474" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN474" s="6"/>
-    </row>
-    <row r="475" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN475" s="6"/>
-    </row>
-    <row r="476" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN476" s="6"/>
-    </row>
-    <row r="477" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN477" s="6"/>
-    </row>
-    <row r="478" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN478" s="6"/>
-    </row>
-    <row r="479" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN479" s="6"/>
-    </row>
-    <row r="480" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN480" s="6"/>
-    </row>
-    <row r="481" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN481" s="6"/>
-    </row>
-    <row r="482" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN482" s="6"/>
-    </row>
-    <row r="483" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN483" s="6"/>
-    </row>
-    <row r="484" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN484" s="6"/>
-    </row>
-    <row r="485" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN485" s="6"/>
-    </row>
-    <row r="486" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN486" s="6"/>
-    </row>
-    <row r="487" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN487" s="6"/>
-    </row>
-    <row r="488" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN488" s="6"/>
-    </row>
-    <row r="489" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN489" s="6"/>
-    </row>
-    <row r="490" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN490" s="6"/>
-    </row>
-    <row r="491" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN491" s="6"/>
-    </row>
-    <row r="492" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN492" s="6"/>
-    </row>
-    <row r="493" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN493" s="6"/>
-    </row>
-    <row r="494" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN494" s="6"/>
-    </row>
-    <row r="495" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN495" s="6"/>
-    </row>
-    <row r="496" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN496" s="6"/>
-    </row>
-    <row r="497" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN497" s="6"/>
-    </row>
-    <row r="498" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN498" s="6"/>
-    </row>
-    <row r="499" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN499" s="6"/>
-    </row>
-    <row r="500" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN500" s="6"/>
-    </row>
-    <row r="501" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN501" s="6"/>
-    </row>
-    <row r="502" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN502" s="6"/>
-    </row>
-    <row r="503" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN503" s="6"/>
-    </row>
-    <row r="504" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN504" s="6"/>
-    </row>
-    <row r="505" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN505" s="6"/>
-    </row>
-    <row r="506" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN506" s="6"/>
-    </row>
-    <row r="507" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN507" s="6"/>
-    </row>
-    <row r="508" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN508" s="6"/>
-    </row>
-    <row r="509" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN509" s="6"/>
-    </row>
-    <row r="510" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN510" s="6"/>
-    </row>
-    <row r="511" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN511" s="6"/>
-    </row>
-    <row r="512" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN512" s="6"/>
-    </row>
-    <row r="513" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN513" s="6"/>
-    </row>
-    <row r="514" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN514" s="6"/>
-    </row>
-    <row r="515" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN515" s="6"/>
-    </row>
-    <row r="516" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN516" s="6"/>
-    </row>
-    <row r="517" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN517" s="6"/>
-    </row>
-    <row r="518" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN518" s="6"/>
-    </row>
-    <row r="519" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN519" s="6"/>
-    </row>
-    <row r="520" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN520" s="6"/>
-    </row>
-    <row r="521" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN521" s="6"/>
-    </row>
-    <row r="522" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN522" s="6"/>
-    </row>
-    <row r="523" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN523" s="6"/>
-    </row>
-    <row r="524" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN524" s="6"/>
-    </row>
-    <row r="525" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN525" s="6"/>
-    </row>
-    <row r="526" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN526" s="6"/>
-    </row>
-    <row r="527" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN527" s="6"/>
-    </row>
-    <row r="528" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN528" s="6"/>
-    </row>
-    <row r="529" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN529" s="6"/>
-    </row>
-    <row r="530" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN530" s="6"/>
-    </row>
-    <row r="531" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN531" s="6"/>
-    </row>
-    <row r="532" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN532" s="6"/>
-    </row>
-    <row r="533" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN533" s="6"/>
-    </row>
-    <row r="534" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN534" s="6"/>
-    </row>
-    <row r="535" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN535" s="6"/>
-    </row>
-    <row r="536" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN536" s="6"/>
-    </row>
-    <row r="537" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN537" s="6"/>
-    </row>
-    <row r="538" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN538" s="6"/>
-    </row>
-    <row r="539" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN539" s="6"/>
-    </row>
-    <row r="540" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN540" s="6"/>
-    </row>
-    <row r="541" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN541" s="6"/>
-    </row>
-    <row r="542" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN542" s="6"/>
-    </row>
-    <row r="543" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN543" s="6"/>
-    </row>
-    <row r="544" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN544" s="6"/>
-    </row>
-    <row r="545" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN545" s="6"/>
-    </row>
-    <row r="546" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN546" s="6"/>
-    </row>
-    <row r="547" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN547" s="6"/>
-    </row>
-    <row r="548" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN548" s="6"/>
-    </row>
-    <row r="549" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN549" s="6"/>
-    </row>
-    <row r="550" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN550" s="6"/>
-    </row>
-    <row r="551" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN551" s="6"/>
-    </row>
-    <row r="552" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN552" s="6"/>
-    </row>
-    <row r="553" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN553" s="6"/>
-    </row>
-    <row r="554" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN554" s="6"/>
-    </row>
-    <row r="555" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN555" s="6"/>
-    </row>
-    <row r="556" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN556" s="6"/>
-    </row>
-    <row r="557" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN557" s="6"/>
-    </row>
-    <row r="558" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN558" s="6"/>
-    </row>
-    <row r="559" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN559" s="6"/>
-    </row>
-    <row r="560" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN560" s="6"/>
-    </row>
-    <row r="561" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN561" s="6"/>
-    </row>
-    <row r="562" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN562" s="6"/>
-    </row>
-    <row r="563" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN563" s="6"/>
-    </row>
-    <row r="564" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN564" s="6"/>
-    </row>
-    <row r="565" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN565" s="6"/>
-    </row>
-    <row r="566" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN566" s="6"/>
-    </row>
-    <row r="567" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN567" s="6"/>
-    </row>
-    <row r="568" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN568" s="6"/>
-    </row>
-    <row r="569" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN569" s="6"/>
-    </row>
-    <row r="570" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN570" s="6"/>
-    </row>
-    <row r="571" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN571" s="6"/>
-    </row>
-    <row r="572" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN572" s="6"/>
-    </row>
-    <row r="573" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN573" s="6"/>
-    </row>
-    <row r="574" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN574" s="6"/>
-    </row>
-    <row r="575" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN575" s="6"/>
-    </row>
-    <row r="576" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN576" s="6"/>
-    </row>
-    <row r="577" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN577" s="6"/>
-    </row>
-    <row r="578" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN578" s="6"/>
-    </row>
-    <row r="579" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN579" s="6"/>
-    </row>
-    <row r="580" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN580" s="6"/>
-    </row>
-    <row r="581" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN581" s="6"/>
-    </row>
-    <row r="582" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN582" s="6"/>
-    </row>
-    <row r="583" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN583" s="6"/>
-    </row>
-    <row r="584" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN584" s="6"/>
-    </row>
-    <row r="585" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN585" s="6"/>
-    </row>
-    <row r="586" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN586" s="6"/>
-    </row>
-    <row r="587" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN587" s="6"/>
-    </row>
-    <row r="588" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN588" s="6"/>
-    </row>
-    <row r="589" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN589" s="6"/>
-    </row>
-    <row r="590" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN590" s="6"/>
-    </row>
-    <row r="591" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN591" s="6"/>
-    </row>
-    <row r="592" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN592" s="6"/>
-    </row>
-    <row r="593" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN593" s="6"/>
-    </row>
-    <row r="594" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN594" s="6"/>
-    </row>
-    <row r="595" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN595" s="6"/>
-    </row>
-    <row r="596" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN596" s="6"/>
-    </row>
-    <row r="597" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN597" s="6"/>
-    </row>
-    <row r="598" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN598" s="6"/>
-    </row>
-    <row r="599" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN599" s="6"/>
-    </row>
-    <row r="600" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN600" s="6"/>
-    </row>
-    <row r="601" spans="66:66" x14ac:dyDescent="0.25">
-      <c r="BN601" s="6"/>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f>[1]annualCYFlow!A100</f>
+        <v>2020</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <f>[1]annualCYFlow!$B100</f>
+        <v>1207832</v>
+      </c>
+      <c r="D22" s="3">
+        <f>[1]annualCYFlow!$C100</f>
+        <v>1864343</v>
+      </c>
+      <c r="E22" s="3">
+        <f>[1]annualCYFlow!$G100</f>
+        <v>939557</v>
+      </c>
+      <c r="F22" s="3">
+        <f>[1]annualCYFlow!$H100</f>
+        <v>118465</v>
+      </c>
+      <c r="G22" s="3">
+        <f>[1]annualCYFlow!$I100</f>
+        <v>2680203</v>
+      </c>
+      <c r="H22" s="3">
+        <f>[1]annualCYFlow!$K100</f>
+        <v>957163.75000000012</v>
+      </c>
+      <c r="I22" s="3">
+        <f>[1]annualCYFlow!$L100</f>
+        <v>1338279</v>
+      </c>
+      <c r="J22" s="3">
+        <f>[1]annualCYFlow!$M100</f>
+        <v>953454</v>
+      </c>
+      <c r="K22" s="3">
+        <f>[1]annualCYFlow!$O100</f>
+        <v>119694</v>
+      </c>
+      <c r="L22" s="3">
+        <f>[1]annualCYFlow!$P100</f>
+        <v>312618</v>
+      </c>
+      <c r="M22" s="3">
+        <f>[1]annualCYFlow!$Q100</f>
+        <v>2972988</v>
+      </c>
+      <c r="N22" s="3">
+        <f>[1]annualCYFlow!$R100</f>
+        <v>28716</v>
+      </c>
+      <c r="O22" s="3">
+        <f>[1]annualCYFlow!$S100</f>
+        <v>403185</v>
+      </c>
+      <c r="P22" s="3">
+        <f>[1]annualCYFlow!$T100</f>
+        <v>595913</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>[1]annualCYFlow!$U100</f>
+        <v>8439058</v>
+      </c>
+      <c r="R22" s="3">
+        <f>[1]annualCYFlow!$V100</f>
+        <v>8805412</v>
+      </c>
+      <c r="S22" s="3">
+        <f>[1]annualCYFlow!$W100</f>
+        <v>126032</v>
+      </c>
+      <c r="T22" s="3">
+        <f>[1]annualCYFlow!$X100</f>
+        <v>8782929</v>
+      </c>
+      <c r="U22" s="3">
+        <f>[1]annualCYFlow!$Y100</f>
+        <v>6243045</v>
+      </c>
+      <c r="V22" s="3">
+        <f>[1]annualCYFlow!$Z100</f>
+        <v>5310524</v>
+      </c>
+      <c r="W22" s="3">
+        <f>[1]annualCYSaltMass!$B100</f>
+        <v>466139.91962163011</v>
+      </c>
+      <c r="X22" s="3">
+        <f>[1]annualCYSaltMass!$C100</f>
+        <v>1131820.7478337155</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>[1]annualCYSaltMass!$G100</f>
+        <v>543736.84540163982</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>[1]annualCYSaltMass!$H100</f>
+        <v>128711.82185303635</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>[1]annualCYSaltMass!$I100</f>
+        <v>2205214.7575011472</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>[1]annualCYSaltMass!$K100</f>
+        <v>335924.83828601392</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>[1]annualCYSaltMass!$L100</f>
+        <v>641354.09686039831</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>[1]annualCYSaltMass!$M100</f>
+        <v>225067.71809406285</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>[1]annualCYSaltMass!$O100</f>
+        <v>101143.88401094775</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>[1]annualCYSaltMass!$P100</f>
+        <v>149702.49593440385</v>
+      </c>
+      <c r="AG22" s="3">
+        <f>[1]annualCYSaltMass!$Q100</f>
+        <v>1335901.5684575534</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>[1]annualCYSaltMass!$R100</f>
+        <v>43723.937674623296</v>
+      </c>
+      <c r="AI22" s="3">
+        <f>[1]annualCYSaltMass!$S100</f>
+        <v>81428.424369316315</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f>[1]annualCYSaltMass!$T100</f>
+        <v>287866.40984920476</v>
+      </c>
+      <c r="AK22" s="3">
+        <f>[1]annualCYSaltMass!$U100</f>
+        <v>4871140.7608720958</v>
+      </c>
+      <c r="AL22" s="3">
+        <f>[1]annualCYSaltMass!$V100</f>
+        <v>5847130.1987414807</v>
+      </c>
+      <c r="AM22" s="3">
+        <f>[1]annualCYSaltMass!$W100</f>
+        <v>360955.80501791986</v>
+      </c>
+      <c r="AN22" s="3">
+        <f>[1]annualCYSaltMass!$X100</f>
+        <v>6692791.8232992422</v>
+      </c>
+      <c r="AO22" s="3">
+        <f>[1]annualCYSaltMass!$Y100</f>
+        <v>4892031.5842699753</v>
+      </c>
+      <c r="AP22" s="3">
+        <f>[1]annualCYSaltMass!$Z100</f>
+        <v>4765537.0758653097</v>
+      </c>
+      <c r="AQ22" s="4">
+        <f>[1]annualCYConc!$C100</f>
+        <v>283.84235324117924</v>
+      </c>
+      <c r="AR22" s="4">
+        <f>[1]annualCYConc!$D100</f>
+        <v>446.4977428509668</v>
+      </c>
+      <c r="AS22" s="4">
+        <f>[1]annualCYConc!$H100</f>
+        <v>425.63081633152638</v>
+      </c>
+      <c r="AT22" s="4">
+        <f>[1]annualCYConc!$I100</f>
+        <v>799.09021398725361</v>
+      </c>
+      <c r="AU22" s="4">
+        <f>[1]annualCYConc!$J100</f>
+        <v>605.13271763370165</v>
+      </c>
+      <c r="AV22" s="4">
+        <f>[1]annualCYConc!$L100</f>
+        <v>258.12098134525877</v>
+      </c>
+      <c r="AW22" s="4">
+        <f>[1]annualCYConc!$M100</f>
+        <v>352.46714720921426</v>
+      </c>
+      <c r="AX22" s="4">
+        <f>[1]annualCYConc!$N100</f>
+        <v>173.61246205899812</v>
+      </c>
+      <c r="AY22" s="4">
+        <f>[1]annualCYConc!$P100</f>
+        <v>621.49076478353129</v>
+      </c>
+      <c r="AZ22" s="4">
+        <f>[1]annualCYConc!$Q100</f>
+        <v>352.19443889987139</v>
+      </c>
+      <c r="BA22" s="4">
+        <f>[1]annualCYConc!$R100</f>
+        <v>330.48270511014505</v>
+      </c>
+      <c r="BB22" s="4">
+        <f>[1]annualCYConc!$S100</f>
+        <v>1119.857480150439</v>
+      </c>
+      <c r="BC22" s="4">
+        <f>[1]annualCYConc!$T100</f>
+        <v>148.53852201842827</v>
+      </c>
+      <c r="BD22" s="4">
+        <f>[1]annualCYConc!$U100</f>
+        <v>355.28393070800604</v>
+      </c>
+      <c r="BE22" s="4">
+        <f>[1]annualCYConc!$V100</f>
+        <v>424.52585089473257</v>
+      </c>
+      <c r="BF22" s="4">
+        <f>[1]annualCYConc!$W100</f>
+        <v>488.38297560636585</v>
+      </c>
+      <c r="BG22" s="4">
+        <f>[1]annualCYConc!$X100</f>
+        <v>2106.3989804176722</v>
+      </c>
+      <c r="BH22" s="4">
+        <f>[1]annualCYConc!$Y100</f>
+        <v>560.44807006865244</v>
+      </c>
+      <c r="BI22" s="4">
+        <f>[1]annualCYConc!$Z100</f>
+        <v>576.31539409054392</v>
+      </c>
+      <c r="BJ22" s="4">
+        <f>[1]annualCYConc!AA100</f>
+        <v>659.99692197982711</v>
+      </c>
+      <c r="BK22" s="5">
+        <v>6272847.1339589702</v>
+      </c>
+      <c r="BL22" s="5">
+        <v>3858679.3084372701</v>
+      </c>
+      <c r="BM22" s="5">
+        <v>453.85169438390398</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>